--- a/Business Plan Documents/YPS Cash Flow.xlsx
+++ b/Business Plan Documents/YPS Cash Flow.xlsx
@@ -1,18 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer2\Documents\Not Mine - KIMMY\TENTREP REPO\tentrep-yps\Business Plan Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Cash Flow" sheetId="1" r:id="rId1"/>
+    <sheet name="Cash Flow (Year 1)" sheetId="1" r:id="rId1"/>
+    <sheet name="Cash Flow (Year 2)" sheetId="2" r:id="rId2"/>
+    <sheet name="Cash Flow (Year 3)" sheetId="3" r:id="rId3"/>
+    <sheet name="Cash Flow (Year 4)" sheetId="4" r:id="rId4"/>
+    <sheet name="Basis of Estimates" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Cash Flow'!$6:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Cash Flow (Year 1)'!$6:$6</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -22,7 +31,79 @@
     <author>Microsoft</author>
   </authors>
   <commentList>
-    <comment ref="B13" authorId="0">
+    <comment ref="B13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Totals are calculated automatically.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Microsoft</author>
+  </authors>
+  <commentList>
+    <comment ref="B13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Totals are calculated automatically.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Microsoft</author>
+  </authors>
+  <commentList>
+    <comment ref="B13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Totals are calculated automatically.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Microsoft</author>
+  </authors>
+  <commentList>
+    <comment ref="B13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -41,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="54">
   <si>
     <t>Total Item EST</t>
   </si>
@@ -189,15 +270,30 @@
   <si>
     <t>Sales Volume (peso)</t>
   </si>
+  <si>
+    <t>Purchases (specify)</t>
+  </si>
+  <si>
+    <t>Telephone</t>
+  </si>
+  <si>
+    <t>Other expenses (specify)</t>
+  </si>
+  <si>
+    <t>Other (specify)</t>
+  </si>
+  <si>
+    <t>Sales Volume (dollars)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmmm"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -502,6 +598,519 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Text Box 6"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1514475" y="3286125"/>
+          <a:ext cx="6334125" cy="4400550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF99" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="43"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-PH" sz="800" b="1" i="0" u="sng" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:rPr>
+            <a:t>Notes on Preparation</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-PH" sz="800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial"/>
+            <a:cs typeface="Arial"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-PH" sz="800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial"/>
+            <a:cs typeface="Arial"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-PH" sz="800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:rPr>
+            <a:t>Note:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-PH" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:rPr>
+            <a:t> You may want to print this information to use as reference later. To delete these instructions, click the border of this text box and then press the DELETE key.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-PH" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial"/>
+            <a:cs typeface="Arial"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-PH" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:rPr>
+            <a:t>Refer back to your Profit &amp; Loss Projection.  Line-by-line ask yourself when you should expect cash to come and go. You have already done a sales projection, now you must predict when you will actually collect from customers. On the expense side, you have previously projected expenses; now predict when you will actually have to write the check to pay those bills. Most items will be the same as on the Profit &amp; Loss Projection. Rent and utility bills, for instance, are usually paid in the month they are incurred. Other items will differ from the Profit &amp; Loss view.  Insurance and some types of taxes, for example, may actually be payable quarterly or semiannually, even though you recognize them as monthly expenses. Just try to make the Cash Flow as realistic as you can line by line. The payoff for you will be an ability to manage and forecast working capital needs. Change the category labels in the left column as needed to fit your accounting system.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-PH" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial"/>
+            <a:cs typeface="Arial"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-PH" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:rPr>
+            <a:t>Note that lines for 'Loan principal payment' through 'Owners' Withdrawal' are for items that always are different on the Cash Flow than on the Profit &amp; Loss.  Loan Principal Payment, Capital Purchases, and Owner's Draw simply do not, by the rules of accounting, show up on the Profit &amp; Loss Projection. They do, however, definitely take cash out of the business, and so need to be included in your Cash plan. On the other hand, you will not find Depreciation on the Cash Flow because you never write a check for Depreciation. Cash from Loans Received and Owners' Injections go in the "Loan/ other cash inj." row. The "Pre-Startup" column is for cash outlays prior to the time covered by the Cash Flow. It is intended primarily for new business startups or major expansion projects where a great deal of cash must go out before operations commence. The bottom section, "ESSENTIAL OPERATING DATA", is not actually part of the Cash model, but it allows you to track items which have a heavy impact on cash. The Cash Flow Projection is the best way to forecast working capital needs. Begin with the amount of Cash on Hand you expect to have. Project all the Receipts and Paid Outs for the year. If CASH POSITION gets dangerously low or negative, you will need to pump in more cash to keep the operation afloat. Many profitable businesses have gone under because they could not pay the bills while waiting for money to flow in. Your creditors do not care about profit; they want to be paid with cash. Cash is the financial lifeblood of your business.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-PH"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Text Box 6"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1514475" y="3286125"/>
+          <a:ext cx="6334125" cy="4400550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF99" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="43"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-PH" sz="800" b="1" i="0" u="sng" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:rPr>
+            <a:t>Notes on Preparation</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-PH" sz="800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial"/>
+            <a:cs typeface="Arial"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-PH" sz="800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial"/>
+            <a:cs typeface="Arial"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-PH" sz="800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:rPr>
+            <a:t>Note:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-PH" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:rPr>
+            <a:t> You may want to print this information to use as reference later. To delete these instructions, click the border of this text box and then press the DELETE key.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-PH" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial"/>
+            <a:cs typeface="Arial"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-PH" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:rPr>
+            <a:t>Refer back to your Profit &amp; Loss Projection.  Line-by-line ask yourself when you should expect cash to come and go. You have already done a sales projection, now you must predict when you will actually collect from customers. On the expense side, you have previously projected expenses; now predict when you will actually have to write the check to pay those bills. Most items will be the same as on the Profit &amp; Loss Projection. Rent and utility bills, for instance, are usually paid in the month they are incurred. Other items will differ from the Profit &amp; Loss view.  Insurance and some types of taxes, for example, may actually be payable quarterly or semiannually, even though you recognize them as monthly expenses. Just try to make the Cash Flow as realistic as you can line by line. The payoff for you will be an ability to manage and forecast working capital needs. Change the category labels in the left column as needed to fit your accounting system.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-PH" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial"/>
+            <a:cs typeface="Arial"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-PH" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:rPr>
+            <a:t>Note that lines for 'Loan principal payment' through 'Owners' Withdrawal' are for items that always are different on the Cash Flow than on the Profit &amp; Loss.  Loan Principal Payment, Capital Purchases, and Owner's Draw simply do not, by the rules of accounting, show up on the Profit &amp; Loss Projection. They do, however, definitely take cash out of the business, and so need to be included in your Cash plan. On the other hand, you will not find Depreciation on the Cash Flow because you never write a check for Depreciation. Cash from Loans Received and Owners' Injections go in the "Loan/ other cash inj." row. The "Pre-Startup" column is for cash outlays prior to the time covered by the Cash Flow. It is intended primarily for new business startups or major expansion projects where a great deal of cash must go out before operations commence. The bottom section, "ESSENTIAL OPERATING DATA", is not actually part of the Cash model, but it allows you to track items which have a heavy impact on cash. The Cash Flow Projection is the best way to forecast working capital needs. Begin with the amount of Cash on Hand you expect to have. Project all the Receipts and Paid Outs for the year. If CASH POSITION gets dangerously low or negative, you will need to pump in more cash to keep the operation afloat. Many profitable businesses have gone under because they could not pay the bills while waiting for money to flow in. Your creditors do not care about profit; they want to be paid with cash. Cash is the financial lifeblood of your business.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-PH"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Text Box 6"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1514475" y="3286125"/>
+          <a:ext cx="6334125" cy="4400550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF99" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="43"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-PH" sz="800" b="1" i="0" u="sng" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:rPr>
+            <a:t>Notes on Preparation</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-PH" sz="800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial"/>
+            <a:cs typeface="Arial"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-PH" sz="800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial"/>
+            <a:cs typeface="Arial"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-PH" sz="800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:rPr>
+            <a:t>Note:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-PH" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:rPr>
+            <a:t> You may want to print this information to use as reference later. To delete these instructions, click the border of this text box and then press the DELETE key.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-PH" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial"/>
+            <a:cs typeface="Arial"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-PH" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:rPr>
+            <a:t>Refer back to your Profit &amp; Loss Projection.  Line-by-line ask yourself when you should expect cash to come and go. You have already done a sales projection, now you must predict when you will actually collect from customers. On the expense side, you have previously projected expenses; now predict when you will actually have to write the check to pay those bills. Most items will be the same as on the Profit &amp; Loss Projection. Rent and utility bills, for instance, are usually paid in the month they are incurred. Other items will differ from the Profit &amp; Loss view.  Insurance and some types of taxes, for example, may actually be payable quarterly or semiannually, even though you recognize them as monthly expenses. Just try to make the Cash Flow as realistic as you can line by line. The payoff for you will be an ability to manage and forecast working capital needs. Change the category labels in the left column as needed to fit your accounting system.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-PH" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial"/>
+            <a:cs typeface="Arial"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-PH" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:rPr>
+            <a:t>Note that lines for 'Loan principal payment' through 'Owners' Withdrawal' are for items that always are different on the Cash Flow than on the Profit &amp; Loss.  Loan Principal Payment, Capital Purchases, and Owner's Draw simply do not, by the rules of accounting, show up on the Profit &amp; Loss Projection. They do, however, definitely take cash out of the business, and so need to be included in your Cash plan. On the other hand, you will not find Depreciation on the Cash Flow because you never write a check for Depreciation. Cash from Loans Received and Owners' Injections go in the "Loan/ other cash inj." row. The "Pre-Startup" column is for cash outlays prior to the time covered by the Cash Flow. It is intended primarily for new business startups or major expansion projects where a great deal of cash must go out before operations commence. The bottom section, "ESSENTIAL OPERATING DATA", is not actually part of the Cash model, but it allows you to track items which have a heavy impact on cash. The Cash Flow Projection is the best way to forecast working capital needs. Begin with the amount of Cash on Hand you expect to have. Project all the Receipts and Paid Outs for the year. If CASH POSITION gets dangerously low or negative, you will need to pump in more cash to keep the operation afloat. Many profitable businesses have gone under because they could not pay the bills while waiting for money to flow in. Your creditors do not care about profit; they want to be paid with cash. Cash is the financial lifeblood of your business.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-PH"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -545,7 +1154,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -577,9 +1186,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -611,6 +1221,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -786,37 +1397,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.33203125" style="1" customWidth="1"/>
     <col min="2" max="15" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" ht="20.25">
+    <row r="1" spans="1:16" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" ht="15">
+    <row r="2" spans="1:16" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" ht="15">
+    <row r="3" spans="1:16" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:16" s="2" customFormat="1" ht="12.75">
+    <row r="4" spans="1:16" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="32" t="s">
         <v>35</v>
       </c>
@@ -824,14 +1435,14 @@
         <v>42156</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="2" customFormat="1" ht="15">
+    <row r="5" spans="1:16" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="G5" s="8"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:16" s="37" customFormat="1" ht="33.75">
+    <row r="6" spans="1:16" s="37" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="34" t="s">
         <v>34</v>
@@ -888,7 +1499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="33.75">
+    <row r="7" spans="1:16" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>3</v>
       </c>
@@ -945,7 +1556,7 @@
       </c>
       <c r="O7" s="33"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -963,7 +1574,7 @@
       <c r="O8" s="17"/>
       <c r="P8" s="6"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
         <v>4</v>
       </c>
@@ -982,7 +1593,7 @@
       <c r="N9" s="11"/>
       <c r="O9" s="18"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
         <v>5</v>
       </c>
@@ -1030,7 +1641,7 @@
         <v>13604200</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="22.5">
+    <row r="11" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>6</v>
       </c>
@@ -1078,7 +1689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>7</v>
       </c>
@@ -1126,7 +1737,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="22.5">
+    <row r="13" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
@@ -1187,7 +1798,7 @@
         <v>14004200</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="22.5">
+    <row r="14" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>9</v>
       </c>
@@ -1248,7 +1859,7 @@
         <v>14004200</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="6" customFormat="1">
+    <row r="15" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="28"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -1265,7 +1876,7 @@
       <c r="N15" s="19"/>
       <c r="O15" s="20"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
         <v>10</v>
       </c>
@@ -1284,7 +1895,7 @@
       <c r="N16" s="16"/>
       <c r="O16" s="17"/>
     </row>
-    <row r="17" spans="1:15" ht="22.5">
+    <row r="17" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
         <v>11</v>
       </c>
@@ -1332,7 +1943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>43</v>
       </c>
@@ -1380,7 +1991,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>44</v>
       </c>
@@ -1428,7 +2039,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="22.5">
+    <row r="20" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>38</v>
       </c>
@@ -1476,7 +2087,7 @@
         <v>1870000</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="22.5">
+    <row r="21" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>39</v>
       </c>
@@ -1524,7 +2135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>12</v>
       </c>
@@ -1572,7 +2183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="22.5">
+    <row r="23" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>13</v>
       </c>
@@ -1620,7 +2231,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>14</v>
       </c>
@@ -1668,7 +2279,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>15</v>
       </c>
@@ -1716,7 +2327,7 @@
         <v>27500</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>16</v>
       </c>
@@ -1764,7 +2375,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>17</v>
       </c>
@@ -1812,7 +2423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>18</v>
       </c>
@@ -1860,7 +2471,7 @@
         <v>119988</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>42</v>
       </c>
@@ -1908,7 +2519,7 @@
         <v>15588</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>19</v>
       </c>
@@ -1956,7 +2567,7 @@
         <v>52500</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>20</v>
       </c>
@@ -2004,7 +2615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="22.5">
+    <row r="32" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>21</v>
       </c>
@@ -2052,7 +2663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>22</v>
       </c>
@@ -2100,7 +2711,7 @@
         <v>57600</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>45</v>
       </c>
@@ -2148,7 +2759,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="22.5">
+    <row r="35" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>46</v>
       </c>
@@ -2196,7 +2807,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>47</v>
       </c>
@@ -2244,7 +2855,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
         <v>23</v>
       </c>
@@ -2292,7 +2903,7 @@
         <v>195000</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>24</v>
       </c>
@@ -2353,7 +2964,7 @@
         <v>2811284</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>25</v>
       </c>
@@ -2401,7 +3012,7 @@
         <v>419760</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="22.5">
+    <row r="40" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>26</v>
       </c>
@@ -2449,7 +3060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>27</v>
       </c>
@@ -2497,7 +3108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="22.5">
+    <row r="42" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>28</v>
       </c>
@@ -2545,7 +3156,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>40</v>
       </c>
@@ -2593,7 +3204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="22.5">
+    <row r="44" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>29</v>
       </c>
@@ -2654,68 +3265,68 @@
         <v>3481044</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="22.5">
+    <row r="45" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B45" s="14">
-        <f>(B14-B44)</f>
+        <f t="shared" ref="B45:O45" si="8">(B14-B44)</f>
         <v>534892</v>
       </c>
       <c r="C45" s="14">
-        <f>(C14-C44)</f>
+        <f t="shared" si="8"/>
         <v>460864</v>
       </c>
       <c r="D45" s="14">
-        <f>(D14-D44)</f>
+        <f t="shared" si="8"/>
         <v>533996</v>
       </c>
       <c r="E45" s="14">
-        <f>(E14-E44)</f>
+        <f t="shared" si="8"/>
         <v>563368</v>
       </c>
       <c r="F45" s="14">
-        <f>(F14-F44)</f>
+        <f t="shared" si="8"/>
         <v>733040</v>
       </c>
       <c r="G45" s="14">
-        <f>(G14-G44)</f>
+        <f t="shared" si="8"/>
         <v>937777</v>
       </c>
       <c r="H45" s="14">
-        <f>(H14-H44)</f>
+        <f t="shared" si="8"/>
         <v>1585124</v>
       </c>
       <c r="I45" s="14">
-        <f>(I14-I44)</f>
+        <f t="shared" si="8"/>
         <v>2604971</v>
       </c>
       <c r="J45" s="14">
-        <f>(J14-J44)</f>
+        <f t="shared" si="8"/>
         <v>4113068</v>
       </c>
       <c r="K45" s="14">
-        <f>(K14-K44)</f>
+        <f t="shared" si="8"/>
         <v>5079090</v>
       </c>
       <c r="L45" s="14">
-        <f>(L14-L44)</f>
+        <f t="shared" si="8"/>
         <v>6831312</v>
       </c>
       <c r="M45" s="14">
-        <f>(M14-M44)</f>
+        <f t="shared" si="8"/>
         <v>8589134</v>
       </c>
       <c r="N45" s="14">
-        <f>(N14-N44)</f>
+        <f t="shared" si="8"/>
         <v>11123156</v>
       </c>
       <c r="O45" s="14">
-        <f>(O14-O44)</f>
+        <f t="shared" si="8"/>
         <v>10523156</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="15"/>
       <c r="B46" s="23"/>
       <c r="C46" s="23"/>
@@ -2732,7 +3343,7 @@
       <c r="N46" s="25"/>
       <c r="O46" s="23"/>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="30" t="s">
         <v>36</v>
       </c>
@@ -2751,7 +3362,7 @@
       <c r="N47" s="23"/>
       <c r="O47" s="29"/>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
         <v>48</v>
       </c>
@@ -2770,7 +3381,7 @@
       <c r="N48" s="12"/>
       <c r="O48" s="12"/>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
         <v>30</v>
       </c>
@@ -2789,7 +3400,7 @@
       <c r="N49" s="10"/>
       <c r="O49" s="10"/>
     </row>
-    <row r="50" spans="1:15" ht="22.5">
+    <row r="50" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>31</v>
       </c>
@@ -2808,7 +3419,7 @@
       <c r="N50" s="10"/>
       <c r="O50" s="10"/>
     </row>
-    <row r="51" spans="1:15" ht="22.5">
+    <row r="51" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
         <v>32</v>
       </c>
@@ -2827,7 +3438,7 @@
       <c r="N51" s="10"/>
       <c r="O51" s="10"/>
     </row>
-    <row r="52" spans="1:15" ht="22.5">
+    <row r="52" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>33</v>
       </c>
@@ -2846,7 +3457,7 @@
       <c r="N52" s="10"/>
       <c r="O52" s="10"/>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
         <v>37</v>
       </c>
@@ -2872,4 +3483,3736 @@
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" style="1" customWidth="1"/>
+    <col min="2" max="15" width="9.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+    </row>
+    <row r="4" spans="1:16" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="31">
+        <v>36678</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="G5" s="8"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:16" s="37" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="35">
+        <f>B4</f>
+        <v>36678</v>
+      </c>
+      <c r="D6" s="35">
+        <f>DATE(YEAR(C6),MONTH(C6)+1,1)</f>
+        <v>36708</v>
+      </c>
+      <c r="E6" s="35">
+        <f t="shared" ref="E6:N6" si="0">DATE(YEAR(D6),MONTH(D6)+1,1)</f>
+        <v>36739</v>
+      </c>
+      <c r="F6" s="35">
+        <f t="shared" si="0"/>
+        <v>36770</v>
+      </c>
+      <c r="G6" s="35">
+        <f t="shared" si="0"/>
+        <v>36800</v>
+      </c>
+      <c r="H6" s="35">
+        <f t="shared" si="0"/>
+        <v>36831</v>
+      </c>
+      <c r="I6" s="35">
+        <f t="shared" si="0"/>
+        <v>36861</v>
+      </c>
+      <c r="J6" s="35">
+        <f t="shared" si="0"/>
+        <v>36892</v>
+      </c>
+      <c r="K6" s="35">
+        <f t="shared" si="0"/>
+        <v>36923</v>
+      </c>
+      <c r="L6" s="35">
+        <f t="shared" si="0"/>
+        <v>36951</v>
+      </c>
+      <c r="M6" s="35">
+        <f t="shared" si="0"/>
+        <v>36982</v>
+      </c>
+      <c r="N6" s="35">
+        <f t="shared" si="0"/>
+        <v>37012</v>
+      </c>
+      <c r="O6" s="36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33">
+        <f>B45</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="33">
+        <f t="shared" ref="D7:N7" si="1">C45</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="33"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="26"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="6"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="18"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+    </row>
+    <row r="11" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+    </row>
+    <row r="13" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="10">
+        <f>SUM(B10:B12)</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="10">
+        <f t="shared" ref="C13:O13" si="2">SUM(C10:C12)</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="14">
+        <f>(B7+B13)</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="14">
+        <f t="shared" ref="C14:O14" si="3">(C7+C13)</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="28"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="20"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="17"/>
+    </row>
+    <row r="17" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+    </row>
+    <row r="20" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+    </row>
+    <row r="21" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+    </row>
+    <row r="23" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+    </row>
+    <row r="32" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+    </row>
+    <row r="34" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="10">
+        <f>SUM(B17:B37)</f>
+        <v>0</v>
+      </c>
+      <c r="C38" s="10">
+        <f t="shared" ref="C38:O38" si="4">SUM(C17:C37)</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E38" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N38" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+    </row>
+    <row r="40" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+    </row>
+    <row r="42" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+    </row>
+    <row r="44" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" s="10">
+        <f>SUM(B38:B43)</f>
+        <v>0</v>
+      </c>
+      <c r="C44" s="10">
+        <f t="shared" ref="C44:O44" si="5">SUM(C38:C43)</f>
+        <v>0</v>
+      </c>
+      <c r="D44" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E44" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N44" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O44" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="14">
+        <f>(B14-B44)</f>
+        <v>0</v>
+      </c>
+      <c r="C45" s="14">
+        <f t="shared" ref="C45:O45" si="6">(C14-C44)</f>
+        <v>0</v>
+      </c>
+      <c r="D45" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E45" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N45" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O45" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46" s="15"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="25"/>
+      <c r="O46" s="23"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="22"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="23"/>
+      <c r="M47" s="23"/>
+      <c r="N47" s="23"/>
+      <c r="O47" s="29"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+    </row>
+    <row r="50" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+    </row>
+    <row r="51" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+    </row>
+    <row r="52" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A53" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" style="1" customWidth="1"/>
+    <col min="2" max="15" width="9.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+    </row>
+    <row r="4" spans="1:16" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="31">
+        <v>36678</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="G5" s="8"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:16" s="37" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="35">
+        <f>B4</f>
+        <v>36678</v>
+      </c>
+      <c r="D6" s="35">
+        <f>DATE(YEAR(C6),MONTH(C6)+1,1)</f>
+        <v>36708</v>
+      </c>
+      <c r="E6" s="35">
+        <f t="shared" ref="E6:N6" si="0">DATE(YEAR(D6),MONTH(D6)+1,1)</f>
+        <v>36739</v>
+      </c>
+      <c r="F6" s="35">
+        <f t="shared" si="0"/>
+        <v>36770</v>
+      </c>
+      <c r="G6" s="35">
+        <f t="shared" si="0"/>
+        <v>36800</v>
+      </c>
+      <c r="H6" s="35">
+        <f t="shared" si="0"/>
+        <v>36831</v>
+      </c>
+      <c r="I6" s="35">
+        <f t="shared" si="0"/>
+        <v>36861</v>
+      </c>
+      <c r="J6" s="35">
+        <f t="shared" si="0"/>
+        <v>36892</v>
+      </c>
+      <c r="K6" s="35">
+        <f t="shared" si="0"/>
+        <v>36923</v>
+      </c>
+      <c r="L6" s="35">
+        <f t="shared" si="0"/>
+        <v>36951</v>
+      </c>
+      <c r="M6" s="35">
+        <f t="shared" si="0"/>
+        <v>36982</v>
+      </c>
+      <c r="N6" s="35">
+        <f t="shared" si="0"/>
+        <v>37012</v>
+      </c>
+      <c r="O6" s="36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33">
+        <f>B45</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="33">
+        <f t="shared" ref="D7:N7" si="1">C45</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="33"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="26"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="6"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="18"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+    </row>
+    <row r="11" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+    </row>
+    <row r="13" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="10">
+        <f>SUM(B10:B12)</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="10">
+        <f t="shared" ref="C13:O13" si="2">SUM(C10:C12)</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="14">
+        <f>(B7+B13)</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="14">
+        <f t="shared" ref="C14:O14" si="3">(C7+C13)</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="28"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="20"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="17"/>
+    </row>
+    <row r="17" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+    </row>
+    <row r="20" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+    </row>
+    <row r="21" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+    </row>
+    <row r="23" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+    </row>
+    <row r="32" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+    </row>
+    <row r="34" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="10">
+        <f>SUM(B17:B37)</f>
+        <v>0</v>
+      </c>
+      <c r="C38" s="10">
+        <f t="shared" ref="C38:O38" si="4">SUM(C17:C37)</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E38" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N38" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+    </row>
+    <row r="40" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+    </row>
+    <row r="42" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+    </row>
+    <row r="44" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" s="10">
+        <f>SUM(B38:B43)</f>
+        <v>0</v>
+      </c>
+      <c r="C44" s="10">
+        <f t="shared" ref="C44:O44" si="5">SUM(C38:C43)</f>
+        <v>0</v>
+      </c>
+      <c r="D44" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E44" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N44" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O44" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="14">
+        <f>(B14-B44)</f>
+        <v>0</v>
+      </c>
+      <c r="C45" s="14">
+        <f t="shared" ref="C45:O45" si="6">(C14-C44)</f>
+        <v>0</v>
+      </c>
+      <c r="D45" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E45" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N45" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O45" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46" s="15"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="25"/>
+      <c r="O46" s="23"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="22"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="23"/>
+      <c r="M47" s="23"/>
+      <c r="N47" s="23"/>
+      <c r="O47" s="29"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+    </row>
+    <row r="50" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+    </row>
+    <row r="51" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+    </row>
+    <row r="52" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A53" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" style="1" customWidth="1"/>
+    <col min="2" max="15" width="9.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+    </row>
+    <row r="4" spans="1:16" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="31">
+        <v>36678</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="G5" s="8"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:16" s="37" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="35">
+        <f>B4</f>
+        <v>36678</v>
+      </c>
+      <c r="D6" s="35">
+        <f>DATE(YEAR(C6),MONTH(C6)+1,1)</f>
+        <v>36708</v>
+      </c>
+      <c r="E6" s="35">
+        <f t="shared" ref="E6:N6" si="0">DATE(YEAR(D6),MONTH(D6)+1,1)</f>
+        <v>36739</v>
+      </c>
+      <c r="F6" s="35">
+        <f t="shared" si="0"/>
+        <v>36770</v>
+      </c>
+      <c r="G6" s="35">
+        <f t="shared" si="0"/>
+        <v>36800</v>
+      </c>
+      <c r="H6" s="35">
+        <f t="shared" si="0"/>
+        <v>36831</v>
+      </c>
+      <c r="I6" s="35">
+        <f t="shared" si="0"/>
+        <v>36861</v>
+      </c>
+      <c r="J6" s="35">
+        <f t="shared" si="0"/>
+        <v>36892</v>
+      </c>
+      <c r="K6" s="35">
+        <f t="shared" si="0"/>
+        <v>36923</v>
+      </c>
+      <c r="L6" s="35">
+        <f t="shared" si="0"/>
+        <v>36951</v>
+      </c>
+      <c r="M6" s="35">
+        <f t="shared" si="0"/>
+        <v>36982</v>
+      </c>
+      <c r="N6" s="35">
+        <f t="shared" si="0"/>
+        <v>37012</v>
+      </c>
+      <c r="O6" s="36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33">
+        <f>B45</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="33">
+        <f t="shared" ref="D7:N7" si="1">C45</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="33"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="26"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="6"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="18"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+    </row>
+    <row r="11" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+    </row>
+    <row r="13" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="10">
+        <f>SUM(B10:B12)</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="10">
+        <f t="shared" ref="C13:O13" si="2">SUM(C10:C12)</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="14">
+        <f>(B7+B13)</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="14">
+        <f t="shared" ref="C14:O14" si="3">(C7+C13)</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="28"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="20"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="17"/>
+    </row>
+    <row r="17" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+    </row>
+    <row r="20" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+    </row>
+    <row r="21" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+    </row>
+    <row r="23" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+    </row>
+    <row r="32" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+    </row>
+    <row r="34" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="10">
+        <f>SUM(B17:B37)</f>
+        <v>0</v>
+      </c>
+      <c r="C38" s="10">
+        <f t="shared" ref="C38:O38" si="4">SUM(C17:C37)</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E38" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N38" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+    </row>
+    <row r="40" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+    </row>
+    <row r="42" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+    </row>
+    <row r="44" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" s="10">
+        <f>SUM(B38:B43)</f>
+        <v>0</v>
+      </c>
+      <c r="C44" s="10">
+        <f t="shared" ref="C44:O44" si="5">SUM(C38:C43)</f>
+        <v>0</v>
+      </c>
+      <c r="D44" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E44" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N44" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O44" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="14">
+        <f>(B14-B44)</f>
+        <v>0</v>
+      </c>
+      <c r="C45" s="14">
+        <f t="shared" ref="C45:O45" si="6">(C14-C44)</f>
+        <v>0</v>
+      </c>
+      <c r="D45" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E45" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N45" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O45" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46" s="15"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="25"/>
+      <c r="O46" s="23"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="22"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="23"/>
+      <c r="M47" s="23"/>
+      <c r="N47" s="23"/>
+      <c r="O47" s="29"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+    </row>
+    <row r="50" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+    </row>
+    <row r="51" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+    </row>
+    <row r="52" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A53" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Business Plan Documents/YPS Cash Flow.xlsx
+++ b/Business Plan Documents/YPS Cash Flow.xlsx
@@ -9,14 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Cash Flow (Year 1)" sheetId="1" r:id="rId1"/>
     <sheet name="Cash Flow (Year 2)" sheetId="2" r:id="rId2"/>
     <sheet name="Cash Flow (Year 3)" sheetId="3" r:id="rId3"/>
     <sheet name="Cash Flow (Year 4)" sheetId="4" r:id="rId4"/>
-    <sheet name="Basis of Estimates" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Cash Flow (Year 1)'!$6:$6</definedName>
@@ -122,15 +121,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="51">
   <si>
     <t>Total Item EST</t>
   </si>
   <si>
     <t>Cash Position (end of month)</t>
-  </si>
-  <si>
-    <t>Enter Company Name Here</t>
   </si>
   <si>
     <t>Cash on Hand (beginning of month)</t>
@@ -271,19 +267,13 @@
     <t>Sales Volume (peso)</t>
   </si>
   <si>
-    <t>Purchases (specify)</t>
+    <t>Sales Volume (dollars)</t>
   </si>
   <si>
-    <t>Telephone</t>
+    <t>Sales Volume (Peso)</t>
   </si>
   <si>
-    <t>Other expenses (specify)</t>
-  </si>
-  <si>
-    <t>Other (specify)</t>
-  </si>
-  <si>
-    <t>Sales Volume (dollars)</t>
+    <t>Bridge Mobile Phils, Inc.</t>
   </si>
 </sst>
 </file>
@@ -598,519 +588,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 6"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1514475" y="3286125"/>
-          <a:ext cx="6334125" cy="4400550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF99" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="43"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-PH" sz="800" b="1" i="0" u="sng" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>Notes on Preparation</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-PH" sz="800" b="1" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-PH" sz="800" b="1" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-PH" sz="800" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>Note:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-PH" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t> You may want to print this information to use as reference later. To delete these instructions, click the border of this text box and then press the DELETE key.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-PH" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-PH" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>Refer back to your Profit &amp; Loss Projection.  Line-by-line ask yourself when you should expect cash to come and go. You have already done a sales projection, now you must predict when you will actually collect from customers. On the expense side, you have previously projected expenses; now predict when you will actually have to write the check to pay those bills. Most items will be the same as on the Profit &amp; Loss Projection. Rent and utility bills, for instance, are usually paid in the month they are incurred. Other items will differ from the Profit &amp; Loss view.  Insurance and some types of taxes, for example, may actually be payable quarterly or semiannually, even though you recognize them as monthly expenses. Just try to make the Cash Flow as realistic as you can line by line. The payoff for you will be an ability to manage and forecast working capital needs. Change the category labels in the left column as needed to fit your accounting system.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-PH" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-PH" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>Note that lines for 'Loan principal payment' through 'Owners' Withdrawal' are for items that always are different on the Cash Flow than on the Profit &amp; Loss.  Loan Principal Payment, Capital Purchases, and Owner's Draw simply do not, by the rules of accounting, show up on the Profit &amp; Loss Projection. They do, however, definitely take cash out of the business, and so need to be included in your Cash plan. On the other hand, you will not find Depreciation on the Cash Flow because you never write a check for Depreciation. Cash from Loans Received and Owners' Injections go in the "Loan/ other cash inj." row. The "Pre-Startup" column is for cash outlays prior to the time covered by the Cash Flow. It is intended primarily for new business startups or major expansion projects where a great deal of cash must go out before operations commence. The bottom section, "ESSENTIAL OPERATING DATA", is not actually part of the Cash model, but it allows you to track items which have a heavy impact on cash. The Cash Flow Projection is the best way to forecast working capital needs. Begin with the amount of Cash on Hand you expect to have. Project all the Receipts and Paid Outs for the year. If CASH POSITION gets dangerously low or negative, you will need to pump in more cash to keep the operation afloat. Many profitable businesses have gone under because they could not pay the bills while waiting for money to flow in. Your creditors do not care about profit; they want to be paid with cash. Cash is the financial lifeblood of your business.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-PH"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 6"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1514475" y="3286125"/>
-          <a:ext cx="6334125" cy="4400550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF99" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="43"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-PH" sz="800" b="1" i="0" u="sng" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>Notes on Preparation</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-PH" sz="800" b="1" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-PH" sz="800" b="1" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-PH" sz="800" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>Note:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-PH" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t> You may want to print this information to use as reference later. To delete these instructions, click the border of this text box and then press the DELETE key.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-PH" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-PH" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>Refer back to your Profit &amp; Loss Projection.  Line-by-line ask yourself when you should expect cash to come and go. You have already done a sales projection, now you must predict when you will actually collect from customers. On the expense side, you have previously projected expenses; now predict when you will actually have to write the check to pay those bills. Most items will be the same as on the Profit &amp; Loss Projection. Rent and utility bills, for instance, are usually paid in the month they are incurred. Other items will differ from the Profit &amp; Loss view.  Insurance and some types of taxes, for example, may actually be payable quarterly or semiannually, even though you recognize them as monthly expenses. Just try to make the Cash Flow as realistic as you can line by line. The payoff for you will be an ability to manage and forecast working capital needs. Change the category labels in the left column as needed to fit your accounting system.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-PH" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-PH" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>Note that lines for 'Loan principal payment' through 'Owners' Withdrawal' are for items that always are different on the Cash Flow than on the Profit &amp; Loss.  Loan Principal Payment, Capital Purchases, and Owner's Draw simply do not, by the rules of accounting, show up on the Profit &amp; Loss Projection. They do, however, definitely take cash out of the business, and so need to be included in your Cash plan. On the other hand, you will not find Depreciation on the Cash Flow because you never write a check for Depreciation. Cash from Loans Received and Owners' Injections go in the "Loan/ other cash inj." row. The "Pre-Startup" column is for cash outlays prior to the time covered by the Cash Flow. It is intended primarily for new business startups or major expansion projects where a great deal of cash must go out before operations commence. The bottom section, "ESSENTIAL OPERATING DATA", is not actually part of the Cash model, but it allows you to track items which have a heavy impact on cash. The Cash Flow Projection is the best way to forecast working capital needs. Begin with the amount of Cash on Hand you expect to have. Project all the Receipts and Paid Outs for the year. If CASH POSITION gets dangerously low or negative, you will need to pump in more cash to keep the operation afloat. Many profitable businesses have gone under because they could not pay the bills while waiting for money to flow in. Your creditors do not care about profit; they want to be paid with cash. Cash is the financial lifeblood of your business.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-PH"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 6"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1514475" y="3286125"/>
-          <a:ext cx="6334125" cy="4400550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF99" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="43"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-PH" sz="800" b="1" i="0" u="sng" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>Notes on Preparation</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-PH" sz="800" b="1" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-PH" sz="800" b="1" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-PH" sz="800" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>Note:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-PH" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t> You may want to print this information to use as reference later. To delete these instructions, click the border of this text box and then press the DELETE key.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-PH" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-PH" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>Refer back to your Profit &amp; Loss Projection.  Line-by-line ask yourself when you should expect cash to come and go. You have already done a sales projection, now you must predict when you will actually collect from customers. On the expense side, you have previously projected expenses; now predict when you will actually have to write the check to pay those bills. Most items will be the same as on the Profit &amp; Loss Projection. Rent and utility bills, for instance, are usually paid in the month they are incurred. Other items will differ from the Profit &amp; Loss view.  Insurance and some types of taxes, for example, may actually be payable quarterly or semiannually, even though you recognize them as monthly expenses. Just try to make the Cash Flow as realistic as you can line by line. The payoff for you will be an ability to manage and forecast working capital needs. Change the category labels in the left column as needed to fit your accounting system.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-PH" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-PH" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>Note that lines for 'Loan principal payment' through 'Owners' Withdrawal' are for items that always are different on the Cash Flow than on the Profit &amp; Loss.  Loan Principal Payment, Capital Purchases, and Owner's Draw simply do not, by the rules of accounting, show up on the Profit &amp; Loss Projection. They do, however, definitely take cash out of the business, and so need to be included in your Cash plan. On the other hand, you will not find Depreciation on the Cash Flow because you never write a check for Depreciation. Cash from Loans Received and Owners' Injections go in the "Loan/ other cash inj." row. The "Pre-Startup" column is for cash outlays prior to the time covered by the Cash Flow. It is intended primarily for new business startups or major expansion projects where a great deal of cash must go out before operations commence. The bottom section, "ESSENTIAL OPERATING DATA", is not actually part of the Cash model, but it allows you to track items which have a heavy impact on cash. The Cash Flow Projection is the best way to forecast working capital needs. Begin with the amount of Cash on Hand you expect to have. Project all the Receipts and Paid Outs for the year. If CASH POSITION gets dangerously low or negative, you will need to pump in more cash to keep the operation afloat. Many profitable businesses have gone under because they could not pay the bills while waiting for money to flow in. Your creditors do not care about profit; they want to be paid with cash. Cash is the financial lifeblood of your business.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-PH"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1403,9 +880,9 @@
   </sheetPr>
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1416,12 +893,12 @@
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -1429,7 +906,7 @@
     </row>
     <row r="4" spans="1:16" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="31">
         <v>42156</v>
@@ -1445,7 +922,7 @@
     <row r="6" spans="1:16" s="37" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="35">
         <f>B4</f>
@@ -1501,58 +978,58 @@
     </row>
     <row r="7" spans="1:16" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="33">
         <v>600000</v>
       </c>
       <c r="C7" s="33">
         <f>B45</f>
-        <v>534892</v>
+        <v>904892</v>
       </c>
       <c r="D7" s="33">
         <f t="shared" ref="D7:N7" si="1">C45</f>
-        <v>460864</v>
+        <v>829296.21</v>
       </c>
       <c r="E7" s="33">
         <f t="shared" si="1"/>
-        <v>533996</v>
+        <v>900860.41999999993</v>
       </c>
       <c r="F7" s="33">
         <f t="shared" si="1"/>
-        <v>563368</v>
+        <v>928664.62999999989</v>
       </c>
       <c r="G7" s="33">
         <f t="shared" si="1"/>
-        <v>733040</v>
+        <v>1071768.8399999999</v>
       </c>
       <c r="H7" s="33">
         <f t="shared" si="1"/>
-        <v>937777</v>
+        <v>1274938.0499999998</v>
       </c>
       <c r="I7" s="33">
         <f t="shared" si="1"/>
-        <v>1585124</v>
+        <v>1920717.2599999998</v>
       </c>
       <c r="J7" s="33">
         <f t="shared" si="1"/>
-        <v>2604971</v>
+        <v>2938996.4699999997</v>
       </c>
       <c r="K7" s="33">
         <f t="shared" si="1"/>
-        <v>4113068</v>
+        <v>4420525.68</v>
       </c>
       <c r="L7" s="33">
         <f t="shared" si="1"/>
-        <v>5079090</v>
+        <v>5384979.8899999997</v>
       </c>
       <c r="M7" s="33">
         <f t="shared" si="1"/>
-        <v>6831312</v>
+        <v>7135634.0999999996</v>
       </c>
       <c r="N7" s="33">
         <f t="shared" si="1"/>
-        <v>8589134</v>
+        <v>8886288.3100000005</v>
       </c>
       <c r="O7" s="33"/>
     </row>
@@ -1576,7 +1053,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -1595,7 +1072,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="12">
         <v>0</v>
@@ -1631,19 +1108,19 @@
         <v>1969800</v>
       </c>
       <c r="M10" s="12">
-        <v>1975400</v>
+        <v>1969800</v>
       </c>
       <c r="N10" s="12">
-        <v>2756600</v>
+        <v>2748760</v>
       </c>
       <c r="O10" s="10">
         <f t="shared" ref="O10:O12" si="2">SUM(B10:N10)</f>
-        <v>13604200</v>
+        <v>13590760</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="10">
         <v>0</v>
@@ -1691,10 +1168,10 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="10">
-        <v>400000</v>
+        <v>800000</v>
       </c>
       <c r="C12" s="10">
         <v>0</v>
@@ -1734,16 +1211,16 @@
       </c>
       <c r="O12" s="10">
         <f t="shared" si="2"/>
-        <v>400000</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="10">
         <f>SUM(B10:B12)</f>
-        <v>400000</v>
+        <v>800000</v>
       </c>
       <c r="C13" s="10">
         <f t="shared" ref="C13:O13" si="3">SUM(C10:C12)</f>
@@ -1787,76 +1264,76 @@
       </c>
       <c r="M13" s="10">
         <f t="shared" si="3"/>
-        <v>1975400</v>
+        <v>1969800</v>
       </c>
       <c r="N13" s="10">
         <f t="shared" si="3"/>
-        <v>2756600</v>
+        <v>2748760</v>
       </c>
       <c r="O13" s="10">
         <f t="shared" si="3"/>
-        <v>14004200</v>
+        <v>14390760</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="14">
         <f>(B7+B13)</f>
-        <v>1000000</v>
+        <v>1400000</v>
       </c>
       <c r="C14" s="14">
         <f t="shared" ref="C14:O14" si="4">(C7+C13)</f>
-        <v>740942</v>
+        <v>1110942</v>
       </c>
       <c r="D14" s="14">
         <f t="shared" si="4"/>
-        <v>804074</v>
+        <v>1172506.21</v>
       </c>
       <c r="E14" s="14">
         <f t="shared" si="4"/>
-        <v>878446</v>
+        <v>1245310.42</v>
       </c>
       <c r="F14" s="14">
         <f t="shared" si="4"/>
-        <v>1043118</v>
+        <v>1408414.63</v>
       </c>
       <c r="G14" s="14">
         <f t="shared" si="4"/>
-        <v>1247855</v>
+        <v>1586583.8399999999</v>
       </c>
       <c r="H14" s="14">
         <f t="shared" si="4"/>
-        <v>1800202</v>
+        <v>2137363.0499999998</v>
       </c>
       <c r="I14" s="14">
         <f t="shared" si="4"/>
-        <v>2822549</v>
+        <v>3158142.26</v>
       </c>
       <c r="J14" s="14">
         <f t="shared" si="4"/>
-        <v>4330646</v>
+        <v>4664671.47</v>
       </c>
       <c r="K14" s="14">
         <f t="shared" si="4"/>
-        <v>5301668</v>
+        <v>5609125.6799999997</v>
       </c>
       <c r="L14" s="14">
         <f t="shared" si="4"/>
-        <v>7048890</v>
+        <v>7354779.8899999997</v>
       </c>
       <c r="M14" s="14">
         <f t="shared" si="4"/>
-        <v>8806712</v>
+        <v>9105434.0999999996</v>
       </c>
       <c r="N14" s="14">
         <f t="shared" si="4"/>
-        <v>11345734</v>
+        <v>11635048.310000001</v>
       </c>
       <c r="O14" s="14">
         <f t="shared" si="4"/>
-        <v>14004200</v>
+        <v>14390760</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -1878,7 +1355,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -1897,7 +1374,7 @@
     </row>
     <row r="17" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="12">
         <v>0</v>
@@ -1945,10 +1422,10 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" s="10">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="C18" s="10">
         <v>5000</v>
@@ -1988,15 +1465,15 @@
       </c>
       <c r="O18" s="10">
         <f>SUM(B18:N18)</f>
-        <v>100000</v>
+        <v>190000</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" s="10">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="C19" s="10">
         <v>2500</v>
@@ -2036,12 +1513,12 @@
       </c>
       <c r="O19" s="10">
         <f>SUM(B19:N19)</f>
-        <v>50000</v>
+        <v>95000</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="10">
         <v>0</v>
@@ -2089,7 +1566,7 @@
     </row>
     <row r="21" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="10">
         <v>0</v>
@@ -2137,7 +1614,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22" s="10">
         <v>0</v>
@@ -2185,7 +1662,7 @@
     </row>
     <row r="23" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" s="10">
         <v>0</v>
@@ -2233,7 +1710,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24" s="10">
         <v>80000</v>
@@ -2281,7 +1758,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25" s="10">
         <v>27500</v>
@@ -2329,7 +1806,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B26" s="10">
         <v>0</v>
@@ -2377,10 +1854,10 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B27" s="10">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="C27" s="10">
         <v>0</v>
@@ -2392,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="10">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="G27" s="10">
         <v>0</v>
@@ -2404,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="10">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="K27" s="10">
         <v>0</v>
@@ -2416,16 +1893,16 @@
         <v>0</v>
       </c>
       <c r="N27" s="10">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="O27" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28" s="10">
         <v>24000</v>
@@ -2473,7 +1950,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" s="10">
         <v>0</v>
@@ -2521,7 +1998,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B30" s="39">
         <v>10500</v>
@@ -2569,7 +2046,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B31" s="10">
         <v>0</v>
@@ -2617,7 +2094,7 @@
     </row>
     <row r="32" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B32" s="10">
         <v>0</v>
@@ -2665,7 +2142,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B33" s="10">
         <v>0</v>
@@ -2713,10 +2190,10 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34" s="10">
-        <v>40000</v>
+        <v>160000</v>
       </c>
       <c r="C34" s="10">
         <v>10000</v>
@@ -2756,12 +2233,12 @@
       </c>
       <c r="O34" s="10">
         <f t="shared" si="5"/>
-        <v>160000</v>
+        <v>280000</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B35" s="10">
         <v>1108</v>
@@ -2809,7 +2286,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B36" s="10">
         <v>2000</v>
@@ -2857,7 +2334,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B37" s="10">
         <v>15000</v>
@@ -2905,11 +2382,11 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B38" s="10">
         <f>SUM(B17:B37)</f>
-        <v>215108</v>
+        <v>495108</v>
       </c>
       <c r="C38" s="10">
         <f t="shared" ref="C38:O38" si="6">SUM(C17:C37)</f>
@@ -2925,7 +2402,7 @@
       </c>
       <c r="F38" s="10">
         <f t="shared" si="6"/>
-        <v>275098</v>
+        <v>300098</v>
       </c>
       <c r="G38" s="10">
         <f t="shared" si="6"/>
@@ -2941,7 +2418,7 @@
       </c>
       <c r="J38" s="10">
         <f t="shared" si="6"/>
-        <v>182598</v>
+        <v>207598</v>
       </c>
       <c r="K38" s="10">
         <f t="shared" si="6"/>
@@ -2957,64 +2434,64 @@
       </c>
       <c r="N38" s="10">
         <f t="shared" si="6"/>
-        <v>187598</v>
+        <v>212598</v>
       </c>
       <c r="O38" s="10">
         <f t="shared" si="6"/>
-        <v>2811284</v>
+        <v>3166284</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="10">
         <v>0</v>
       </c>
-      <c r="C39" s="10">
-        <v>34980</v>
-      </c>
-      <c r="D39" s="10">
-        <v>34980</v>
-      </c>
-      <c r="E39" s="10">
-        <v>34980</v>
-      </c>
-      <c r="F39" s="10">
-        <v>34980</v>
-      </c>
-      <c r="G39" s="10">
-        <v>34980</v>
-      </c>
-      <c r="H39" s="10">
-        <v>34980</v>
-      </c>
-      <c r="I39" s="10">
-        <v>34980</v>
-      </c>
-      <c r="J39" s="10">
-        <v>34980</v>
-      </c>
-      <c r="K39" s="10">
-        <v>34980</v>
-      </c>
-      <c r="L39" s="10">
-        <v>34980</v>
-      </c>
-      <c r="M39" s="10">
-        <v>34980</v>
-      </c>
-      <c r="N39" s="10">
-        <v>34980</v>
+      <c r="C39" s="39">
+        <v>36547.79</v>
+      </c>
+      <c r="D39" s="39">
+        <v>36547.79</v>
+      </c>
+      <c r="E39" s="39">
+        <v>36547.79</v>
+      </c>
+      <c r="F39" s="39">
+        <v>36547.79</v>
+      </c>
+      <c r="G39" s="39">
+        <v>36547.79</v>
+      </c>
+      <c r="H39" s="39">
+        <v>36547.79</v>
+      </c>
+      <c r="I39" s="39">
+        <v>36547.79</v>
+      </c>
+      <c r="J39" s="39">
+        <v>36547.79</v>
+      </c>
+      <c r="K39" s="39">
+        <v>36547.79</v>
+      </c>
+      <c r="L39" s="39">
+        <v>36547.79</v>
+      </c>
+      <c r="M39" s="39">
+        <v>36547.79</v>
+      </c>
+      <c r="N39" s="39">
+        <v>36547.79</v>
       </c>
       <c r="O39" s="10">
         <f t="shared" si="5"/>
-        <v>419760</v>
+        <v>438573.47999999992</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B40" s="10">
         <v>0</v>
@@ -3062,7 +2539,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B41" s="10">
         <v>0</v>
@@ -3110,10 +2587,10 @@
     </row>
     <row r="42" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B42" s="10">
-        <v>250000</v>
+        <v>0</v>
       </c>
       <c r="C42" s="10">
         <v>0</v>
@@ -3153,12 +2630,12 @@
       </c>
       <c r="O42" s="10">
         <f t="shared" si="5"/>
-        <v>250000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B43" s="10">
         <v>0</v>
@@ -3206,63 +2683,63 @@
     </row>
     <row r="44" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B44" s="10">
         <f>SUM(B38:B43)</f>
-        <v>465108</v>
+        <v>495108</v>
       </c>
       <c r="C44" s="10">
         <f t="shared" ref="C44:O44" si="7">SUM(C38:C43)</f>
-        <v>280078</v>
+        <v>281645.78999999998</v>
       </c>
       <c r="D44" s="10">
         <f t="shared" si="7"/>
-        <v>270078</v>
+        <v>271645.78999999998</v>
       </c>
       <c r="E44" s="10">
         <f t="shared" si="7"/>
-        <v>315078</v>
+        <v>316645.78999999998</v>
       </c>
       <c r="F44" s="10">
         <f t="shared" si="7"/>
-        <v>310078</v>
+        <v>336645.79</v>
       </c>
       <c r="G44" s="10">
         <f t="shared" si="7"/>
-        <v>310078</v>
+        <v>311645.78999999998</v>
       </c>
       <c r="H44" s="10">
         <f t="shared" si="7"/>
-        <v>215078</v>
+        <v>216645.79</v>
       </c>
       <c r="I44" s="10">
         <f t="shared" si="7"/>
-        <v>217578</v>
+        <v>219145.79</v>
       </c>
       <c r="J44" s="10">
         <f t="shared" si="7"/>
-        <v>217578</v>
+        <v>244145.79</v>
       </c>
       <c r="K44" s="10">
         <f t="shared" si="7"/>
-        <v>222578</v>
+        <v>224145.79</v>
       </c>
       <c r="L44" s="10">
         <f t="shared" si="7"/>
-        <v>217578</v>
+        <v>219145.79</v>
       </c>
       <c r="M44" s="10">
         <f t="shared" si="7"/>
-        <v>217578</v>
+        <v>219145.79</v>
       </c>
       <c r="N44" s="10">
         <f t="shared" si="7"/>
-        <v>222578</v>
+        <v>249145.79</v>
       </c>
       <c r="O44" s="10">
         <f t="shared" si="7"/>
-        <v>3481044</v>
+        <v>3604857.48</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -3271,59 +2748,59 @@
       </c>
       <c r="B45" s="14">
         <f t="shared" ref="B45:O45" si="8">(B14-B44)</f>
-        <v>534892</v>
+        <v>904892</v>
       </c>
       <c r="C45" s="14">
         <f t="shared" si="8"/>
-        <v>460864</v>
+        <v>829296.21</v>
       </c>
       <c r="D45" s="14">
         <f t="shared" si="8"/>
-        <v>533996</v>
+        <v>900860.41999999993</v>
       </c>
       <c r="E45" s="14">
         <f t="shared" si="8"/>
-        <v>563368</v>
+        <v>928664.62999999989</v>
       </c>
       <c r="F45" s="14">
         <f t="shared" si="8"/>
-        <v>733040</v>
+        <v>1071768.8399999999</v>
       </c>
       <c r="G45" s="14">
         <f t="shared" si="8"/>
-        <v>937777</v>
+        <v>1274938.0499999998</v>
       </c>
       <c r="H45" s="14">
         <f t="shared" si="8"/>
-        <v>1585124</v>
+        <v>1920717.2599999998</v>
       </c>
       <c r="I45" s="14">
         <f t="shared" si="8"/>
-        <v>2604971</v>
+        <v>2938996.4699999997</v>
       </c>
       <c r="J45" s="14">
         <f t="shared" si="8"/>
-        <v>4113068</v>
+        <v>4420525.68</v>
       </c>
       <c r="K45" s="14">
         <f t="shared" si="8"/>
-        <v>5079090</v>
+        <v>5384979.8899999997</v>
       </c>
       <c r="L45" s="14">
         <f t="shared" si="8"/>
-        <v>6831312</v>
+        <v>7135634.0999999996</v>
       </c>
       <c r="M45" s="14">
         <f t="shared" si="8"/>
-        <v>8589134</v>
+        <v>8886288.3100000005</v>
       </c>
       <c r="N45" s="14">
         <f t="shared" si="8"/>
-        <v>11123156</v>
+        <v>11385902.520000001</v>
       </c>
       <c r="O45" s="14">
         <f t="shared" si="8"/>
-        <v>10523156</v>
+        <v>10785902.52</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
@@ -3345,7 +2822,7 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B47" s="22"/>
       <c r="C47" s="24"/>
@@ -3364,7 +2841,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -3383,7 +2860,7 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -3402,7 +2879,7 @@
     </row>
     <row r="50" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -3421,7 +2898,7 @@
     </row>
     <row r="51" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -3440,7 +2917,7 @@
     </row>
     <row r="52" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -3459,7 +2936,7 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -3490,7 +2967,7 @@
   <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -3501,12 +2978,12 @@
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -3514,10 +2991,10 @@
     </row>
     <row r="4" spans="1:16" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="31">
-        <v>36678</v>
+        <v>42522</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -3530,55 +3007,55 @@
     <row r="6" spans="1:16" s="37" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="35">
         <f>B4</f>
-        <v>36678</v>
+        <v>42522</v>
       </c>
       <c r="D6" s="35">
         <f>DATE(YEAR(C6),MONTH(C6)+1,1)</f>
-        <v>36708</v>
+        <v>42552</v>
       </c>
       <c r="E6" s="35">
         <f t="shared" ref="E6:N6" si="0">DATE(YEAR(D6),MONTH(D6)+1,1)</f>
-        <v>36739</v>
+        <v>42583</v>
       </c>
       <c r="F6" s="35">
         <f t="shared" si="0"/>
-        <v>36770</v>
+        <v>42614</v>
       </c>
       <c r="G6" s="35">
         <f t="shared" si="0"/>
-        <v>36800</v>
+        <v>42644</v>
       </c>
       <c r="H6" s="35">
         <f t="shared" si="0"/>
-        <v>36831</v>
+        <v>42675</v>
       </c>
       <c r="I6" s="35">
         <f t="shared" si="0"/>
-        <v>36861</v>
+        <v>42705</v>
       </c>
       <c r="J6" s="35">
         <f t="shared" si="0"/>
-        <v>36892</v>
+        <v>42736</v>
       </c>
       <c r="K6" s="35">
         <f t="shared" si="0"/>
-        <v>36923</v>
+        <v>42767</v>
       </c>
       <c r="L6" s="35">
         <f t="shared" si="0"/>
-        <v>36951</v>
+        <v>42795</v>
       </c>
       <c r="M6" s="35">
         <f t="shared" si="0"/>
-        <v>36982</v>
+        <v>42826</v>
       </c>
       <c r="N6" s="35">
         <f t="shared" si="0"/>
-        <v>37012</v>
+        <v>42856</v>
       </c>
       <c r="O6" s="36" t="s">
         <v>0</v>
@@ -3586,56 +3063,58 @@
     </row>
     <row r="7" spans="1:16" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="33"/>
+        <v>2</v>
+      </c>
+      <c r="B7" s="14">
+        <v>11385903</v>
+      </c>
       <c r="C7" s="33">
         <f>B45</f>
-        <v>0</v>
+        <v>11385903</v>
       </c>
       <c r="D7" s="33">
         <f t="shared" ref="D7:N7" si="1">C45</f>
-        <v>0</v>
+        <v>11982897.210000001</v>
       </c>
       <c r="E7" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13014711.420000002</v>
       </c>
       <c r="F7" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14264245.630000003</v>
       </c>
       <c r="G7" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15916739.840000004</v>
       </c>
       <c r="H7" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16721024.050000004</v>
       </c>
       <c r="I7" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18212168.260000005</v>
       </c>
       <c r="J7" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20453312.470000006</v>
       </c>
       <c r="K7" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>23640956.680000007</v>
       </c>
       <c r="L7" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>25198550.890000008</v>
       </c>
       <c r="M7" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>27927945.100000009</v>
       </c>
       <c r="N7" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30657339.31000001</v>
       </c>
       <c r="O7" s="33"/>
     </row>
@@ -3659,7 +3138,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -3678,64 +3157,151 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="12">
+        <v>0</v>
+      </c>
+      <c r="C10" s="12">
+        <v>816140</v>
+      </c>
+      <c r="D10" s="12">
+        <v>1250960</v>
+      </c>
+      <c r="E10" s="12">
+        <v>1468680</v>
+      </c>
+      <c r="F10" s="12">
+        <v>1901640</v>
+      </c>
+      <c r="G10" s="12">
+        <v>1023430</v>
+      </c>
+      <c r="H10" s="12">
+        <v>1710290</v>
+      </c>
+      <c r="I10" s="12">
+        <v>2460290</v>
+      </c>
+      <c r="J10" s="12">
+        <v>3436790</v>
+      </c>
+      <c r="K10" s="12">
+        <v>1776740</v>
+      </c>
+      <c r="L10" s="12">
+        <v>2948540</v>
+      </c>
+      <c r="M10" s="12">
+        <v>2948540</v>
+      </c>
+      <c r="N10" s="12">
+        <v>4118100</v>
+      </c>
+      <c r="O10" s="12">
+        <f>SUM(C10:N10)</f>
+        <v>25860140</v>
+      </c>
     </row>
     <row r="11" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
+        <v>5</v>
+      </c>
+      <c r="B11" s="10">
+        <v>0</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0</v>
+      </c>
+      <c r="I11" s="10">
+        <v>0</v>
+      </c>
+      <c r="J11" s="10">
+        <v>0</v>
+      </c>
+      <c r="K11" s="10">
+        <v>0</v>
+      </c>
+      <c r="L11" s="10">
+        <v>0</v>
+      </c>
+      <c r="M11" s="10">
+        <v>0</v>
+      </c>
+      <c r="N11" s="10">
+        <v>0</v>
+      </c>
+      <c r="O11" s="10">
+        <f>SUM(C11:N11)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
+        <v>6</v>
+      </c>
+      <c r="B12" s="10">
+        <v>0</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0</v>
+      </c>
+      <c r="H12" s="10">
+        <v>0</v>
+      </c>
+      <c r="I12" s="10">
+        <v>0</v>
+      </c>
+      <c r="J12" s="10">
+        <v>0</v>
+      </c>
+      <c r="K12" s="10">
+        <v>0</v>
+      </c>
+      <c r="L12" s="10">
+        <v>0</v>
+      </c>
+      <c r="M12" s="10">
+        <v>0</v>
+      </c>
+      <c r="N12" s="10">
+        <v>0</v>
+      </c>
+      <c r="O12" s="10">
+        <f>SUM(C12:N12)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="10">
         <f>SUM(B10:B12)</f>
@@ -3743,116 +3309,116 @@
       </c>
       <c r="C13" s="10">
         <f t="shared" ref="C13:O13" si="2">SUM(C10:C12)</f>
-        <v>0</v>
+        <v>816140</v>
       </c>
       <c r="D13" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1250960</v>
       </c>
       <c r="E13" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1468680</v>
       </c>
       <c r="F13" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1901640</v>
       </c>
       <c r="G13" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1023430</v>
       </c>
       <c r="H13" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1710290</v>
       </c>
       <c r="I13" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2460290</v>
       </c>
       <c r="J13" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3436790</v>
       </c>
       <c r="K13" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1776740</v>
       </c>
       <c r="L13" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2948540</v>
       </c>
       <c r="M13" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2948540</v>
       </c>
       <c r="N13" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4118100</v>
       </c>
       <c r="O13" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>25860140</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="14">
         <f>(B7+B13)</f>
-        <v>0</v>
+        <v>11385903</v>
       </c>
       <c r="C14" s="14">
         <f t="shared" ref="C14:O14" si="3">(C7+C13)</f>
-        <v>0</v>
+        <v>12202043</v>
       </c>
       <c r="D14" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>13233857.210000001</v>
       </c>
       <c r="E14" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>14483391.420000002</v>
       </c>
       <c r="F14" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>16165885.630000003</v>
       </c>
       <c r="G14" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>16940169.840000004</v>
       </c>
       <c r="H14" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>18431314.050000004</v>
       </c>
       <c r="I14" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>20672458.260000005</v>
       </c>
       <c r="J14" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>23890102.470000006</v>
       </c>
       <c r="K14" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>25417696.680000007</v>
       </c>
       <c r="L14" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>28147090.890000008</v>
       </c>
       <c r="M14" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>30876485.100000009</v>
       </c>
       <c r="N14" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>34775439.31000001</v>
       </c>
       <c r="O14" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>25860140</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3874,7 +3440,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -3893,618 +3459,1372 @@
     </row>
     <row r="17" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="B17" s="12">
+        <v>0</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0</v>
+      </c>
+      <c r="F17" s="12">
+        <v>0</v>
+      </c>
+      <c r="G17" s="12">
+        <v>0</v>
+      </c>
+      <c r="H17" s="12">
+        <v>0</v>
+      </c>
+      <c r="I17" s="12">
+        <v>0</v>
+      </c>
+      <c r="J17" s="12">
+        <v>0</v>
+      </c>
+      <c r="K17" s="12">
+        <v>0</v>
+      </c>
+      <c r="L17" s="12">
+        <v>0</v>
+      </c>
+      <c r="M17" s="12">
+        <v>0</v>
+      </c>
+      <c r="N17" s="12">
+        <v>0</v>
+      </c>
+      <c r="O17" s="12">
+        <f>SUM(B17:N17)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
+        <v>42</v>
+      </c>
+      <c r="B18" s="10">
+        <v>0</v>
+      </c>
+      <c r="C18" s="10">
+        <v>10000</v>
+      </c>
+      <c r="D18" s="10">
+        <v>10000</v>
+      </c>
+      <c r="E18" s="10">
+        <v>10000</v>
+      </c>
+      <c r="F18" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G18" s="10">
+        <v>10000</v>
+      </c>
+      <c r="H18" s="10">
+        <v>10000</v>
+      </c>
+      <c r="I18" s="10">
+        <v>10000</v>
+      </c>
+      <c r="J18" s="10">
+        <v>10000</v>
+      </c>
+      <c r="K18" s="10">
+        <v>10000</v>
+      </c>
+      <c r="L18" s="10">
+        <v>10000</v>
+      </c>
+      <c r="M18" s="10">
+        <v>10000</v>
+      </c>
+      <c r="N18" s="10">
+        <v>10000</v>
+      </c>
+      <c r="O18" s="12">
+        <f t="shared" ref="O18:O37" si="4">SUM(B18:N18)</f>
+        <v>120000</v>
+      </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
+        <v>43</v>
+      </c>
+      <c r="B19" s="10">
+        <v>0</v>
+      </c>
+      <c r="C19" s="10">
+        <v>5000</v>
+      </c>
+      <c r="D19" s="10">
+        <v>5000</v>
+      </c>
+      <c r="E19" s="10">
+        <v>5000</v>
+      </c>
+      <c r="F19" s="10">
+        <v>5000</v>
+      </c>
+      <c r="G19" s="10">
+        <v>5000</v>
+      </c>
+      <c r="H19" s="10">
+        <v>5000</v>
+      </c>
+      <c r="I19" s="10">
+        <v>5000</v>
+      </c>
+      <c r="J19" s="10">
+        <v>5000</v>
+      </c>
+      <c r="K19" s="10">
+        <v>5000</v>
+      </c>
+      <c r="L19" s="10">
+        <v>5000</v>
+      </c>
+      <c r="M19" s="10">
+        <v>5000</v>
+      </c>
+      <c r="N19" s="10">
+        <v>5000</v>
+      </c>
+      <c r="O19" s="12">
+        <f t="shared" si="4"/>
+        <v>60000</v>
+      </c>
     </row>
     <row r="20" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
+        <v>37</v>
+      </c>
+      <c r="B20" s="10">
+        <v>0</v>
+      </c>
+      <c r="C20" s="10">
+        <v>120000</v>
+      </c>
+      <c r="D20" s="10">
+        <v>120000</v>
+      </c>
+      <c r="E20" s="10">
+        <v>120000</v>
+      </c>
+      <c r="F20" s="10">
+        <v>120000</v>
+      </c>
+      <c r="G20" s="10">
+        <v>120000</v>
+      </c>
+      <c r="H20" s="10">
+        <v>120000</v>
+      </c>
+      <c r="I20" s="10">
+        <v>120000</v>
+      </c>
+      <c r="J20" s="10">
+        <v>120000</v>
+      </c>
+      <c r="K20" s="10">
+        <v>120000</v>
+      </c>
+      <c r="L20" s="10">
+        <v>120000</v>
+      </c>
+      <c r="M20" s="10">
+        <v>120000</v>
+      </c>
+      <c r="N20" s="10">
+        <v>120000</v>
+      </c>
+      <c r="O20" s="12">
+        <f t="shared" si="4"/>
+        <v>1440000</v>
+      </c>
     </row>
     <row r="21" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
+        <v>38</v>
+      </c>
+      <c r="B21" s="10">
+        <v>0</v>
+      </c>
+      <c r="C21" s="10">
+        <v>0</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0</v>
+      </c>
+      <c r="F21" s="10">
+        <v>0</v>
+      </c>
+      <c r="G21" s="10">
+        <v>0</v>
+      </c>
+      <c r="H21" s="10">
+        <v>0</v>
+      </c>
+      <c r="I21" s="10">
+        <v>0</v>
+      </c>
+      <c r="J21" s="10">
+        <v>0</v>
+      </c>
+      <c r="K21" s="10">
+        <v>0</v>
+      </c>
+      <c r="L21" s="10">
+        <v>0</v>
+      </c>
+      <c r="M21" s="10">
+        <v>0</v>
+      </c>
+      <c r="N21" s="10">
+        <v>0</v>
+      </c>
+      <c r="O21" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
+        <v>11</v>
+      </c>
+      <c r="B22" s="10">
+        <v>0</v>
+      </c>
+      <c r="C22" s="10">
+        <v>0</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0</v>
+      </c>
+      <c r="E22" s="10">
+        <v>0</v>
+      </c>
+      <c r="F22" s="10">
+        <v>0</v>
+      </c>
+      <c r="G22" s="10">
+        <v>0</v>
+      </c>
+      <c r="H22" s="10">
+        <v>0</v>
+      </c>
+      <c r="I22" s="10">
+        <v>0</v>
+      </c>
+      <c r="J22" s="10">
+        <v>0</v>
+      </c>
+      <c r="K22" s="10">
+        <v>0</v>
+      </c>
+      <c r="L22" s="10">
+        <v>0</v>
+      </c>
+      <c r="M22" s="10">
+        <v>0</v>
+      </c>
+      <c r="N22" s="10">
+        <v>0</v>
+      </c>
+      <c r="O22" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="B23" s="10">
+        <v>0</v>
+      </c>
+      <c r="C23" s="10">
+        <v>2000</v>
+      </c>
+      <c r="D23" s="10">
+        <v>2000</v>
+      </c>
+      <c r="E23" s="10">
+        <v>2000</v>
+      </c>
+      <c r="F23" s="10">
+        <v>2000</v>
+      </c>
+      <c r="G23" s="10">
+        <v>2000</v>
+      </c>
+      <c r="H23" s="10">
+        <v>2000</v>
+      </c>
+      <c r="I23" s="10">
+        <v>2000</v>
+      </c>
+      <c r="J23" s="10">
+        <v>2000</v>
+      </c>
+      <c r="K23" s="10">
+        <v>2000</v>
+      </c>
+      <c r="L23" s="10">
+        <v>2000</v>
+      </c>
+      <c r="M23" s="10">
+        <v>2000</v>
+      </c>
+      <c r="N23" s="10">
+        <v>2000</v>
+      </c>
+      <c r="O23" s="12">
+        <f t="shared" si="4"/>
+        <v>24000</v>
+      </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
+        <v>13</v>
+      </c>
+      <c r="B24" s="10">
+        <v>0</v>
+      </c>
+      <c r="C24" s="10">
+        <v>0</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0</v>
+      </c>
+      <c r="E24" s="10">
+        <v>0</v>
+      </c>
+      <c r="F24" s="10">
+        <v>5000</v>
+      </c>
+      <c r="G24" s="10">
+        <v>0</v>
+      </c>
+      <c r="H24" s="10">
+        <v>0</v>
+      </c>
+      <c r="I24" s="10">
+        <v>0</v>
+      </c>
+      <c r="J24" s="10">
+        <v>5000</v>
+      </c>
+      <c r="K24" s="10">
+        <v>0</v>
+      </c>
+      <c r="L24" s="10">
+        <v>0</v>
+      </c>
+      <c r="M24" s="10">
+        <v>0</v>
+      </c>
+      <c r="N24" s="10">
+        <v>5000</v>
+      </c>
+      <c r="O24" s="12">
+        <f t="shared" si="4"/>
+        <v>15000</v>
+      </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="B25" s="10">
+        <v>0</v>
+      </c>
+      <c r="C25" s="10">
+        <v>0</v>
+      </c>
+      <c r="D25" s="10">
+        <v>0</v>
+      </c>
+      <c r="E25" s="10">
+        <v>0</v>
+      </c>
+      <c r="F25" s="10">
+        <v>0</v>
+      </c>
+      <c r="G25" s="10">
+        <v>0</v>
+      </c>
+      <c r="H25" s="10">
+        <v>0</v>
+      </c>
+      <c r="I25" s="10">
+        <v>0</v>
+      </c>
+      <c r="J25" s="10">
+        <v>0</v>
+      </c>
+      <c r="K25" s="10">
+        <v>0</v>
+      </c>
+      <c r="L25" s="10">
+        <v>0</v>
+      </c>
+      <c r="M25" s="10">
+        <v>0</v>
+      </c>
+      <c r="N25" s="10">
+        <v>0</v>
+      </c>
+      <c r="O25" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
+        <v>15</v>
+      </c>
+      <c r="B26" s="10">
+        <v>0</v>
+      </c>
+      <c r="C26" s="10">
+        <v>1000</v>
+      </c>
+      <c r="D26" s="10">
+        <v>1000</v>
+      </c>
+      <c r="E26" s="10">
+        <v>1000</v>
+      </c>
+      <c r="F26" s="10">
+        <v>1000</v>
+      </c>
+      <c r="G26" s="10">
+        <v>1000</v>
+      </c>
+      <c r="H26" s="10">
+        <v>1000</v>
+      </c>
+      <c r="I26" s="10">
+        <v>1000</v>
+      </c>
+      <c r="J26" s="10">
+        <v>1000</v>
+      </c>
+      <c r="K26" s="10">
+        <v>1000</v>
+      </c>
+      <c r="L26" s="10">
+        <v>1000</v>
+      </c>
+      <c r="M26" s="10">
+        <v>1000</v>
+      </c>
+      <c r="N26" s="10">
+        <v>1000</v>
+      </c>
+      <c r="O26" s="12">
+        <f t="shared" si="4"/>
+        <v>12000</v>
+      </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
+        <v>16</v>
+      </c>
+      <c r="B27" s="10">
+        <v>0</v>
+      </c>
+      <c r="C27" s="10">
+        <v>0</v>
+      </c>
+      <c r="D27" s="10">
+        <v>0</v>
+      </c>
+      <c r="E27" s="10">
+        <v>0</v>
+      </c>
+      <c r="F27" s="10">
+        <v>25000</v>
+      </c>
+      <c r="G27" s="10">
+        <v>0</v>
+      </c>
+      <c r="H27" s="10">
+        <v>0</v>
+      </c>
+      <c r="I27" s="10">
+        <v>0</v>
+      </c>
+      <c r="J27" s="10">
+        <v>25000</v>
+      </c>
+      <c r="K27" s="10">
+        <v>0</v>
+      </c>
+      <c r="L27" s="10">
+        <v>0</v>
+      </c>
+      <c r="M27" s="10">
+        <v>0</v>
+      </c>
+      <c r="N27" s="10">
+        <v>25000</v>
+      </c>
+      <c r="O27" s="12">
+        <f t="shared" si="4"/>
+        <v>75000</v>
+      </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="B28" s="10">
+        <v>0</v>
+      </c>
+      <c r="C28" s="10">
+        <v>7999</v>
+      </c>
+      <c r="D28" s="10">
+        <v>7999</v>
+      </c>
+      <c r="E28" s="10">
+        <v>7999</v>
+      </c>
+      <c r="F28" s="10">
+        <v>7999</v>
+      </c>
+      <c r="G28" s="10">
+        <v>7999</v>
+      </c>
+      <c r="H28" s="10">
+        <v>7999</v>
+      </c>
+      <c r="I28" s="10">
+        <v>7999</v>
+      </c>
+      <c r="J28" s="10">
+        <v>7999</v>
+      </c>
+      <c r="K28" s="10">
+        <v>7999</v>
+      </c>
+      <c r="L28" s="10">
+        <v>7999</v>
+      </c>
+      <c r="M28" s="10">
+        <v>7999</v>
+      </c>
+      <c r="N28" s="10">
+        <v>7999</v>
+      </c>
+      <c r="O28" s="12">
+        <f t="shared" si="4"/>
+        <v>95988</v>
+      </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
+        <v>41</v>
+      </c>
+      <c r="B29" s="10">
+        <v>0</v>
+      </c>
+      <c r="C29" s="10">
+        <v>1299</v>
+      </c>
+      <c r="D29" s="10">
+        <v>1299</v>
+      </c>
+      <c r="E29" s="10">
+        <v>1299</v>
+      </c>
+      <c r="F29" s="10">
+        <v>1299</v>
+      </c>
+      <c r="G29" s="10">
+        <v>1299</v>
+      </c>
+      <c r="H29" s="10">
+        <v>1299</v>
+      </c>
+      <c r="I29" s="10">
+        <v>1299</v>
+      </c>
+      <c r="J29" s="10">
+        <v>1299</v>
+      </c>
+      <c r="K29" s="10">
+        <v>1299</v>
+      </c>
+      <c r="L29" s="10">
+        <v>1299</v>
+      </c>
+      <c r="M29" s="10">
+        <v>1299</v>
+      </c>
+      <c r="N29" s="10">
+        <v>1299</v>
+      </c>
+      <c r="O29" s="12">
+        <f t="shared" si="4"/>
+        <v>15588</v>
+      </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
+        <v>18</v>
+      </c>
+      <c r="B30" s="10">
+        <v>0</v>
+      </c>
+      <c r="C30" s="10">
+        <v>3500</v>
+      </c>
+      <c r="D30" s="10">
+        <v>3500</v>
+      </c>
+      <c r="E30" s="10">
+        <v>3500</v>
+      </c>
+      <c r="F30" s="10">
+        <v>3500</v>
+      </c>
+      <c r="G30" s="10">
+        <v>3500</v>
+      </c>
+      <c r="H30" s="10">
+        <v>3500</v>
+      </c>
+      <c r="I30" s="10">
+        <v>3500</v>
+      </c>
+      <c r="J30" s="10">
+        <v>3500</v>
+      </c>
+      <c r="K30" s="10">
+        <v>3500</v>
+      </c>
+      <c r="L30" s="10">
+        <v>3500</v>
+      </c>
+      <c r="M30" s="10">
+        <v>3500</v>
+      </c>
+      <c r="N30" s="10">
+        <v>3500</v>
+      </c>
+      <c r="O30" s="12">
+        <f t="shared" si="4"/>
+        <v>42000</v>
+      </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="B31" s="10">
+        <v>0</v>
+      </c>
+      <c r="C31" s="10">
+        <v>0</v>
+      </c>
+      <c r="D31" s="10">
+        <v>0</v>
+      </c>
+      <c r="E31" s="10">
+        <v>0</v>
+      </c>
+      <c r="F31" s="10">
+        <v>0</v>
+      </c>
+      <c r="G31" s="10">
+        <v>0</v>
+      </c>
+      <c r="H31" s="10">
+        <v>0</v>
+      </c>
+      <c r="I31" s="10">
+        <v>0</v>
+      </c>
+      <c r="J31" s="10">
+        <v>0</v>
+      </c>
+      <c r="K31" s="10">
+        <v>0</v>
+      </c>
+      <c r="L31" s="10">
+        <v>0</v>
+      </c>
+      <c r="M31" s="10">
+        <v>0</v>
+      </c>
+      <c r="N31" s="10">
+        <v>0</v>
+      </c>
+      <c r="O31" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
+        <v>20</v>
+      </c>
+      <c r="B32" s="10">
+        <v>0</v>
+      </c>
+      <c r="C32" s="10">
+        <v>0</v>
+      </c>
+      <c r="D32" s="10">
+        <v>0</v>
+      </c>
+      <c r="E32" s="10">
+        <v>0</v>
+      </c>
+      <c r="F32" s="10">
+        <v>0</v>
+      </c>
+      <c r="G32" s="10">
+        <v>0</v>
+      </c>
+      <c r="H32" s="10">
+        <v>0</v>
+      </c>
+      <c r="I32" s="10">
+        <v>0</v>
+      </c>
+      <c r="J32" s="10">
+        <v>0</v>
+      </c>
+      <c r="K32" s="10">
+        <v>0</v>
+      </c>
+      <c r="L32" s="10">
+        <v>0</v>
+      </c>
+      <c r="M32" s="10">
+        <v>0</v>
+      </c>
+      <c r="N32" s="10">
+        <v>0</v>
+      </c>
+      <c r="O32" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-    </row>
-    <row r="34" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="B33" s="10">
+        <v>0</v>
+      </c>
+      <c r="C33" s="10">
+        <v>4800</v>
+      </c>
+      <c r="D33" s="10">
+        <v>4800</v>
+      </c>
+      <c r="E33" s="10">
+        <v>4800</v>
+      </c>
+      <c r="F33" s="10">
+        <v>4800</v>
+      </c>
+      <c r="G33" s="10">
+        <v>4800</v>
+      </c>
+      <c r="H33" s="10">
+        <v>4800</v>
+      </c>
+      <c r="I33" s="10">
+        <v>4800</v>
+      </c>
+      <c r="J33" s="10">
+        <v>4800</v>
+      </c>
+      <c r="K33" s="10">
+        <v>4800</v>
+      </c>
+      <c r="L33" s="10">
+        <v>4800</v>
+      </c>
+      <c r="M33" s="10">
+        <v>4800</v>
+      </c>
+      <c r="N33" s="10">
+        <v>4800</v>
+      </c>
+      <c r="O33" s="12">
+        <f t="shared" si="4"/>
+        <v>57600</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="B34" s="10">
+        <v>0</v>
+      </c>
+      <c r="C34" s="10">
+        <v>10000</v>
+      </c>
+      <c r="D34" s="10">
+        <v>10000</v>
+      </c>
+      <c r="E34" s="10">
+        <v>10000</v>
+      </c>
+      <c r="F34" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G34" s="10">
+        <v>10000</v>
+      </c>
+      <c r="H34" s="10">
+        <v>10000</v>
+      </c>
+      <c r="I34" s="10">
+        <v>10000</v>
+      </c>
+      <c r="J34" s="10">
+        <v>10000</v>
+      </c>
+      <c r="K34" s="10">
+        <v>10000</v>
+      </c>
+      <c r="L34" s="10">
+        <v>10000</v>
+      </c>
+      <c r="M34" s="10">
+        <v>10000</v>
+      </c>
+      <c r="N34" s="10">
+        <v>10000</v>
+      </c>
+      <c r="O34" s="12">
+        <f t="shared" si="4"/>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
+        <v>45</v>
+      </c>
+      <c r="B35" s="10">
+        <v>0</v>
+      </c>
+      <c r="C35" s="10">
+        <v>2000</v>
+      </c>
+      <c r="D35" s="10">
+        <v>2000</v>
+      </c>
+      <c r="E35" s="10">
+        <v>2000</v>
+      </c>
+      <c r="F35" s="10">
+        <v>2000</v>
+      </c>
+      <c r="G35" s="10">
+        <v>2000</v>
+      </c>
+      <c r="H35" s="10">
+        <v>2000</v>
+      </c>
+      <c r="I35" s="10">
+        <v>2000</v>
+      </c>
+      <c r="J35" s="10">
+        <v>2000</v>
+      </c>
+      <c r="K35" s="10">
+        <v>2000</v>
+      </c>
+      <c r="L35" s="10">
+        <v>2000</v>
+      </c>
+      <c r="M35" s="10">
+        <v>2000</v>
+      </c>
+      <c r="N35" s="10">
+        <v>2000</v>
+      </c>
+      <c r="O35" s="12">
+        <f t="shared" si="4"/>
+        <v>24000</v>
+      </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
+        <v>46</v>
+      </c>
+      <c r="B36" s="10">
+        <v>0</v>
+      </c>
+      <c r="C36" s="10">
+        <v>0</v>
+      </c>
+      <c r="D36" s="10">
+        <v>0</v>
+      </c>
+      <c r="E36" s="10">
+        <v>0</v>
+      </c>
+      <c r="F36" s="10">
+        <v>0</v>
+      </c>
+      <c r="G36" s="10">
+        <v>0</v>
+      </c>
+      <c r="H36" s="10">
+        <v>0</v>
+      </c>
+      <c r="I36" s="10">
+        <v>0</v>
+      </c>
+      <c r="J36" s="10">
+        <v>0</v>
+      </c>
+      <c r="K36" s="10">
+        <v>0</v>
+      </c>
+      <c r="L36" s="10">
+        <v>0</v>
+      </c>
+      <c r="M36" s="10">
+        <v>0</v>
+      </c>
+      <c r="N36" s="10">
+        <v>0</v>
+      </c>
+      <c r="O36" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
+        <v>22</v>
+      </c>
+      <c r="B37" s="10">
+        <v>0</v>
+      </c>
+      <c r="C37" s="10">
+        <v>15000</v>
+      </c>
+      <c r="D37" s="10">
+        <v>15000</v>
+      </c>
+      <c r="E37" s="10">
+        <v>15000</v>
+      </c>
+      <c r="F37" s="10">
+        <v>15000</v>
+      </c>
+      <c r="G37" s="10">
+        <v>15000</v>
+      </c>
+      <c r="H37" s="10">
+        <v>15000</v>
+      </c>
+      <c r="I37" s="10">
+        <v>15000</v>
+      </c>
+      <c r="J37" s="10">
+        <v>15000</v>
+      </c>
+      <c r="K37" s="10">
+        <v>15000</v>
+      </c>
+      <c r="L37" s="10">
+        <v>15000</v>
+      </c>
+      <c r="M37" s="10">
+        <v>15000</v>
+      </c>
+      <c r="N37" s="10">
+        <v>15000</v>
+      </c>
+      <c r="O37" s="12">
+        <f t="shared" si="4"/>
+        <v>180000</v>
+      </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B38" s="10">
         <f>SUM(B17:B37)</f>
         <v>0</v>
       </c>
       <c r="C38" s="10">
-        <f t="shared" ref="C38:O38" si="4">SUM(C17:C37)</f>
-        <v>0</v>
+        <f t="shared" ref="C38:O38" si="5">SUM(C17:C37)</f>
+        <v>182598</v>
       </c>
       <c r="D38" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>182598</v>
       </c>
       <c r="E38" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>182598</v>
       </c>
       <c r="F38" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>212598</v>
       </c>
       <c r="G38" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>182598</v>
       </c>
       <c r="H38" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>182598</v>
       </c>
       <c r="I38" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>182598</v>
       </c>
       <c r="J38" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>212598</v>
       </c>
       <c r="K38" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>182598</v>
       </c>
       <c r="L38" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>182598</v>
       </c>
       <c r="M38" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>182598</v>
       </c>
       <c r="N38" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>212598</v>
       </c>
       <c r="O38" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>2281176</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
+        <v>24</v>
+      </c>
+      <c r="B39" s="10">
+        <v>0</v>
+      </c>
+      <c r="C39" s="39">
+        <v>36547.79</v>
+      </c>
+      <c r="D39" s="39">
+        <v>36547.79</v>
+      </c>
+      <c r="E39" s="39">
+        <v>36547.79</v>
+      </c>
+      <c r="F39" s="39">
+        <v>36547.79</v>
+      </c>
+      <c r="G39" s="39">
+        <v>36547.79</v>
+      </c>
+      <c r="H39" s="39">
+        <v>36547.79</v>
+      </c>
+      <c r="I39" s="39">
+        <v>36547.79</v>
+      </c>
+      <c r="J39" s="39">
+        <v>36547.79</v>
+      </c>
+      <c r="K39" s="39">
+        <v>36547.79</v>
+      </c>
+      <c r="L39" s="39">
+        <v>36547.79</v>
+      </c>
+      <c r="M39" s="39">
+        <v>36547.79</v>
+      </c>
+      <c r="N39" s="39">
+        <v>36547.79</v>
+      </c>
+      <c r="O39" s="10">
+        <f>SUM(B39:N39)</f>
+        <v>438573.47999999992</v>
+      </c>
     </row>
     <row r="40" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
+        <v>25</v>
+      </c>
+      <c r="B40" s="10">
+        <v>0</v>
+      </c>
+      <c r="C40" s="10">
+        <v>0</v>
+      </c>
+      <c r="D40" s="10">
+        <v>0</v>
+      </c>
+      <c r="E40" s="10">
+        <v>0</v>
+      </c>
+      <c r="F40" s="10">
+        <v>0</v>
+      </c>
+      <c r="G40" s="10">
+        <v>0</v>
+      </c>
+      <c r="H40" s="10">
+        <v>0</v>
+      </c>
+      <c r="I40" s="10">
+        <v>0</v>
+      </c>
+      <c r="J40" s="10">
+        <v>0</v>
+      </c>
+      <c r="K40" s="10">
+        <v>0</v>
+      </c>
+      <c r="L40" s="10">
+        <v>0</v>
+      </c>
+      <c r="M40" s="10">
+        <v>0</v>
+      </c>
+      <c r="N40" s="10">
+        <v>0</v>
+      </c>
+      <c r="O40" s="10">
+        <f t="shared" ref="O40:O43" si="6">SUM(B40:N40)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
+        <v>26</v>
+      </c>
+      <c r="B41" s="10">
+        <v>0</v>
+      </c>
+      <c r="C41" s="10">
+        <v>0</v>
+      </c>
+      <c r="D41" s="10">
+        <v>0</v>
+      </c>
+      <c r="E41" s="10">
+        <v>0</v>
+      </c>
+      <c r="F41" s="10">
+        <v>0</v>
+      </c>
+      <c r="G41" s="10">
+        <v>0</v>
+      </c>
+      <c r="H41" s="10">
+        <v>0</v>
+      </c>
+      <c r="I41" s="10">
+        <v>0</v>
+      </c>
+      <c r="J41" s="10">
+        <v>0</v>
+      </c>
+      <c r="K41" s="10">
+        <v>0</v>
+      </c>
+      <c r="L41" s="10">
+        <v>0</v>
+      </c>
+      <c r="M41" s="10">
+        <v>0</v>
+      </c>
+      <c r="N41" s="10">
+        <v>0</v>
+      </c>
+      <c r="O41" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="B42" s="10">
+        <v>0</v>
+      </c>
+      <c r="C42" s="10">
+        <v>0</v>
+      </c>
+      <c r="D42" s="10">
+        <v>0</v>
+      </c>
+      <c r="E42" s="10">
+        <v>0</v>
+      </c>
+      <c r="F42" s="10">
+        <v>0</v>
+      </c>
+      <c r="G42" s="10">
+        <v>0</v>
+      </c>
+      <c r="H42" s="10">
+        <v>0</v>
+      </c>
+      <c r="I42" s="10">
+        <v>0</v>
+      </c>
+      <c r="J42" s="10">
+        <v>0</v>
+      </c>
+      <c r="K42" s="10">
+        <v>0</v>
+      </c>
+      <c r="L42" s="10">
+        <v>0</v>
+      </c>
+      <c r="M42" s="10">
+        <v>0</v>
+      </c>
+      <c r="N42" s="10">
+        <v>0</v>
+      </c>
+      <c r="O42" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
+        <v>39</v>
+      </c>
+      <c r="B43" s="10">
+        <v>0</v>
+      </c>
+      <c r="C43" s="10">
+        <v>0</v>
+      </c>
+      <c r="D43" s="10">
+        <v>0</v>
+      </c>
+      <c r="E43" s="10">
+        <v>0</v>
+      </c>
+      <c r="F43" s="10">
+        <v>0</v>
+      </c>
+      <c r="G43" s="10">
+        <v>0</v>
+      </c>
+      <c r="H43" s="10">
+        <v>0</v>
+      </c>
+      <c r="I43" s="10">
+        <v>0</v>
+      </c>
+      <c r="J43" s="10">
+        <v>0</v>
+      </c>
+      <c r="K43" s="10">
+        <v>0</v>
+      </c>
+      <c r="L43" s="10">
+        <v>0</v>
+      </c>
+      <c r="M43" s="10">
+        <v>0</v>
+      </c>
+      <c r="N43" s="10">
+        <v>0</v>
+      </c>
+      <c r="O43" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B44" s="10">
         <f>SUM(B38:B43)</f>
         <v>0</v>
       </c>
       <c r="C44" s="10">
-        <f t="shared" ref="C44:O44" si="5">SUM(C38:C43)</f>
-        <v>0</v>
+        <f t="shared" ref="C44:O44" si="7">SUM(C38:C43)</f>
+        <v>219145.79</v>
       </c>
       <c r="D44" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>219145.79</v>
       </c>
       <c r="E44" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>219145.79</v>
       </c>
       <c r="F44" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>249145.79</v>
       </c>
       <c r="G44" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>219145.79</v>
       </c>
       <c r="H44" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>219145.79</v>
       </c>
       <c r="I44" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>219145.79</v>
       </c>
       <c r="J44" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>249145.79</v>
       </c>
       <c r="K44" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>219145.79</v>
       </c>
       <c r="L44" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>219145.79</v>
       </c>
       <c r="M44" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>219145.79</v>
       </c>
       <c r="N44" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>249145.79</v>
       </c>
       <c r="O44" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>2719749.48</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -4513,59 +4833,59 @@
       </c>
       <c r="B45" s="14">
         <f>(B14-B44)</f>
-        <v>0</v>
+        <v>11385903</v>
       </c>
       <c r="C45" s="14">
-        <f t="shared" ref="C45:O45" si="6">(C14-C44)</f>
-        <v>0</v>
+        <f t="shared" ref="C45:O45" si="8">(C14-C44)</f>
+        <v>11982897.210000001</v>
       </c>
       <c r="D45" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>13014711.420000002</v>
       </c>
       <c r="E45" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>14264245.630000003</v>
       </c>
       <c r="F45" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>15916739.840000004</v>
       </c>
       <c r="G45" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>16721024.050000004</v>
       </c>
       <c r="H45" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>18212168.260000005</v>
       </c>
       <c r="I45" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>20453312.470000006</v>
       </c>
       <c r="J45" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>23640956.680000007</v>
       </c>
       <c r="K45" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>25198550.890000008</v>
       </c>
       <c r="L45" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>27927945.100000009</v>
       </c>
       <c r="M45" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>30657339.31000001</v>
       </c>
       <c r="N45" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>34526293.520000011</v>
       </c>
       <c r="O45" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>23140390.52</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
@@ -4587,7 +4907,7 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B47" s="22"/>
       <c r="C47" s="24"/>
@@ -4606,7 +4926,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -4625,7 +4945,7 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -4644,7 +4964,7 @@
     </row>
     <row r="50" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -4663,7 +4983,7 @@
     </row>
     <row r="51" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -4682,7 +5002,7 @@
     </row>
     <row r="52" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -4701,7 +5021,7 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -4720,8 +5040,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4730,7 +5049,7 @@
   <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="A1:XFD1048576"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -4741,12 +5060,12 @@
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -4754,10 +5073,10 @@
     </row>
     <row r="4" spans="1:16" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="31">
-        <v>36678</v>
+        <v>42887</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -4770,55 +5089,55 @@
     <row r="6" spans="1:16" s="37" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="35">
         <f>B4</f>
-        <v>36678</v>
+        <v>42887</v>
       </c>
       <c r="D6" s="35">
         <f>DATE(YEAR(C6),MONTH(C6)+1,1)</f>
-        <v>36708</v>
+        <v>42917</v>
       </c>
       <c r="E6" s="35">
         <f t="shared" ref="E6:N6" si="0">DATE(YEAR(D6),MONTH(D6)+1,1)</f>
-        <v>36739</v>
+        <v>42948</v>
       </c>
       <c r="F6" s="35">
         <f t="shared" si="0"/>
-        <v>36770</v>
+        <v>42979</v>
       </c>
       <c r="G6" s="35">
         <f t="shared" si="0"/>
-        <v>36800</v>
+        <v>43009</v>
       </c>
       <c r="H6" s="35">
         <f t="shared" si="0"/>
-        <v>36831</v>
+        <v>43040</v>
       </c>
       <c r="I6" s="35">
         <f t="shared" si="0"/>
-        <v>36861</v>
+        <v>43070</v>
       </c>
       <c r="J6" s="35">
         <f t="shared" si="0"/>
-        <v>36892</v>
+        <v>43101</v>
       </c>
       <c r="K6" s="35">
         <f t="shared" si="0"/>
-        <v>36923</v>
+        <v>43132</v>
       </c>
       <c r="L6" s="35">
         <f t="shared" si="0"/>
-        <v>36951</v>
+        <v>43160</v>
       </c>
       <c r="M6" s="35">
         <f t="shared" si="0"/>
-        <v>36982</v>
+        <v>43191</v>
       </c>
       <c r="N6" s="35">
         <f t="shared" si="0"/>
-        <v>37012</v>
+        <v>43221</v>
       </c>
       <c r="O6" s="36" t="s">
         <v>0</v>
@@ -4826,56 +5145,58 @@
     </row>
     <row r="7" spans="1:16" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="33"/>
+        <v>2</v>
+      </c>
+      <c r="B7" s="14">
+        <v>34526294</v>
+      </c>
       <c r="C7" s="33">
         <f>B45</f>
-        <v>0</v>
+        <v>34526294</v>
       </c>
       <c r="D7" s="33">
         <f t="shared" ref="D7:N7" si="1">C45</f>
-        <v>0</v>
+        <v>35566976</v>
       </c>
       <c r="E7" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>37258958</v>
       </c>
       <c r="F7" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>39276900</v>
       </c>
       <c r="G7" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>41994882</v>
       </c>
       <c r="H7" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>43648754</v>
       </c>
       <c r="I7" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>46531686</v>
       </c>
       <c r="J7" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50764618</v>
       </c>
       <c r="K7" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>56725250</v>
       </c>
       <c r="L7" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>59493432</v>
       </c>
       <c r="M7" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>64214614</v>
       </c>
       <c r="N7" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>68935796</v>
       </c>
       <c r="O7" s="33"/>
     </row>
@@ -4899,7 +5220,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -4918,181 +5239,268 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="12">
+        <v>0</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1223280</v>
+      </c>
+      <c r="D10" s="12">
+        <v>1874580</v>
+      </c>
+      <c r="E10" s="12">
+        <v>2200540</v>
+      </c>
+      <c r="F10" s="12">
+        <v>2930580</v>
+      </c>
+      <c r="G10" s="12">
+        <v>1836470</v>
+      </c>
+      <c r="H10" s="12">
+        <v>3065530</v>
+      </c>
+      <c r="I10" s="12">
+        <v>4415530</v>
+      </c>
+      <c r="J10" s="12">
+        <v>6173230</v>
+      </c>
+      <c r="K10" s="12">
+        <v>2950780</v>
+      </c>
+      <c r="L10" s="12">
+        <v>4903780</v>
+      </c>
+      <c r="M10" s="12">
+        <v>4903780</v>
+      </c>
+      <c r="N10" s="12">
+        <v>6854540</v>
+      </c>
+      <c r="O10" s="12">
+        <f>SUM(C10:N10)</f>
+        <v>43332620</v>
+      </c>
     </row>
     <row r="11" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
+        <v>5</v>
+      </c>
+      <c r="B11" s="10">
+        <v>0</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0</v>
+      </c>
+      <c r="I11" s="10">
+        <v>0</v>
+      </c>
+      <c r="J11" s="10">
+        <v>0</v>
+      </c>
+      <c r="K11" s="10">
+        <v>0</v>
+      </c>
+      <c r="L11" s="10">
+        <v>0</v>
+      </c>
+      <c r="M11" s="10">
+        <v>0</v>
+      </c>
+      <c r="N11" s="10">
+        <v>0</v>
+      </c>
+      <c r="O11" s="12">
+        <f t="shared" ref="O11:O12" si="2">SUM(C11:N11)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
+        <v>6</v>
+      </c>
+      <c r="B12" s="10">
+        <v>0</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0</v>
+      </c>
+      <c r="H12" s="10">
+        <v>0</v>
+      </c>
+      <c r="I12" s="10">
+        <v>0</v>
+      </c>
+      <c r="J12" s="10">
+        <v>0</v>
+      </c>
+      <c r="K12" s="10">
+        <v>0</v>
+      </c>
+      <c r="L12" s="10">
+        <v>0</v>
+      </c>
+      <c r="M12" s="10">
+        <v>0</v>
+      </c>
+      <c r="N12" s="10">
+        <v>0</v>
+      </c>
+      <c r="O12" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="10">
         <f>SUM(B10:B12)</f>
         <v>0</v>
       </c>
       <c r="C13" s="10">
-        <f t="shared" ref="C13:O13" si="2">SUM(C10:C12)</f>
-        <v>0</v>
+        <f t="shared" ref="C13:O13" si="3">SUM(C10:C12)</f>
+        <v>1223280</v>
       </c>
       <c r="D13" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1874580</v>
       </c>
       <c r="E13" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2200540</v>
       </c>
       <c r="F13" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2930580</v>
       </c>
       <c r="G13" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1836470</v>
       </c>
       <c r="H13" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>3065530</v>
       </c>
       <c r="I13" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>4415530</v>
       </c>
       <c r="J13" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>6173230</v>
       </c>
       <c r="K13" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2950780</v>
       </c>
       <c r="L13" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>4903780</v>
       </c>
       <c r="M13" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>4903780</v>
       </c>
       <c r="N13" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>6854540</v>
       </c>
       <c r="O13" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>43332620</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="14">
         <f>(B7+B13)</f>
-        <v>0</v>
+        <v>34526294</v>
       </c>
       <c r="C14" s="14">
-        <f t="shared" ref="C14:O14" si="3">(C7+C13)</f>
-        <v>0</v>
+        <f t="shared" ref="C14:O14" si="4">(C7+C13)</f>
+        <v>35749574</v>
       </c>
       <c r="D14" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>37441556</v>
       </c>
       <c r="E14" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>39459498</v>
       </c>
       <c r="F14" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>42207480</v>
       </c>
       <c r="G14" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>43831352</v>
       </c>
       <c r="H14" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>46714284</v>
       </c>
       <c r="I14" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>50947216</v>
       </c>
       <c r="J14" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>56937848</v>
       </c>
       <c r="K14" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>59676030</v>
       </c>
       <c r="L14" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>64397212</v>
       </c>
       <c r="M14" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>69118394</v>
       </c>
       <c r="N14" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>75790336</v>
       </c>
       <c r="O14" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>43332620</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -5114,7 +5522,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -5133,562 +5541,1276 @@
     </row>
     <row r="17" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="B17" s="12">
+        <v>0</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0</v>
+      </c>
+      <c r="F17" s="12">
+        <v>0</v>
+      </c>
+      <c r="G17" s="12">
+        <v>0</v>
+      </c>
+      <c r="H17" s="12">
+        <v>0</v>
+      </c>
+      <c r="I17" s="12">
+        <v>0</v>
+      </c>
+      <c r="J17" s="12">
+        <v>0</v>
+      </c>
+      <c r="K17" s="12">
+        <v>0</v>
+      </c>
+      <c r="L17" s="12">
+        <v>0</v>
+      </c>
+      <c r="M17" s="12">
+        <v>0</v>
+      </c>
+      <c r="N17" s="12">
+        <v>0</v>
+      </c>
+      <c r="O17" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
+        <v>42</v>
+      </c>
+      <c r="B18" s="10">
+        <v>0</v>
+      </c>
+      <c r="C18" s="10">
+        <v>5000</v>
+      </c>
+      <c r="D18" s="10">
+        <v>5000</v>
+      </c>
+      <c r="E18" s="10">
+        <v>5000</v>
+      </c>
+      <c r="F18" s="10">
+        <v>5000</v>
+      </c>
+      <c r="G18" s="10">
+        <v>5000</v>
+      </c>
+      <c r="H18" s="10">
+        <v>5000</v>
+      </c>
+      <c r="I18" s="10">
+        <v>5000</v>
+      </c>
+      <c r="J18" s="10">
+        <v>5000</v>
+      </c>
+      <c r="K18" s="10">
+        <v>5000</v>
+      </c>
+      <c r="L18" s="10">
+        <v>5000</v>
+      </c>
+      <c r="M18" s="10">
+        <v>5000</v>
+      </c>
+      <c r="N18" s="10">
+        <v>5000</v>
+      </c>
+      <c r="O18" s="10">
+        <v>120000</v>
+      </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
+        <v>43</v>
+      </c>
+      <c r="B19" s="10">
+        <v>0</v>
+      </c>
+      <c r="C19" s="10">
+        <v>2000</v>
+      </c>
+      <c r="D19" s="10">
+        <v>2000</v>
+      </c>
+      <c r="E19" s="10">
+        <v>2000</v>
+      </c>
+      <c r="F19" s="10">
+        <v>2000</v>
+      </c>
+      <c r="G19" s="10">
+        <v>2000</v>
+      </c>
+      <c r="H19" s="10">
+        <v>2000</v>
+      </c>
+      <c r="I19" s="10">
+        <v>2000</v>
+      </c>
+      <c r="J19" s="10">
+        <v>2000</v>
+      </c>
+      <c r="K19" s="10">
+        <v>2000</v>
+      </c>
+      <c r="L19" s="10">
+        <v>2000</v>
+      </c>
+      <c r="M19" s="10">
+        <v>2000</v>
+      </c>
+      <c r="N19" s="10">
+        <v>2000</v>
+      </c>
+      <c r="O19" s="10">
+        <v>60000</v>
+      </c>
     </row>
     <row r="20" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
+        <v>37</v>
+      </c>
+      <c r="B20" s="10">
+        <v>0</v>
+      </c>
+      <c r="C20" s="10">
+        <v>120000</v>
+      </c>
+      <c r="D20" s="10">
+        <v>120000</v>
+      </c>
+      <c r="E20" s="10">
+        <v>120000</v>
+      </c>
+      <c r="F20" s="10">
+        <v>120000</v>
+      </c>
+      <c r="G20" s="10">
+        <v>120000</v>
+      </c>
+      <c r="H20" s="10">
+        <v>120000</v>
+      </c>
+      <c r="I20" s="10">
+        <v>120000</v>
+      </c>
+      <c r="J20" s="10">
+        <v>120000</v>
+      </c>
+      <c r="K20" s="10">
+        <v>120000</v>
+      </c>
+      <c r="L20" s="10">
+        <v>120000</v>
+      </c>
+      <c r="M20" s="10">
+        <v>120000</v>
+      </c>
+      <c r="N20" s="10">
+        <v>120000</v>
+      </c>
+      <c r="O20" s="10">
+        <v>1440000</v>
+      </c>
     </row>
     <row r="21" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
+        <v>38</v>
+      </c>
+      <c r="B21" s="10">
+        <v>0</v>
+      </c>
+      <c r="C21" s="10">
+        <v>0</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0</v>
+      </c>
+      <c r="F21" s="10">
+        <v>0</v>
+      </c>
+      <c r="G21" s="10">
+        <v>0</v>
+      </c>
+      <c r="H21" s="10">
+        <v>0</v>
+      </c>
+      <c r="I21" s="10">
+        <v>0</v>
+      </c>
+      <c r="J21" s="10">
+        <v>0</v>
+      </c>
+      <c r="K21" s="10">
+        <v>0</v>
+      </c>
+      <c r="L21" s="10">
+        <v>0</v>
+      </c>
+      <c r="M21" s="10">
+        <v>0</v>
+      </c>
+      <c r="N21" s="10">
+        <v>0</v>
+      </c>
+      <c r="O21" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
+        <v>11</v>
+      </c>
+      <c r="B22" s="10">
+        <v>0</v>
+      </c>
+      <c r="C22" s="10">
+        <v>0</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0</v>
+      </c>
+      <c r="E22" s="10">
+        <v>0</v>
+      </c>
+      <c r="F22" s="10">
+        <v>0</v>
+      </c>
+      <c r="G22" s="10">
+        <v>0</v>
+      </c>
+      <c r="H22" s="10">
+        <v>0</v>
+      </c>
+      <c r="I22" s="10">
+        <v>0</v>
+      </c>
+      <c r="J22" s="10">
+        <v>0</v>
+      </c>
+      <c r="K22" s="10">
+        <v>0</v>
+      </c>
+      <c r="L22" s="10">
+        <v>0</v>
+      </c>
+      <c r="M22" s="10">
+        <v>0</v>
+      </c>
+      <c r="N22" s="10">
+        <v>0</v>
+      </c>
+      <c r="O22" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="B23" s="10">
+        <v>0</v>
+      </c>
+      <c r="C23" s="10">
+        <v>2000</v>
+      </c>
+      <c r="D23" s="10">
+        <v>2000</v>
+      </c>
+      <c r="E23" s="10">
+        <v>2000</v>
+      </c>
+      <c r="F23" s="10">
+        <v>2000</v>
+      </c>
+      <c r="G23" s="10">
+        <v>2000</v>
+      </c>
+      <c r="H23" s="10">
+        <v>2000</v>
+      </c>
+      <c r="I23" s="10">
+        <v>2000</v>
+      </c>
+      <c r="J23" s="10">
+        <v>2000</v>
+      </c>
+      <c r="K23" s="10">
+        <v>2000</v>
+      </c>
+      <c r="L23" s="10">
+        <v>2000</v>
+      </c>
+      <c r="M23" s="10">
+        <v>2000</v>
+      </c>
+      <c r="N23" s="10">
+        <v>2000</v>
+      </c>
+      <c r="O23" s="10">
+        <v>24000</v>
+      </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
+        <v>13</v>
+      </c>
+      <c r="B24" s="10">
+        <v>0</v>
+      </c>
+      <c r="C24" s="10">
+        <v>0</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0</v>
+      </c>
+      <c r="E24" s="10">
+        <v>0</v>
+      </c>
+      <c r="F24" s="10">
+        <v>5000</v>
+      </c>
+      <c r="G24" s="10">
+        <v>0</v>
+      </c>
+      <c r="H24" s="10">
+        <v>0</v>
+      </c>
+      <c r="I24" s="10">
+        <v>0</v>
+      </c>
+      <c r="J24" s="10">
+        <v>5000</v>
+      </c>
+      <c r="K24" s="10">
+        <v>0</v>
+      </c>
+      <c r="L24" s="10">
+        <v>0</v>
+      </c>
+      <c r="M24" s="10">
+        <v>0</v>
+      </c>
+      <c r="N24" s="10">
+        <v>5000</v>
+      </c>
+      <c r="O24" s="10">
+        <v>15000</v>
+      </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="B25" s="10">
+        <v>0</v>
+      </c>
+      <c r="C25" s="10">
+        <v>0</v>
+      </c>
+      <c r="D25" s="10">
+        <v>0</v>
+      </c>
+      <c r="E25" s="10">
+        <v>0</v>
+      </c>
+      <c r="F25" s="10">
+        <v>0</v>
+      </c>
+      <c r="G25" s="10">
+        <v>0</v>
+      </c>
+      <c r="H25" s="10">
+        <v>0</v>
+      </c>
+      <c r="I25" s="10">
+        <v>0</v>
+      </c>
+      <c r="J25" s="10">
+        <v>0</v>
+      </c>
+      <c r="K25" s="10">
+        <v>0</v>
+      </c>
+      <c r="L25" s="10">
+        <v>0</v>
+      </c>
+      <c r="M25" s="10">
+        <v>0</v>
+      </c>
+      <c r="N25" s="10">
+        <v>0</v>
+      </c>
+      <c r="O25" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
+        <v>15</v>
+      </c>
+      <c r="B26" s="10">
+        <v>0</v>
+      </c>
+      <c r="C26" s="10">
+        <v>1000</v>
+      </c>
+      <c r="D26" s="10">
+        <v>1000</v>
+      </c>
+      <c r="E26" s="10">
+        <v>1000</v>
+      </c>
+      <c r="F26" s="10">
+        <v>1000</v>
+      </c>
+      <c r="G26" s="10">
+        <v>1000</v>
+      </c>
+      <c r="H26" s="10">
+        <v>1000</v>
+      </c>
+      <c r="I26" s="10">
+        <v>1000</v>
+      </c>
+      <c r="J26" s="10">
+        <v>1000</v>
+      </c>
+      <c r="K26" s="10">
+        <v>1000</v>
+      </c>
+      <c r="L26" s="10">
+        <v>1000</v>
+      </c>
+      <c r="M26" s="10">
+        <v>1000</v>
+      </c>
+      <c r="N26" s="10">
+        <v>1000</v>
+      </c>
+      <c r="O26" s="10">
+        <v>12000</v>
+      </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
+        <v>16</v>
+      </c>
+      <c r="B27" s="10">
+        <v>0</v>
+      </c>
+      <c r="C27" s="10">
+        <v>0</v>
+      </c>
+      <c r="D27" s="10">
+        <v>0</v>
+      </c>
+      <c r="E27" s="10">
+        <v>0</v>
+      </c>
+      <c r="F27" s="10">
+        <v>25000</v>
+      </c>
+      <c r="G27" s="10">
+        <v>0</v>
+      </c>
+      <c r="H27" s="10">
+        <v>0</v>
+      </c>
+      <c r="I27" s="10">
+        <v>0</v>
+      </c>
+      <c r="J27" s="10">
+        <v>25000</v>
+      </c>
+      <c r="K27" s="10">
+        <v>0</v>
+      </c>
+      <c r="L27" s="10">
+        <v>0</v>
+      </c>
+      <c r="M27" s="10">
+        <v>0</v>
+      </c>
+      <c r="N27" s="10">
+        <v>25000</v>
+      </c>
+      <c r="O27" s="10">
+        <v>75000</v>
+      </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="B28" s="10">
+        <v>0</v>
+      </c>
+      <c r="C28" s="10">
+        <v>7999</v>
+      </c>
+      <c r="D28" s="10">
+        <v>7999</v>
+      </c>
+      <c r="E28" s="10">
+        <v>7999</v>
+      </c>
+      <c r="F28" s="10">
+        <v>7999</v>
+      </c>
+      <c r="G28" s="10">
+        <v>7999</v>
+      </c>
+      <c r="H28" s="10">
+        <v>7999</v>
+      </c>
+      <c r="I28" s="10">
+        <v>7999</v>
+      </c>
+      <c r="J28" s="10">
+        <v>7999</v>
+      </c>
+      <c r="K28" s="10">
+        <v>7999</v>
+      </c>
+      <c r="L28" s="10">
+        <v>7999</v>
+      </c>
+      <c r="M28" s="10">
+        <v>7999</v>
+      </c>
+      <c r="N28" s="10">
+        <v>7999</v>
+      </c>
+      <c r="O28" s="10">
+        <v>95988</v>
+      </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
+        <v>41</v>
+      </c>
+      <c r="B29" s="10">
+        <v>0</v>
+      </c>
+      <c r="C29" s="10">
+        <v>1299</v>
+      </c>
+      <c r="D29" s="10">
+        <v>1299</v>
+      </c>
+      <c r="E29" s="10">
+        <v>1299</v>
+      </c>
+      <c r="F29" s="10">
+        <v>1299</v>
+      </c>
+      <c r="G29" s="10">
+        <v>1299</v>
+      </c>
+      <c r="H29" s="10">
+        <v>1299</v>
+      </c>
+      <c r="I29" s="10">
+        <v>1299</v>
+      </c>
+      <c r="J29" s="10">
+        <v>1299</v>
+      </c>
+      <c r="K29" s="10">
+        <v>1299</v>
+      </c>
+      <c r="L29" s="10">
+        <v>1299</v>
+      </c>
+      <c r="M29" s="10">
+        <v>1299</v>
+      </c>
+      <c r="N29" s="10">
+        <v>1299</v>
+      </c>
+      <c r="O29" s="10">
+        <v>15588</v>
+      </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
+        <v>18</v>
+      </c>
+      <c r="B30" s="10">
+        <v>0</v>
+      </c>
+      <c r="C30" s="10">
+        <v>3500</v>
+      </c>
+      <c r="D30" s="10">
+        <v>3500</v>
+      </c>
+      <c r="E30" s="10">
+        <v>3500</v>
+      </c>
+      <c r="F30" s="10">
+        <v>3500</v>
+      </c>
+      <c r="G30" s="10">
+        <v>3500</v>
+      </c>
+      <c r="H30" s="10">
+        <v>3500</v>
+      </c>
+      <c r="I30" s="10">
+        <v>3500</v>
+      </c>
+      <c r="J30" s="10">
+        <v>3500</v>
+      </c>
+      <c r="K30" s="10">
+        <v>3500</v>
+      </c>
+      <c r="L30" s="10">
+        <v>3500</v>
+      </c>
+      <c r="M30" s="10">
+        <v>3500</v>
+      </c>
+      <c r="N30" s="10">
+        <v>3500</v>
+      </c>
+      <c r="O30" s="10">
+        <v>42000</v>
+      </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="B31" s="10">
+        <v>0</v>
+      </c>
+      <c r="C31" s="10">
+        <v>0</v>
+      </c>
+      <c r="D31" s="10">
+        <v>0</v>
+      </c>
+      <c r="E31" s="10">
+        <v>0</v>
+      </c>
+      <c r="F31" s="10">
+        <v>0</v>
+      </c>
+      <c r="G31" s="10">
+        <v>0</v>
+      </c>
+      <c r="H31" s="10">
+        <v>0</v>
+      </c>
+      <c r="I31" s="10">
+        <v>0</v>
+      </c>
+      <c r="J31" s="10">
+        <v>0</v>
+      </c>
+      <c r="K31" s="10">
+        <v>0</v>
+      </c>
+      <c r="L31" s="10">
+        <v>0</v>
+      </c>
+      <c r="M31" s="10">
+        <v>0</v>
+      </c>
+      <c r="N31" s="10">
+        <v>0</v>
+      </c>
+      <c r="O31" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
+        <v>20</v>
+      </c>
+      <c r="B32" s="10">
+        <v>0</v>
+      </c>
+      <c r="C32" s="10">
+        <v>0</v>
+      </c>
+      <c r="D32" s="10">
+        <v>0</v>
+      </c>
+      <c r="E32" s="10">
+        <v>0</v>
+      </c>
+      <c r="F32" s="10">
+        <v>0</v>
+      </c>
+      <c r="G32" s="10">
+        <v>0</v>
+      </c>
+      <c r="H32" s="10">
+        <v>0</v>
+      </c>
+      <c r="I32" s="10">
+        <v>0</v>
+      </c>
+      <c r="J32" s="10">
+        <v>0</v>
+      </c>
+      <c r="K32" s="10">
+        <v>0</v>
+      </c>
+      <c r="L32" s="10">
+        <v>0</v>
+      </c>
+      <c r="M32" s="10">
+        <v>0</v>
+      </c>
+      <c r="N32" s="10">
+        <v>0</v>
+      </c>
+      <c r="O32" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-    </row>
-    <row r="34" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="B33" s="10">
+        <v>0</v>
+      </c>
+      <c r="C33" s="10">
+        <v>4800</v>
+      </c>
+      <c r="D33" s="10">
+        <v>4800</v>
+      </c>
+      <c r="E33" s="10">
+        <v>4800</v>
+      </c>
+      <c r="F33" s="10">
+        <v>4800</v>
+      </c>
+      <c r="G33" s="10">
+        <v>4800</v>
+      </c>
+      <c r="H33" s="10">
+        <v>4800</v>
+      </c>
+      <c r="I33" s="10">
+        <v>4800</v>
+      </c>
+      <c r="J33" s="10">
+        <v>4800</v>
+      </c>
+      <c r="K33" s="10">
+        <v>4800</v>
+      </c>
+      <c r="L33" s="10">
+        <v>4800</v>
+      </c>
+      <c r="M33" s="10">
+        <v>4800</v>
+      </c>
+      <c r="N33" s="10">
+        <v>4800</v>
+      </c>
+      <c r="O33" s="10">
+        <v>57600</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="B34" s="10">
+        <v>0</v>
+      </c>
+      <c r="C34" s="10">
+        <v>10000</v>
+      </c>
+      <c r="D34" s="10">
+        <v>10000</v>
+      </c>
+      <c r="E34" s="10">
+        <v>10000</v>
+      </c>
+      <c r="F34" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G34" s="10">
+        <v>10000</v>
+      </c>
+      <c r="H34" s="10">
+        <v>10000</v>
+      </c>
+      <c r="I34" s="10">
+        <v>10000</v>
+      </c>
+      <c r="J34" s="10">
+        <v>10000</v>
+      </c>
+      <c r="K34" s="10">
+        <v>10000</v>
+      </c>
+      <c r="L34" s="10">
+        <v>10000</v>
+      </c>
+      <c r="M34" s="10">
+        <v>10000</v>
+      </c>
+      <c r="N34" s="10">
+        <v>10000</v>
+      </c>
+      <c r="O34" s="10">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
+        <v>45</v>
+      </c>
+      <c r="B35" s="10">
+        <v>0</v>
+      </c>
+      <c r="C35" s="10">
+        <v>2000</v>
+      </c>
+      <c r="D35" s="10">
+        <v>2000</v>
+      </c>
+      <c r="E35" s="10">
+        <v>2000</v>
+      </c>
+      <c r="F35" s="10">
+        <v>2000</v>
+      </c>
+      <c r="G35" s="10">
+        <v>2000</v>
+      </c>
+      <c r="H35" s="10">
+        <v>2000</v>
+      </c>
+      <c r="I35" s="10">
+        <v>2000</v>
+      </c>
+      <c r="J35" s="10">
+        <v>2000</v>
+      </c>
+      <c r="K35" s="10">
+        <v>2000</v>
+      </c>
+      <c r="L35" s="10">
+        <v>2000</v>
+      </c>
+      <c r="M35" s="10">
+        <v>2000</v>
+      </c>
+      <c r="N35" s="10">
+        <v>2000</v>
+      </c>
+      <c r="O35" s="10">
+        <v>24000</v>
+      </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
+        <v>46</v>
+      </c>
+      <c r="B36" s="10">
+        <v>0</v>
+      </c>
+      <c r="C36" s="10">
+        <v>0</v>
+      </c>
+      <c r="D36" s="10">
+        <v>0</v>
+      </c>
+      <c r="E36" s="10">
+        <v>0</v>
+      </c>
+      <c r="F36" s="10">
+        <v>0</v>
+      </c>
+      <c r="G36" s="10">
+        <v>0</v>
+      </c>
+      <c r="H36" s="10">
+        <v>0</v>
+      </c>
+      <c r="I36" s="10">
+        <v>0</v>
+      </c>
+      <c r="J36" s="10">
+        <v>0</v>
+      </c>
+      <c r="K36" s="10">
+        <v>0</v>
+      </c>
+      <c r="L36" s="10">
+        <v>0</v>
+      </c>
+      <c r="M36" s="10">
+        <v>0</v>
+      </c>
+      <c r="N36" s="10">
+        <v>0</v>
+      </c>
+      <c r="O36" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
+        <v>22</v>
+      </c>
+      <c r="B37" s="10">
+        <v>0</v>
+      </c>
+      <c r="C37" s="10">
+        <v>15000</v>
+      </c>
+      <c r="D37" s="10">
+        <v>15000</v>
+      </c>
+      <c r="E37" s="10">
+        <v>15000</v>
+      </c>
+      <c r="F37" s="10">
+        <v>15000</v>
+      </c>
+      <c r="G37" s="10">
+        <v>15000</v>
+      </c>
+      <c r="H37" s="10">
+        <v>15000</v>
+      </c>
+      <c r="I37" s="10">
+        <v>15000</v>
+      </c>
+      <c r="J37" s="10">
+        <v>15000</v>
+      </c>
+      <c r="K37" s="10">
+        <v>15000</v>
+      </c>
+      <c r="L37" s="10">
+        <v>15000</v>
+      </c>
+      <c r="M37" s="10">
+        <v>15000</v>
+      </c>
+      <c r="N37" s="10">
+        <v>15000</v>
+      </c>
+      <c r="O37" s="10">
+        <v>180000</v>
+      </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B38" s="10">
-        <f>SUM(B17:B37)</f>
         <v>0</v>
       </c>
       <c r="C38" s="10">
-        <f t="shared" ref="C38:O38" si="4">SUM(C17:C37)</f>
-        <v>0</v>
+        <v>182598</v>
       </c>
       <c r="D38" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>182598</v>
       </c>
       <c r="E38" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>182598</v>
       </c>
       <c r="F38" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>212598</v>
       </c>
       <c r="G38" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>182598</v>
       </c>
       <c r="H38" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>182598</v>
       </c>
       <c r="I38" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>182598</v>
       </c>
       <c r="J38" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>212598</v>
       </c>
       <c r="K38" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>182598</v>
       </c>
       <c r="L38" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>182598</v>
       </c>
       <c r="M38" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>182598</v>
       </c>
       <c r="N38" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>212598</v>
       </c>
       <c r="O38" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2281176</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
+        <v>24</v>
+      </c>
+      <c r="B39" s="10">
+        <v>0</v>
+      </c>
+      <c r="C39" s="10">
+        <v>0</v>
+      </c>
+      <c r="D39" s="10">
+        <v>0</v>
+      </c>
+      <c r="E39" s="10">
+        <v>0</v>
+      </c>
+      <c r="F39" s="10">
+        <v>0</v>
+      </c>
+      <c r="G39" s="10">
+        <v>0</v>
+      </c>
+      <c r="H39" s="10">
+        <v>0</v>
+      </c>
+      <c r="I39" s="10">
+        <v>0</v>
+      </c>
+      <c r="J39" s="10">
+        <v>0</v>
+      </c>
+      <c r="K39" s="10">
+        <v>0</v>
+      </c>
+      <c r="L39" s="10">
+        <v>0</v>
+      </c>
+      <c r="M39" s="10">
+        <v>0</v>
+      </c>
+      <c r="N39" s="10">
+        <v>0</v>
+      </c>
+      <c r="O39" s="10">
+        <v>438573.47999999992</v>
+      </c>
     </row>
     <row r="40" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
+        <v>25</v>
+      </c>
+      <c r="B40" s="10">
+        <v>0</v>
+      </c>
+      <c r="C40" s="10">
+        <v>0</v>
+      </c>
+      <c r="D40" s="10">
+        <v>0</v>
+      </c>
+      <c r="E40" s="10">
+        <v>0</v>
+      </c>
+      <c r="F40" s="10">
+        <v>0</v>
+      </c>
+      <c r="G40" s="10">
+        <v>0</v>
+      </c>
+      <c r="H40" s="10">
+        <v>0</v>
+      </c>
+      <c r="I40" s="10">
+        <v>0</v>
+      </c>
+      <c r="J40" s="10">
+        <v>0</v>
+      </c>
+      <c r="K40" s="10">
+        <v>0</v>
+      </c>
+      <c r="L40" s="10">
+        <v>0</v>
+      </c>
+      <c r="M40" s="10">
+        <v>0</v>
+      </c>
+      <c r="N40" s="10">
+        <v>0</v>
+      </c>
+      <c r="O40" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
+        <v>26</v>
+      </c>
+      <c r="B41" s="10">
+        <v>0</v>
+      </c>
+      <c r="C41" s="10">
+        <v>0</v>
+      </c>
+      <c r="D41" s="10">
+        <v>0</v>
+      </c>
+      <c r="E41" s="10">
+        <v>0</v>
+      </c>
+      <c r="F41" s="10">
+        <v>0</v>
+      </c>
+      <c r="G41" s="10">
+        <v>0</v>
+      </c>
+      <c r="H41" s="10">
+        <v>0</v>
+      </c>
+      <c r="I41" s="10">
+        <v>0</v>
+      </c>
+      <c r="J41" s="10">
+        <v>0</v>
+      </c>
+      <c r="K41" s="10">
+        <v>0</v>
+      </c>
+      <c r="L41" s="10">
+        <v>0</v>
+      </c>
+      <c r="M41" s="10">
+        <v>0</v>
+      </c>
+      <c r="N41" s="10">
+        <v>0</v>
+      </c>
+      <c r="O41" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="B42" s="10">
+        <v>0</v>
+      </c>
+      <c r="C42" s="10">
+        <v>0</v>
+      </c>
+      <c r="D42" s="10">
+        <v>0</v>
+      </c>
+      <c r="E42" s="10">
+        <v>0</v>
+      </c>
+      <c r="F42" s="10">
+        <v>0</v>
+      </c>
+      <c r="G42" s="10">
+        <v>0</v>
+      </c>
+      <c r="H42" s="10">
+        <v>0</v>
+      </c>
+      <c r="I42" s="10">
+        <v>0</v>
+      </c>
+      <c r="J42" s="10">
+        <v>0</v>
+      </c>
+      <c r="K42" s="10">
+        <v>0</v>
+      </c>
+      <c r="L42" s="10">
+        <v>0</v>
+      </c>
+      <c r="M42" s="10">
+        <v>0</v>
+      </c>
+      <c r="N42" s="10">
+        <v>0</v>
+      </c>
+      <c r="O42" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
+        <v>39</v>
+      </c>
+      <c r="B43" s="10">
+        <v>0</v>
+      </c>
+      <c r="C43" s="10">
+        <v>0</v>
+      </c>
+      <c r="D43" s="10">
+        <v>0</v>
+      </c>
+      <c r="E43" s="10">
+        <v>0</v>
+      </c>
+      <c r="F43" s="10">
+        <v>0</v>
+      </c>
+      <c r="G43" s="10">
+        <v>0</v>
+      </c>
+      <c r="H43" s="10">
+        <v>0</v>
+      </c>
+      <c r="I43" s="10">
+        <v>0</v>
+      </c>
+      <c r="J43" s="10">
+        <v>0</v>
+      </c>
+      <c r="K43" s="10">
+        <v>0</v>
+      </c>
+      <c r="L43" s="10">
+        <v>0</v>
+      </c>
+      <c r="M43" s="10">
+        <v>0</v>
+      </c>
+      <c r="N43" s="10">
+        <v>0</v>
+      </c>
+      <c r="O43" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B44" s="10">
         <f>SUM(B38:B43)</f>
@@ -5696,55 +6818,55 @@
       </c>
       <c r="C44" s="10">
         <f t="shared" ref="C44:O44" si="5">SUM(C38:C43)</f>
-        <v>0</v>
+        <v>182598</v>
       </c>
       <c r="D44" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>182598</v>
       </c>
       <c r="E44" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>182598</v>
       </c>
       <c r="F44" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>212598</v>
       </c>
       <c r="G44" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>182598</v>
       </c>
       <c r="H44" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>182598</v>
       </c>
       <c r="I44" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>182598</v>
       </c>
       <c r="J44" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>212598</v>
       </c>
       <c r="K44" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>182598</v>
       </c>
       <c r="L44" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>182598</v>
       </c>
       <c r="M44" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>182598</v>
       </c>
       <c r="N44" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>212598</v>
       </c>
       <c r="O44" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2719749.48</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -5753,59 +6875,59 @@
       </c>
       <c r="B45" s="14">
         <f>(B14-B44)</f>
-        <v>0</v>
+        <v>34526294</v>
       </c>
       <c r="C45" s="14">
         <f t="shared" ref="C45:O45" si="6">(C14-C44)</f>
-        <v>0</v>
+        <v>35566976</v>
       </c>
       <c r="D45" s="14">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>37258958</v>
       </c>
       <c r="E45" s="14">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>39276900</v>
       </c>
       <c r="F45" s="14">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>41994882</v>
       </c>
       <c r="G45" s="14">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>43648754</v>
       </c>
       <c r="H45" s="14">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>46531686</v>
       </c>
       <c r="I45" s="14">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>50764618</v>
       </c>
       <c r="J45" s="14">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>56725250</v>
       </c>
       <c r="K45" s="14">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>59493432</v>
       </c>
       <c r="L45" s="14">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>64214614</v>
       </c>
       <c r="M45" s="14">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>68935796</v>
       </c>
       <c r="N45" s="14">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>75577738</v>
       </c>
       <c r="O45" s="14">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>40612870.520000003</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
@@ -5827,7 +6949,7 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B47" s="22"/>
       <c r="C47" s="24"/>
@@ -5846,7 +6968,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -5865,7 +6987,7 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -5884,7 +7006,7 @@
     </row>
     <row r="50" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -5903,7 +7025,7 @@
     </row>
     <row r="51" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -5922,7 +7044,7 @@
     </row>
     <row r="52" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -5941,7 +7063,7 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -5960,8 +7082,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5969,24 +7090,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.33203125" style="1" customWidth="1"/>
-    <col min="2" max="15" width="9.83203125" customWidth="1"/>
+    <col min="2" max="8" width="9.83203125" customWidth="1"/>
+    <col min="9" max="14" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -5994,10 +7117,10 @@
     </row>
     <row r="4" spans="1:16" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="31">
-        <v>36678</v>
+        <v>43252</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -6010,55 +7133,55 @@
     <row r="6" spans="1:16" s="37" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="35">
         <f>B4</f>
-        <v>36678</v>
+        <v>43252</v>
       </c>
       <c r="D6" s="35">
         <f>DATE(YEAR(C6),MONTH(C6)+1,1)</f>
-        <v>36708</v>
+        <v>43282</v>
       </c>
       <c r="E6" s="35">
         <f t="shared" ref="E6:N6" si="0">DATE(YEAR(D6),MONTH(D6)+1,1)</f>
-        <v>36739</v>
+        <v>43313</v>
       </c>
       <c r="F6" s="35">
         <f t="shared" si="0"/>
-        <v>36770</v>
+        <v>43344</v>
       </c>
       <c r="G6" s="35">
         <f t="shared" si="0"/>
-        <v>36800</v>
+        <v>43374</v>
       </c>
       <c r="H6" s="35">
         <f t="shared" si="0"/>
-        <v>36831</v>
+        <v>43405</v>
       </c>
       <c r="I6" s="35">
         <f t="shared" si="0"/>
-        <v>36861</v>
+        <v>43435</v>
       </c>
       <c r="J6" s="35">
         <f t="shared" si="0"/>
-        <v>36892</v>
+        <v>43466</v>
       </c>
       <c r="K6" s="35">
         <f t="shared" si="0"/>
-        <v>36923</v>
+        <v>43497</v>
       </c>
       <c r="L6" s="35">
         <f t="shared" si="0"/>
-        <v>36951</v>
+        <v>43525</v>
       </c>
       <c r="M6" s="35">
         <f t="shared" si="0"/>
-        <v>36982</v>
+        <v>43556</v>
       </c>
       <c r="N6" s="35">
         <f t="shared" si="0"/>
-        <v>37012</v>
+        <v>43586</v>
       </c>
       <c r="O6" s="36" t="s">
         <v>0</v>
@@ -6066,56 +7189,58 @@
     </row>
     <row r="7" spans="1:16" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="33"/>
+        <v>2</v>
+      </c>
+      <c r="B7" s="33">
+        <v>75577738</v>
+      </c>
       <c r="C7" s="33">
         <f>B45</f>
-        <v>0</v>
+        <v>75577738</v>
       </c>
       <c r="D7" s="33">
         <f t="shared" ref="D7:N7" si="1">C45</f>
-        <v>0</v>
+        <v>77431460</v>
       </c>
       <c r="E7" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>80369442</v>
       </c>
       <c r="F7" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>83849864</v>
       </c>
       <c r="G7" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>88382686</v>
       </c>
       <c r="H7" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>90748123</v>
       </c>
       <c r="I7" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>94817170</v>
       </c>
       <c r="J7" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100761217</v>
       </c>
       <c r="K7" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>109116514</v>
       </c>
       <c r="L7" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>112912261</v>
       </c>
       <c r="M7" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>119344558</v>
       </c>
       <c r="N7" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>125776855</v>
       </c>
       <c r="O7" s="33"/>
     </row>
@@ -6139,7 +7264,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -6158,181 +7283,268 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="12">
+        <v>0</v>
+      </c>
+      <c r="C10" s="12">
+        <v>2036320</v>
+      </c>
+      <c r="D10" s="12">
+        <v>3120580</v>
+      </c>
+      <c r="E10" s="12">
+        <v>3663020</v>
+      </c>
+      <c r="F10" s="12">
+        <v>4745420</v>
+      </c>
+      <c r="G10" s="12">
+        <v>2548035</v>
+      </c>
+      <c r="H10" s="12">
+        <v>4251645</v>
+      </c>
+      <c r="I10" s="12">
+        <v>6126645</v>
+      </c>
+      <c r="J10" s="12">
+        <v>8567895</v>
+      </c>
+      <c r="K10" s="12">
+        <v>3978345</v>
+      </c>
+      <c r="L10" s="12">
+        <v>6614895</v>
+      </c>
+      <c r="M10" s="12">
+        <v>6614895</v>
+      </c>
+      <c r="N10" s="12">
+        <v>9249204.9999999981</v>
+      </c>
+      <c r="O10" s="10">
+        <f>SUM(C10:N10)</f>
+        <v>61516900</v>
+      </c>
     </row>
     <row r="11" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
+        <v>5</v>
+      </c>
+      <c r="B11" s="10">
+        <v>0</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0</v>
+      </c>
+      <c r="I11" s="10">
+        <v>0</v>
+      </c>
+      <c r="J11" s="10">
+        <v>0</v>
+      </c>
+      <c r="K11" s="10">
+        <v>0</v>
+      </c>
+      <c r="L11" s="10">
+        <v>0</v>
+      </c>
+      <c r="M11" s="10">
+        <v>0</v>
+      </c>
+      <c r="N11" s="10">
+        <v>0</v>
+      </c>
+      <c r="O11" s="10">
+        <f>SUM(C11:N11)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
+        <v>6</v>
+      </c>
+      <c r="B12" s="10">
+        <v>0</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0</v>
+      </c>
+      <c r="H12" s="10">
+        <v>0</v>
+      </c>
+      <c r="I12" s="10">
+        <v>0</v>
+      </c>
+      <c r="J12" s="10">
+        <v>0</v>
+      </c>
+      <c r="K12" s="10">
+        <v>0</v>
+      </c>
+      <c r="L12" s="10">
+        <v>0</v>
+      </c>
+      <c r="M12" s="10">
+        <v>0</v>
+      </c>
+      <c r="N12" s="10">
+        <v>0</v>
+      </c>
+      <c r="O12" s="10">
+        <f>SUM(C12:N12)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="10">
         <f>SUM(B10:B12)</f>
         <v>0</v>
       </c>
       <c r="C13" s="10">
-        <f t="shared" ref="C13:O13" si="2">SUM(C10:C12)</f>
-        <v>0</v>
+        <f t="shared" ref="C13:N13" si="2">SUM(C10:C12)</f>
+        <v>2036320</v>
       </c>
       <c r="D13" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3120580</v>
       </c>
       <c r="E13" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3663020</v>
       </c>
       <c r="F13" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4745420</v>
       </c>
       <c r="G13" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2548035</v>
       </c>
       <c r="H13" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4251645</v>
       </c>
       <c r="I13" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6126645</v>
       </c>
       <c r="J13" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8567895</v>
       </c>
       <c r="K13" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3978345</v>
       </c>
       <c r="L13" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6614895</v>
       </c>
       <c r="M13" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6614895</v>
       </c>
       <c r="N13" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9249204.9999999981</v>
       </c>
       <c r="O13" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>SUM(C13:N13)</f>
+        <v>61516900</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="14">
         <f>(B7+B13)</f>
-        <v>0</v>
+        <v>75577738</v>
       </c>
       <c r="C14" s="14">
         <f t="shared" ref="C14:O14" si="3">(C7+C13)</f>
-        <v>0</v>
+        <v>77614058</v>
       </c>
       <c r="D14" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>80552040</v>
       </c>
       <c r="E14" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>84032462</v>
       </c>
       <c r="F14" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>88595284</v>
       </c>
       <c r="G14" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>90930721</v>
       </c>
       <c r="H14" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>94999768</v>
       </c>
       <c r="I14" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>100943815</v>
       </c>
       <c r="J14" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>109329112</v>
       </c>
       <c r="K14" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>113094859</v>
       </c>
       <c r="L14" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>119527156</v>
       </c>
       <c r="M14" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>125959453</v>
       </c>
       <c r="N14" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>135026060</v>
       </c>
       <c r="O14" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>61516900</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -6354,7 +7566,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -6373,618 +7585,1332 @@
     </row>
     <row r="17" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="B17" s="12">
+        <v>0</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0</v>
+      </c>
+      <c r="F17" s="12">
+        <v>0</v>
+      </c>
+      <c r="G17" s="12">
+        <v>0</v>
+      </c>
+      <c r="H17" s="12">
+        <v>0</v>
+      </c>
+      <c r="I17" s="12">
+        <v>0</v>
+      </c>
+      <c r="J17" s="12">
+        <v>0</v>
+      </c>
+      <c r="K17" s="12">
+        <v>0</v>
+      </c>
+      <c r="L17" s="12">
+        <v>0</v>
+      </c>
+      <c r="M17" s="12">
+        <v>0</v>
+      </c>
+      <c r="N17" s="12">
+        <v>0</v>
+      </c>
+      <c r="O17" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
+        <v>42</v>
+      </c>
+      <c r="B18" s="10">
+        <v>0</v>
+      </c>
+      <c r="C18" s="10">
+        <v>5000</v>
+      </c>
+      <c r="D18" s="10">
+        <v>5000</v>
+      </c>
+      <c r="E18" s="10">
+        <v>5000</v>
+      </c>
+      <c r="F18" s="10">
+        <v>5000</v>
+      </c>
+      <c r="G18" s="10">
+        <v>5000</v>
+      </c>
+      <c r="H18" s="10">
+        <v>5000</v>
+      </c>
+      <c r="I18" s="10">
+        <v>5000</v>
+      </c>
+      <c r="J18" s="10">
+        <v>5000</v>
+      </c>
+      <c r="K18" s="10">
+        <v>5000</v>
+      </c>
+      <c r="L18" s="10">
+        <v>5000</v>
+      </c>
+      <c r="M18" s="10">
+        <v>5000</v>
+      </c>
+      <c r="N18" s="10">
+        <v>5000</v>
+      </c>
+      <c r="O18" s="10">
+        <v>120000</v>
+      </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
+        <v>43</v>
+      </c>
+      <c r="B19" s="10">
+        <v>0</v>
+      </c>
+      <c r="C19" s="10">
+        <v>2000</v>
+      </c>
+      <c r="D19" s="10">
+        <v>2000</v>
+      </c>
+      <c r="E19" s="10">
+        <v>2000</v>
+      </c>
+      <c r="F19" s="10">
+        <v>2000</v>
+      </c>
+      <c r="G19" s="10">
+        <v>2000</v>
+      </c>
+      <c r="H19" s="10">
+        <v>2000</v>
+      </c>
+      <c r="I19" s="10">
+        <v>2000</v>
+      </c>
+      <c r="J19" s="10">
+        <v>2000</v>
+      </c>
+      <c r="K19" s="10">
+        <v>2000</v>
+      </c>
+      <c r="L19" s="10">
+        <v>2000</v>
+      </c>
+      <c r="M19" s="10">
+        <v>2000</v>
+      </c>
+      <c r="N19" s="10">
+        <v>2000</v>
+      </c>
+      <c r="O19" s="10">
+        <v>60000</v>
+      </c>
     </row>
     <row r="20" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
+        <v>37</v>
+      </c>
+      <c r="B20" s="10">
+        <v>0</v>
+      </c>
+      <c r="C20" s="10">
+        <v>120000</v>
+      </c>
+      <c r="D20" s="10">
+        <v>120000</v>
+      </c>
+      <c r="E20" s="10">
+        <v>120000</v>
+      </c>
+      <c r="F20" s="10">
+        <v>120000</v>
+      </c>
+      <c r="G20" s="10">
+        <v>120000</v>
+      </c>
+      <c r="H20" s="10">
+        <v>120000</v>
+      </c>
+      <c r="I20" s="10">
+        <v>120000</v>
+      </c>
+      <c r="J20" s="10">
+        <v>120000</v>
+      </c>
+      <c r="K20" s="10">
+        <v>120000</v>
+      </c>
+      <c r="L20" s="10">
+        <v>120000</v>
+      </c>
+      <c r="M20" s="10">
+        <v>120000</v>
+      </c>
+      <c r="N20" s="10">
+        <v>120000</v>
+      </c>
+      <c r="O20" s="10">
+        <v>1440000</v>
+      </c>
     </row>
     <row r="21" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
+        <v>38</v>
+      </c>
+      <c r="B21" s="10">
+        <v>0</v>
+      </c>
+      <c r="C21" s="10">
+        <v>0</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0</v>
+      </c>
+      <c r="F21" s="10">
+        <v>0</v>
+      </c>
+      <c r="G21" s="10">
+        <v>0</v>
+      </c>
+      <c r="H21" s="10">
+        <v>0</v>
+      </c>
+      <c r="I21" s="10">
+        <v>0</v>
+      </c>
+      <c r="J21" s="10">
+        <v>0</v>
+      </c>
+      <c r="K21" s="10">
+        <v>0</v>
+      </c>
+      <c r="L21" s="10">
+        <v>0</v>
+      </c>
+      <c r="M21" s="10">
+        <v>0</v>
+      </c>
+      <c r="N21" s="10">
+        <v>0</v>
+      </c>
+      <c r="O21" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
+        <v>11</v>
+      </c>
+      <c r="B22" s="10">
+        <v>0</v>
+      </c>
+      <c r="C22" s="10">
+        <v>0</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0</v>
+      </c>
+      <c r="E22" s="10">
+        <v>0</v>
+      </c>
+      <c r="F22" s="10">
+        <v>0</v>
+      </c>
+      <c r="G22" s="10">
+        <v>0</v>
+      </c>
+      <c r="H22" s="10">
+        <v>0</v>
+      </c>
+      <c r="I22" s="10">
+        <v>0</v>
+      </c>
+      <c r="J22" s="10">
+        <v>0</v>
+      </c>
+      <c r="K22" s="10">
+        <v>0</v>
+      </c>
+      <c r="L22" s="10">
+        <v>0</v>
+      </c>
+      <c r="M22" s="10">
+        <v>0</v>
+      </c>
+      <c r="N22" s="10">
+        <v>0</v>
+      </c>
+      <c r="O22" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="B23" s="10">
+        <v>0</v>
+      </c>
+      <c r="C23" s="10">
+        <v>2000</v>
+      </c>
+      <c r="D23" s="10">
+        <v>2000</v>
+      </c>
+      <c r="E23" s="10">
+        <v>2000</v>
+      </c>
+      <c r="F23" s="10">
+        <v>2000</v>
+      </c>
+      <c r="G23" s="10">
+        <v>2000</v>
+      </c>
+      <c r="H23" s="10">
+        <v>2000</v>
+      </c>
+      <c r="I23" s="10">
+        <v>2000</v>
+      </c>
+      <c r="J23" s="10">
+        <v>2000</v>
+      </c>
+      <c r="K23" s="10">
+        <v>2000</v>
+      </c>
+      <c r="L23" s="10">
+        <v>2000</v>
+      </c>
+      <c r="M23" s="10">
+        <v>2000</v>
+      </c>
+      <c r="N23" s="10">
+        <v>2000</v>
+      </c>
+      <c r="O23" s="10">
+        <v>24000</v>
+      </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
+        <v>13</v>
+      </c>
+      <c r="B24" s="10">
+        <v>0</v>
+      </c>
+      <c r="C24" s="10">
+        <v>0</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0</v>
+      </c>
+      <c r="E24" s="10">
+        <v>0</v>
+      </c>
+      <c r="F24" s="10">
+        <v>5000</v>
+      </c>
+      <c r="G24" s="10">
+        <v>0</v>
+      </c>
+      <c r="H24" s="10">
+        <v>0</v>
+      </c>
+      <c r="I24" s="10">
+        <v>0</v>
+      </c>
+      <c r="J24" s="10">
+        <v>5000</v>
+      </c>
+      <c r="K24" s="10">
+        <v>0</v>
+      </c>
+      <c r="L24" s="10">
+        <v>0</v>
+      </c>
+      <c r="M24" s="10">
+        <v>0</v>
+      </c>
+      <c r="N24" s="10">
+        <v>5000</v>
+      </c>
+      <c r="O24" s="10">
+        <v>15000</v>
+      </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="B25" s="10">
+        <v>0</v>
+      </c>
+      <c r="C25" s="10">
+        <v>0</v>
+      </c>
+      <c r="D25" s="10">
+        <v>0</v>
+      </c>
+      <c r="E25" s="10">
+        <v>0</v>
+      </c>
+      <c r="F25" s="10">
+        <v>0</v>
+      </c>
+      <c r="G25" s="10">
+        <v>0</v>
+      </c>
+      <c r="H25" s="10">
+        <v>0</v>
+      </c>
+      <c r="I25" s="10">
+        <v>0</v>
+      </c>
+      <c r="J25" s="10">
+        <v>0</v>
+      </c>
+      <c r="K25" s="10">
+        <v>0</v>
+      </c>
+      <c r="L25" s="10">
+        <v>0</v>
+      </c>
+      <c r="M25" s="10">
+        <v>0</v>
+      </c>
+      <c r="N25" s="10">
+        <v>0</v>
+      </c>
+      <c r="O25" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
+        <v>15</v>
+      </c>
+      <c r="B26" s="10">
+        <v>0</v>
+      </c>
+      <c r="C26" s="10">
+        <v>1000</v>
+      </c>
+      <c r="D26" s="10">
+        <v>1000</v>
+      </c>
+      <c r="E26" s="10">
+        <v>1000</v>
+      </c>
+      <c r="F26" s="10">
+        <v>1000</v>
+      </c>
+      <c r="G26" s="10">
+        <v>1000</v>
+      </c>
+      <c r="H26" s="10">
+        <v>1000</v>
+      </c>
+      <c r="I26" s="10">
+        <v>1000</v>
+      </c>
+      <c r="J26" s="10">
+        <v>1000</v>
+      </c>
+      <c r="K26" s="10">
+        <v>1000</v>
+      </c>
+      <c r="L26" s="10">
+        <v>1000</v>
+      </c>
+      <c r="M26" s="10">
+        <v>1000</v>
+      </c>
+      <c r="N26" s="10">
+        <v>1000</v>
+      </c>
+      <c r="O26" s="10">
+        <v>12000</v>
+      </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
+        <v>16</v>
+      </c>
+      <c r="B27" s="10">
+        <v>0</v>
+      </c>
+      <c r="C27" s="10">
+        <v>0</v>
+      </c>
+      <c r="D27" s="10">
+        <v>0</v>
+      </c>
+      <c r="E27" s="10">
+        <v>0</v>
+      </c>
+      <c r="F27" s="10">
+        <v>25000</v>
+      </c>
+      <c r="G27" s="10">
+        <v>0</v>
+      </c>
+      <c r="H27" s="10">
+        <v>0</v>
+      </c>
+      <c r="I27" s="10">
+        <v>0</v>
+      </c>
+      <c r="J27" s="10">
+        <v>25000</v>
+      </c>
+      <c r="K27" s="10">
+        <v>0</v>
+      </c>
+      <c r="L27" s="10">
+        <v>0</v>
+      </c>
+      <c r="M27" s="10">
+        <v>0</v>
+      </c>
+      <c r="N27" s="10">
+        <v>25000</v>
+      </c>
+      <c r="O27" s="10">
+        <v>75000</v>
+      </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="B28" s="10">
+        <v>0</v>
+      </c>
+      <c r="C28" s="10">
+        <v>7999</v>
+      </c>
+      <c r="D28" s="10">
+        <v>7999</v>
+      </c>
+      <c r="E28" s="10">
+        <v>7999</v>
+      </c>
+      <c r="F28" s="10">
+        <v>7999</v>
+      </c>
+      <c r="G28" s="10">
+        <v>7999</v>
+      </c>
+      <c r="H28" s="10">
+        <v>7999</v>
+      </c>
+      <c r="I28" s="10">
+        <v>7999</v>
+      </c>
+      <c r="J28" s="10">
+        <v>7999</v>
+      </c>
+      <c r="K28" s="10">
+        <v>7999</v>
+      </c>
+      <c r="L28" s="10">
+        <v>7999</v>
+      </c>
+      <c r="M28" s="10">
+        <v>7999</v>
+      </c>
+      <c r="N28" s="10">
+        <v>7999</v>
+      </c>
+      <c r="O28" s="10">
+        <v>95988</v>
+      </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
+        <v>41</v>
+      </c>
+      <c r="B29" s="10">
+        <v>0</v>
+      </c>
+      <c r="C29" s="10">
+        <v>1299</v>
+      </c>
+      <c r="D29" s="10">
+        <v>1299</v>
+      </c>
+      <c r="E29" s="10">
+        <v>1299</v>
+      </c>
+      <c r="F29" s="10">
+        <v>1299</v>
+      </c>
+      <c r="G29" s="10">
+        <v>1299</v>
+      </c>
+      <c r="H29" s="10">
+        <v>1299</v>
+      </c>
+      <c r="I29" s="10">
+        <v>1299</v>
+      </c>
+      <c r="J29" s="10">
+        <v>1299</v>
+      </c>
+      <c r="K29" s="10">
+        <v>1299</v>
+      </c>
+      <c r="L29" s="10">
+        <v>1299</v>
+      </c>
+      <c r="M29" s="10">
+        <v>1299</v>
+      </c>
+      <c r="N29" s="10">
+        <v>1299</v>
+      </c>
+      <c r="O29" s="10">
+        <v>15588</v>
+      </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
+        <v>18</v>
+      </c>
+      <c r="B30" s="10">
+        <v>0</v>
+      </c>
+      <c r="C30" s="10">
+        <v>3500</v>
+      </c>
+      <c r="D30" s="10">
+        <v>3500</v>
+      </c>
+      <c r="E30" s="10">
+        <v>3500</v>
+      </c>
+      <c r="F30" s="10">
+        <v>3500</v>
+      </c>
+      <c r="G30" s="10">
+        <v>3500</v>
+      </c>
+      <c r="H30" s="10">
+        <v>3500</v>
+      </c>
+      <c r="I30" s="10">
+        <v>3500</v>
+      </c>
+      <c r="J30" s="10">
+        <v>3500</v>
+      </c>
+      <c r="K30" s="10">
+        <v>3500</v>
+      </c>
+      <c r="L30" s="10">
+        <v>3500</v>
+      </c>
+      <c r="M30" s="10">
+        <v>3500</v>
+      </c>
+      <c r="N30" s="10">
+        <v>3500</v>
+      </c>
+      <c r="O30" s="10">
+        <v>42000</v>
+      </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="B31" s="10">
+        <v>0</v>
+      </c>
+      <c r="C31" s="10">
+        <v>0</v>
+      </c>
+      <c r="D31" s="10">
+        <v>0</v>
+      </c>
+      <c r="E31" s="10">
+        <v>0</v>
+      </c>
+      <c r="F31" s="10">
+        <v>0</v>
+      </c>
+      <c r="G31" s="10">
+        <v>0</v>
+      </c>
+      <c r="H31" s="10">
+        <v>0</v>
+      </c>
+      <c r="I31" s="10">
+        <v>0</v>
+      </c>
+      <c r="J31" s="10">
+        <v>0</v>
+      </c>
+      <c r="K31" s="10">
+        <v>0</v>
+      </c>
+      <c r="L31" s="10">
+        <v>0</v>
+      </c>
+      <c r="M31" s="10">
+        <v>0</v>
+      </c>
+      <c r="N31" s="10">
+        <v>0</v>
+      </c>
+      <c r="O31" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
+        <v>20</v>
+      </c>
+      <c r="B32" s="10">
+        <v>0</v>
+      </c>
+      <c r="C32" s="10">
+        <v>0</v>
+      </c>
+      <c r="D32" s="10">
+        <v>0</v>
+      </c>
+      <c r="E32" s="10">
+        <v>0</v>
+      </c>
+      <c r="F32" s="10">
+        <v>0</v>
+      </c>
+      <c r="G32" s="10">
+        <v>0</v>
+      </c>
+      <c r="H32" s="10">
+        <v>0</v>
+      </c>
+      <c r="I32" s="10">
+        <v>0</v>
+      </c>
+      <c r="J32" s="10">
+        <v>0</v>
+      </c>
+      <c r="K32" s="10">
+        <v>0</v>
+      </c>
+      <c r="L32" s="10">
+        <v>0</v>
+      </c>
+      <c r="M32" s="10">
+        <v>0</v>
+      </c>
+      <c r="N32" s="10">
+        <v>0</v>
+      </c>
+      <c r="O32" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-    </row>
-    <row r="34" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="B33" s="10">
+        <v>0</v>
+      </c>
+      <c r="C33" s="10">
+        <v>4800</v>
+      </c>
+      <c r="D33" s="10">
+        <v>4800</v>
+      </c>
+      <c r="E33" s="10">
+        <v>4800</v>
+      </c>
+      <c r="F33" s="10">
+        <v>4800</v>
+      </c>
+      <c r="G33" s="10">
+        <v>4800</v>
+      </c>
+      <c r="H33" s="10">
+        <v>4800</v>
+      </c>
+      <c r="I33" s="10">
+        <v>4800</v>
+      </c>
+      <c r="J33" s="10">
+        <v>4800</v>
+      </c>
+      <c r="K33" s="10">
+        <v>4800</v>
+      </c>
+      <c r="L33" s="10">
+        <v>4800</v>
+      </c>
+      <c r="M33" s="10">
+        <v>4800</v>
+      </c>
+      <c r="N33" s="10">
+        <v>4800</v>
+      </c>
+      <c r="O33" s="10">
+        <v>57600</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="B34" s="10">
+        <v>0</v>
+      </c>
+      <c r="C34" s="10">
+        <v>10000</v>
+      </c>
+      <c r="D34" s="10">
+        <v>10000</v>
+      </c>
+      <c r="E34" s="10">
+        <v>10000</v>
+      </c>
+      <c r="F34" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G34" s="10">
+        <v>10000</v>
+      </c>
+      <c r="H34" s="10">
+        <v>10000</v>
+      </c>
+      <c r="I34" s="10">
+        <v>10000</v>
+      </c>
+      <c r="J34" s="10">
+        <v>10000</v>
+      </c>
+      <c r="K34" s="10">
+        <v>10000</v>
+      </c>
+      <c r="L34" s="10">
+        <v>10000</v>
+      </c>
+      <c r="M34" s="10">
+        <v>10000</v>
+      </c>
+      <c r="N34" s="10">
+        <v>10000</v>
+      </c>
+      <c r="O34" s="10">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
+        <v>45</v>
+      </c>
+      <c r="B35" s="10">
+        <v>0</v>
+      </c>
+      <c r="C35" s="10">
+        <v>2000</v>
+      </c>
+      <c r="D35" s="10">
+        <v>2000</v>
+      </c>
+      <c r="E35" s="10">
+        <v>2000</v>
+      </c>
+      <c r="F35" s="10">
+        <v>2000</v>
+      </c>
+      <c r="G35" s="10">
+        <v>2000</v>
+      </c>
+      <c r="H35" s="10">
+        <v>2000</v>
+      </c>
+      <c r="I35" s="10">
+        <v>2000</v>
+      </c>
+      <c r="J35" s="10">
+        <v>2000</v>
+      </c>
+      <c r="K35" s="10">
+        <v>2000</v>
+      </c>
+      <c r="L35" s="10">
+        <v>2000</v>
+      </c>
+      <c r="M35" s="10">
+        <v>2000</v>
+      </c>
+      <c r="N35" s="10">
+        <v>2000</v>
+      </c>
+      <c r="O35" s="10">
+        <v>24000</v>
+      </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
+        <v>46</v>
+      </c>
+      <c r="B36" s="10">
+        <v>0</v>
+      </c>
+      <c r="C36" s="10">
+        <v>0</v>
+      </c>
+      <c r="D36" s="10">
+        <v>0</v>
+      </c>
+      <c r="E36" s="10">
+        <v>0</v>
+      </c>
+      <c r="F36" s="10">
+        <v>0</v>
+      </c>
+      <c r="G36" s="10">
+        <v>0</v>
+      </c>
+      <c r="H36" s="10">
+        <v>0</v>
+      </c>
+      <c r="I36" s="10">
+        <v>0</v>
+      </c>
+      <c r="J36" s="10">
+        <v>0</v>
+      </c>
+      <c r="K36" s="10">
+        <v>0</v>
+      </c>
+      <c r="L36" s="10">
+        <v>0</v>
+      </c>
+      <c r="M36" s="10">
+        <v>0</v>
+      </c>
+      <c r="N36" s="10">
+        <v>0</v>
+      </c>
+      <c r="O36" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
+        <v>22</v>
+      </c>
+      <c r="B37" s="10">
+        <v>0</v>
+      </c>
+      <c r="C37" s="10">
+        <v>15000</v>
+      </c>
+      <c r="D37" s="10">
+        <v>15000</v>
+      </c>
+      <c r="E37" s="10">
+        <v>15000</v>
+      </c>
+      <c r="F37" s="10">
+        <v>15000</v>
+      </c>
+      <c r="G37" s="10">
+        <v>15000</v>
+      </c>
+      <c r="H37" s="10">
+        <v>15000</v>
+      </c>
+      <c r="I37" s="10">
+        <v>15000</v>
+      </c>
+      <c r="J37" s="10">
+        <v>15000</v>
+      </c>
+      <c r="K37" s="10">
+        <v>15000</v>
+      </c>
+      <c r="L37" s="10">
+        <v>15000</v>
+      </c>
+      <c r="M37" s="10">
+        <v>15000</v>
+      </c>
+      <c r="N37" s="10">
+        <v>15000</v>
+      </c>
+      <c r="O37" s="10">
+        <v>180000</v>
+      </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B38" s="10">
-        <f>SUM(B17:B37)</f>
         <v>0</v>
       </c>
       <c r="C38" s="10">
-        <f t="shared" ref="C38:O38" si="4">SUM(C17:C37)</f>
-        <v>0</v>
+        <v>182598</v>
       </c>
       <c r="D38" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>182598</v>
       </c>
       <c r="E38" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>182598</v>
       </c>
       <c r="F38" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>212598</v>
       </c>
       <c r="G38" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>182598</v>
       </c>
       <c r="H38" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>182598</v>
       </c>
       <c r="I38" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>182598</v>
       </c>
       <c r="J38" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>212598</v>
       </c>
       <c r="K38" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>182598</v>
       </c>
       <c r="L38" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>182598</v>
       </c>
       <c r="M38" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>182598</v>
       </c>
       <c r="N38" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>212598</v>
       </c>
       <c r="O38" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2281176</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
+        <v>24</v>
+      </c>
+      <c r="B39" s="10">
+        <v>0</v>
+      </c>
+      <c r="C39" s="10">
+        <v>0</v>
+      </c>
+      <c r="D39" s="10">
+        <v>0</v>
+      </c>
+      <c r="E39" s="10">
+        <v>0</v>
+      </c>
+      <c r="F39" s="10">
+        <v>0</v>
+      </c>
+      <c r="G39" s="10">
+        <v>0</v>
+      </c>
+      <c r="H39" s="10">
+        <v>0</v>
+      </c>
+      <c r="I39" s="10">
+        <v>0</v>
+      </c>
+      <c r="J39" s="10">
+        <v>0</v>
+      </c>
+      <c r="K39" s="10">
+        <v>0</v>
+      </c>
+      <c r="L39" s="10">
+        <v>0</v>
+      </c>
+      <c r="M39" s="10">
+        <v>0</v>
+      </c>
+      <c r="N39" s="10">
+        <v>0</v>
+      </c>
+      <c r="O39" s="10">
+        <v>438573.47999999992</v>
+      </c>
     </row>
     <row r="40" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
+        <v>25</v>
+      </c>
+      <c r="B40" s="10">
+        <v>0</v>
+      </c>
+      <c r="C40" s="10">
+        <v>0</v>
+      </c>
+      <c r="D40" s="10">
+        <v>0</v>
+      </c>
+      <c r="E40" s="10">
+        <v>0</v>
+      </c>
+      <c r="F40" s="10">
+        <v>0</v>
+      </c>
+      <c r="G40" s="10">
+        <v>0</v>
+      </c>
+      <c r="H40" s="10">
+        <v>0</v>
+      </c>
+      <c r="I40" s="10">
+        <v>0</v>
+      </c>
+      <c r="J40" s="10">
+        <v>0</v>
+      </c>
+      <c r="K40" s="10">
+        <v>0</v>
+      </c>
+      <c r="L40" s="10">
+        <v>0</v>
+      </c>
+      <c r="M40" s="10">
+        <v>0</v>
+      </c>
+      <c r="N40" s="10">
+        <v>0</v>
+      </c>
+      <c r="O40" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
+        <v>26</v>
+      </c>
+      <c r="B41" s="10">
+        <v>0</v>
+      </c>
+      <c r="C41" s="10">
+        <v>0</v>
+      </c>
+      <c r="D41" s="10">
+        <v>0</v>
+      </c>
+      <c r="E41" s="10">
+        <v>0</v>
+      </c>
+      <c r="F41" s="10">
+        <v>0</v>
+      </c>
+      <c r="G41" s="10">
+        <v>0</v>
+      </c>
+      <c r="H41" s="10">
+        <v>0</v>
+      </c>
+      <c r="I41" s="10">
+        <v>0</v>
+      </c>
+      <c r="J41" s="10">
+        <v>0</v>
+      </c>
+      <c r="K41" s="10">
+        <v>0</v>
+      </c>
+      <c r="L41" s="10">
+        <v>0</v>
+      </c>
+      <c r="M41" s="10">
+        <v>0</v>
+      </c>
+      <c r="N41" s="10">
+        <v>0</v>
+      </c>
+      <c r="O41" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="B42" s="10">
+        <v>0</v>
+      </c>
+      <c r="C42" s="10">
+        <v>0</v>
+      </c>
+      <c r="D42" s="10">
+        <v>0</v>
+      </c>
+      <c r="E42" s="10">
+        <v>0</v>
+      </c>
+      <c r="F42" s="10">
+        <v>0</v>
+      </c>
+      <c r="G42" s="10">
+        <v>0</v>
+      </c>
+      <c r="H42" s="10">
+        <v>0</v>
+      </c>
+      <c r="I42" s="10">
+        <v>0</v>
+      </c>
+      <c r="J42" s="10">
+        <v>0</v>
+      </c>
+      <c r="K42" s="10">
+        <v>0</v>
+      </c>
+      <c r="L42" s="10">
+        <v>0</v>
+      </c>
+      <c r="M42" s="10">
+        <v>0</v>
+      </c>
+      <c r="N42" s="10">
+        <v>0</v>
+      </c>
+      <c r="O42" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
+        <v>39</v>
+      </c>
+      <c r="B43" s="10">
+        <v>0</v>
+      </c>
+      <c r="C43" s="10">
+        <v>0</v>
+      </c>
+      <c r="D43" s="10">
+        <v>0</v>
+      </c>
+      <c r="E43" s="10">
+        <v>0</v>
+      </c>
+      <c r="F43" s="10">
+        <v>0</v>
+      </c>
+      <c r="G43" s="10">
+        <v>0</v>
+      </c>
+      <c r="H43" s="10">
+        <v>0</v>
+      </c>
+      <c r="I43" s="10">
+        <v>0</v>
+      </c>
+      <c r="J43" s="10">
+        <v>0</v>
+      </c>
+      <c r="K43" s="10">
+        <v>0</v>
+      </c>
+      <c r="L43" s="10">
+        <v>0</v>
+      </c>
+      <c r="M43" s="10">
+        <v>0</v>
+      </c>
+      <c r="N43" s="10">
+        <v>0</v>
+      </c>
+      <c r="O43" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B44" s="10">
         <f>SUM(B38:B43)</f>
         <v>0</v>
       </c>
       <c r="C44" s="10">
-        <f t="shared" ref="C44:O44" si="5">SUM(C38:C43)</f>
-        <v>0</v>
+        <f t="shared" ref="C44:O44" si="4">SUM(C38:C43)</f>
+        <v>182598</v>
       </c>
       <c r="D44" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>182598</v>
       </c>
       <c r="E44" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>182598</v>
       </c>
       <c r="F44" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>212598</v>
       </c>
       <c r="G44" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>182598</v>
       </c>
       <c r="H44" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>182598</v>
       </c>
       <c r="I44" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>182598</v>
       </c>
       <c r="J44" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>212598</v>
       </c>
       <c r="K44" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>182598</v>
       </c>
       <c r="L44" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>182598</v>
       </c>
       <c r="M44" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>182598</v>
       </c>
       <c r="N44" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>212598</v>
       </c>
       <c r="O44" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>2719749.48</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -6993,59 +8919,59 @@
       </c>
       <c r="B45" s="14">
         <f>(B14-B44)</f>
-        <v>0</v>
+        <v>75577738</v>
       </c>
       <c r="C45" s="14">
-        <f t="shared" ref="C45:O45" si="6">(C14-C44)</f>
-        <v>0</v>
+        <f t="shared" ref="C45:O45" si="5">(C14-C44)</f>
+        <v>77431460</v>
       </c>
       <c r="D45" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>80369442</v>
       </c>
       <c r="E45" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>83849864</v>
       </c>
       <c r="F45" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>88382686</v>
       </c>
       <c r="G45" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>90748123</v>
       </c>
       <c r="H45" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>94817170</v>
       </c>
       <c r="I45" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>100761217</v>
       </c>
       <c r="J45" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>109116514</v>
       </c>
       <c r="K45" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>112912261</v>
       </c>
       <c r="L45" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>119344558</v>
       </c>
       <c r="M45" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>125776855</v>
       </c>
       <c r="N45" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>134813462</v>
       </c>
       <c r="O45" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>58797150.520000003</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
@@ -7067,7 +8993,7 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B47" s="22"/>
       <c r="C47" s="24"/>
@@ -7086,7 +9012,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -7105,7 +9031,7 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -7124,7 +9050,7 @@
     </row>
     <row r="50" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -7143,7 +9069,7 @@
     </row>
     <row r="51" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -7162,7 +9088,7 @@
     </row>
     <row r="52" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -7181,7 +9107,7 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -7200,19 +9126,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Business Plan Documents/YPS Cash Flow.xlsx
+++ b/Business Plan Documents/YPS Cash Flow.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cash Flow (Year 1)" sheetId="1" r:id="rId1"/>
@@ -500,7 +500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -571,6 +571,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -880,9 +883,9 @@
   </sheetPr>
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -985,51 +988,51 @@
       </c>
       <c r="C7" s="33">
         <f>B45</f>
-        <v>904892</v>
+        <v>1229750</v>
       </c>
       <c r="D7" s="33">
         <f t="shared" ref="D7:N7" si="1">C45</f>
-        <v>829296.21</v>
+        <v>1115653.21</v>
       </c>
       <c r="E7" s="33">
         <f t="shared" si="1"/>
-        <v>900860.41999999993</v>
+        <v>1118716.42</v>
       </c>
       <c r="F7" s="33">
         <f t="shared" si="1"/>
-        <v>928664.62999999989</v>
+        <v>1083019.6299999999</v>
       </c>
       <c r="G7" s="33">
         <f t="shared" si="1"/>
-        <v>1071768.8399999999</v>
+        <v>1116123.8399999999</v>
       </c>
       <c r="H7" s="33">
         <f t="shared" si="1"/>
-        <v>1274938.0499999998</v>
+        <v>1201793.0499999998</v>
       </c>
       <c r="I7" s="33">
         <f t="shared" si="1"/>
-        <v>1920717.2599999998</v>
+        <v>1660072.2599999998</v>
       </c>
       <c r="J7" s="33">
         <f t="shared" si="1"/>
-        <v>2938996.4699999997</v>
+        <v>2387101.4699999997</v>
       </c>
       <c r="K7" s="33">
         <f t="shared" si="1"/>
-        <v>4420525.68</v>
+        <v>3464880.6799999997</v>
       </c>
       <c r="L7" s="33">
         <f t="shared" si="1"/>
-        <v>5384979.8899999997</v>
+        <v>4154334.8899999997</v>
       </c>
       <c r="M7" s="33">
         <f t="shared" si="1"/>
-        <v>7135634.0999999996</v>
+        <v>5444989.0999999996</v>
       </c>
       <c r="N7" s="33">
         <f t="shared" si="1"/>
-        <v>8886288.3100000005</v>
+        <v>6735643.3099999996</v>
       </c>
       <c r="O7" s="33"/>
     </row>
@@ -1078,44 +1081,44 @@
         <v>0</v>
       </c>
       <c r="C10" s="12">
-        <v>206050</v>
+        <v>161050</v>
       </c>
       <c r="D10" s="12">
-        <v>343210</v>
+        <v>268210</v>
       </c>
       <c r="E10" s="12">
-        <v>344450</v>
+        <v>269450</v>
       </c>
       <c r="F10" s="12">
-        <v>479750</v>
+        <v>374750</v>
       </c>
       <c r="G10" s="12">
-        <v>514815</v>
+        <v>402315</v>
       </c>
       <c r="H10" s="12">
-        <v>862425</v>
+        <v>674925</v>
       </c>
       <c r="I10" s="12">
-        <v>1237425</v>
+        <v>956175</v>
       </c>
       <c r="J10" s="12">
-        <v>1725675</v>
+        <v>1331925</v>
       </c>
       <c r="K10" s="12">
-        <v>1188600</v>
+        <v>918600</v>
       </c>
       <c r="L10" s="12">
-        <v>1969800</v>
+        <v>1519800</v>
       </c>
       <c r="M10" s="12">
-        <v>1969800</v>
+        <v>1519800</v>
       </c>
       <c r="N10" s="12">
-        <v>2748760</v>
+        <v>2118760</v>
       </c>
       <c r="O10" s="10">
         <f t="shared" ref="O10:O12" si="2">SUM(B10:N10)</f>
-        <v>13590760</v>
+        <v>10515760</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
@@ -1224,55 +1227,55 @@
       </c>
       <c r="C13" s="10">
         <f t="shared" ref="C13:O13" si="3">SUM(C10:C12)</f>
-        <v>206050</v>
+        <v>161050</v>
       </c>
       <c r="D13" s="10">
         <f t="shared" si="3"/>
-        <v>343210</v>
+        <v>268210</v>
       </c>
       <c r="E13" s="10">
         <f t="shared" si="3"/>
-        <v>344450</v>
+        <v>269450</v>
       </c>
       <c r="F13" s="10">
         <f t="shared" si="3"/>
-        <v>479750</v>
+        <v>374750</v>
       </c>
       <c r="G13" s="10">
         <f t="shared" si="3"/>
-        <v>514815</v>
+        <v>402315</v>
       </c>
       <c r="H13" s="10">
         <f t="shared" si="3"/>
-        <v>862425</v>
+        <v>674925</v>
       </c>
       <c r="I13" s="10">
         <f t="shared" si="3"/>
-        <v>1237425</v>
+        <v>956175</v>
       </c>
       <c r="J13" s="10">
         <f t="shared" si="3"/>
-        <v>1725675</v>
+        <v>1331925</v>
       </c>
       <c r="K13" s="10">
         <f t="shared" si="3"/>
-        <v>1188600</v>
+        <v>918600</v>
       </c>
       <c r="L13" s="10">
         <f t="shared" si="3"/>
-        <v>1969800</v>
+        <v>1519800</v>
       </c>
       <c r="M13" s="10">
         <f t="shared" si="3"/>
-        <v>1969800</v>
+        <v>1519800</v>
       </c>
       <c r="N13" s="10">
         <f t="shared" si="3"/>
-        <v>2748760</v>
+        <v>2118760</v>
       </c>
       <c r="O13" s="10">
         <f t="shared" si="3"/>
-        <v>14390760</v>
+        <v>11315760</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
@@ -1285,55 +1288,55 @@
       </c>
       <c r="C14" s="14">
         <f t="shared" ref="C14:O14" si="4">(C7+C13)</f>
-        <v>1110942</v>
+        <v>1390800</v>
       </c>
       <c r="D14" s="14">
         <f t="shared" si="4"/>
-        <v>1172506.21</v>
+        <v>1383863.21</v>
       </c>
       <c r="E14" s="14">
         <f t="shared" si="4"/>
-        <v>1245310.42</v>
+        <v>1388166.42</v>
       </c>
       <c r="F14" s="14">
         <f t="shared" si="4"/>
-        <v>1408414.63</v>
+        <v>1457769.63</v>
       </c>
       <c r="G14" s="14">
         <f t="shared" si="4"/>
-        <v>1586583.8399999999</v>
+        <v>1518438.8399999999</v>
       </c>
       <c r="H14" s="14">
         <f t="shared" si="4"/>
-        <v>2137363.0499999998</v>
+        <v>1876718.0499999998</v>
       </c>
       <c r="I14" s="14">
         <f t="shared" si="4"/>
-        <v>3158142.26</v>
+        <v>2616247.2599999998</v>
       </c>
       <c r="J14" s="14">
         <f t="shared" si="4"/>
-        <v>4664671.47</v>
+        <v>3719026.4699999997</v>
       </c>
       <c r="K14" s="14">
         <f t="shared" si="4"/>
-        <v>5609125.6799999997</v>
+        <v>4383480.68</v>
       </c>
       <c r="L14" s="14">
         <f t="shared" si="4"/>
-        <v>7354779.8899999997</v>
+        <v>5674134.8899999997</v>
       </c>
       <c r="M14" s="14">
         <f t="shared" si="4"/>
-        <v>9105434.0999999996</v>
+        <v>6964789.0999999996</v>
       </c>
       <c r="N14" s="14">
         <f t="shared" si="4"/>
-        <v>11635048.310000001</v>
+        <v>8854403.3099999987</v>
       </c>
       <c r="O14" s="14">
         <f t="shared" si="4"/>
-        <v>14390760</v>
+        <v>11315760</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -1425,7 +1428,7 @@
         <v>42</v>
       </c>
       <c r="B18" s="10">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="C18" s="10">
         <v>5000</v>
@@ -1465,7 +1468,7 @@
       </c>
       <c r="O18" s="10">
         <f>SUM(B18:N18)</f>
-        <v>190000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -1473,7 +1476,7 @@
         <v>43</v>
       </c>
       <c r="B19" s="10">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="C19" s="10">
         <v>2500</v>
@@ -1513,7 +1516,7 @@
       </c>
       <c r="O19" s="10">
         <f>SUM(B19:N19)</f>
-        <v>95000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -1713,43 +1716,43 @@
         <v>13</v>
       </c>
       <c r="B24" s="10">
-        <v>80000</v>
+        <v>10000</v>
       </c>
       <c r="C24" s="10">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="D24" s="10">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="E24" s="10">
         <v>5000</v>
       </c>
       <c r="F24" s="10">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G24" s="10">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="H24" s="10">
         <v>5000</v>
       </c>
       <c r="I24" s="10">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="J24" s="10">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="K24" s="10">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L24" s="10">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="M24" s="10">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="N24" s="10">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O24" s="10">
         <f t="shared" si="5"/>
@@ -1908,13 +1911,13 @@
         <v>24000</v>
       </c>
       <c r="C28" s="10">
-        <v>7999</v>
+        <v>0</v>
       </c>
       <c r="D28" s="10">
-        <v>7999</v>
+        <v>0</v>
       </c>
       <c r="E28" s="10">
-        <v>7999</v>
+        <v>0</v>
       </c>
       <c r="F28" s="10">
         <v>7999</v>
@@ -1945,7 +1948,7 @@
       </c>
       <c r="O28" s="10">
         <f t="shared" si="5"/>
-        <v>119988</v>
+        <v>95991</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
@@ -2004,13 +2007,13 @@
         <v>10500</v>
       </c>
       <c r="C30" s="10">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="D30" s="10">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="E30" s="10">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="F30" s="10">
         <v>3500</v>
@@ -2041,7 +2044,7 @@
       </c>
       <c r="O30" s="10">
         <f t="shared" si="5"/>
-        <v>52500</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
@@ -2193,7 +2196,7 @@
         <v>44</v>
       </c>
       <c r="B34" s="10">
-        <v>160000</v>
+        <v>40000</v>
       </c>
       <c r="C34" s="10">
         <v>10000</v>
@@ -2233,7 +2236,7 @@
       </c>
       <c r="O34" s="10">
         <f t="shared" si="5"/>
-        <v>280000</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -2241,7 +2244,7 @@
         <v>45</v>
       </c>
       <c r="B35" s="10">
-        <v>1108</v>
+        <v>1250</v>
       </c>
       <c r="C35" s="10">
         <v>0</v>
@@ -2281,7 +2284,7 @@
       </c>
       <c r="O35" s="10">
         <f t="shared" si="5"/>
-        <v>1108</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
@@ -2386,27 +2389,27 @@
       </c>
       <c r="B38" s="10">
         <f>SUM(B17:B37)</f>
-        <v>495108</v>
+        <v>170250</v>
       </c>
       <c r="C38" s="10">
         <f t="shared" ref="C38:O38" si="6">SUM(C17:C37)</f>
-        <v>245098</v>
+        <v>238599</v>
       </c>
       <c r="D38" s="10">
         <f t="shared" si="6"/>
-        <v>235098</v>
+        <v>228599</v>
       </c>
       <c r="E38" s="10">
         <f t="shared" si="6"/>
-        <v>280098</v>
+        <v>268599</v>
       </c>
       <c r="F38" s="10">
         <f t="shared" si="6"/>
-        <v>300098</v>
+        <v>305098</v>
       </c>
       <c r="G38" s="10">
         <f t="shared" si="6"/>
-        <v>275098</v>
+        <v>280098</v>
       </c>
       <c r="H38" s="10">
         <f t="shared" si="6"/>
@@ -2414,31 +2417,31 @@
       </c>
       <c r="I38" s="10">
         <f t="shared" si="6"/>
-        <v>182598</v>
+        <v>192598</v>
       </c>
       <c r="J38" s="10">
         <f t="shared" si="6"/>
-        <v>207598</v>
+        <v>217598</v>
       </c>
       <c r="K38" s="10">
         <f t="shared" si="6"/>
-        <v>187598</v>
+        <v>192598</v>
       </c>
       <c r="L38" s="10">
         <f t="shared" si="6"/>
-        <v>182598</v>
+        <v>192598</v>
       </c>
       <c r="M38" s="10">
         <f t="shared" si="6"/>
-        <v>182598</v>
+        <v>192598</v>
       </c>
       <c r="N38" s="10">
         <f t="shared" si="6"/>
-        <v>212598</v>
+        <v>217598</v>
       </c>
       <c r="O38" s="10">
         <f t="shared" si="6"/>
-        <v>3166284</v>
+        <v>2876929</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
@@ -2687,27 +2690,27 @@
       </c>
       <c r="B44" s="10">
         <f>SUM(B38:B43)</f>
-        <v>495108</v>
+        <v>170250</v>
       </c>
       <c r="C44" s="10">
         <f t="shared" ref="C44:O44" si="7">SUM(C38:C43)</f>
-        <v>281645.78999999998</v>
+        <v>275146.78999999998</v>
       </c>
       <c r="D44" s="10">
         <f t="shared" si="7"/>
-        <v>271645.78999999998</v>
+        <v>265146.78999999998</v>
       </c>
       <c r="E44" s="10">
         <f t="shared" si="7"/>
-        <v>316645.78999999998</v>
+        <v>305146.78999999998</v>
       </c>
       <c r="F44" s="10">
         <f t="shared" si="7"/>
-        <v>336645.79</v>
+        <v>341645.79</v>
       </c>
       <c r="G44" s="10">
         <f t="shared" si="7"/>
-        <v>311645.78999999998</v>
+        <v>316645.78999999998</v>
       </c>
       <c r="H44" s="10">
         <f t="shared" si="7"/>
@@ -2715,31 +2718,31 @@
       </c>
       <c r="I44" s="10">
         <f t="shared" si="7"/>
-        <v>219145.79</v>
+        <v>229145.79</v>
       </c>
       <c r="J44" s="10">
         <f t="shared" si="7"/>
-        <v>244145.79</v>
+        <v>254145.79</v>
       </c>
       <c r="K44" s="10">
         <f t="shared" si="7"/>
-        <v>224145.79</v>
+        <v>229145.79</v>
       </c>
       <c r="L44" s="10">
         <f t="shared" si="7"/>
-        <v>219145.79</v>
+        <v>229145.79</v>
       </c>
       <c r="M44" s="10">
         <f t="shared" si="7"/>
-        <v>219145.79</v>
+        <v>229145.79</v>
       </c>
       <c r="N44" s="10">
         <f t="shared" si="7"/>
-        <v>249145.79</v>
+        <v>254145.79</v>
       </c>
       <c r="O44" s="10">
         <f t="shared" si="7"/>
-        <v>3604857.48</v>
+        <v>3315502.48</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -2748,59 +2751,59 @@
       </c>
       <c r="B45" s="14">
         <f t="shared" ref="B45:O45" si="8">(B14-B44)</f>
-        <v>904892</v>
+        <v>1229750</v>
       </c>
       <c r="C45" s="14">
         <f t="shared" si="8"/>
-        <v>829296.21</v>
+        <v>1115653.21</v>
       </c>
       <c r="D45" s="14">
         <f t="shared" si="8"/>
-        <v>900860.41999999993</v>
+        <v>1118716.42</v>
       </c>
       <c r="E45" s="14">
         <f t="shared" si="8"/>
-        <v>928664.62999999989</v>
+        <v>1083019.6299999999</v>
       </c>
       <c r="F45" s="14">
         <f t="shared" si="8"/>
-        <v>1071768.8399999999</v>
+        <v>1116123.8399999999</v>
       </c>
       <c r="G45" s="14">
         <f t="shared" si="8"/>
-        <v>1274938.0499999998</v>
+        <v>1201793.0499999998</v>
       </c>
       <c r="H45" s="14">
         <f t="shared" si="8"/>
-        <v>1920717.2599999998</v>
+        <v>1660072.2599999998</v>
       </c>
       <c r="I45" s="14">
         <f t="shared" si="8"/>
-        <v>2938996.4699999997</v>
+        <v>2387101.4699999997</v>
       </c>
       <c r="J45" s="14">
         <f t="shared" si="8"/>
-        <v>4420525.68</v>
+        <v>3464880.6799999997</v>
       </c>
       <c r="K45" s="14">
         <f t="shared" si="8"/>
-        <v>5384979.8899999997</v>
+        <v>4154334.8899999997</v>
       </c>
       <c r="L45" s="14">
         <f t="shared" si="8"/>
-        <v>7135634.0999999996</v>
+        <v>5444989.0999999996</v>
       </c>
       <c r="M45" s="14">
         <f t="shared" si="8"/>
-        <v>8886288.3100000005</v>
+        <v>6735643.3099999996</v>
       </c>
       <c r="N45" s="14">
         <f t="shared" si="8"/>
-        <v>11385902.520000001</v>
+        <v>8600257.5199999996</v>
       </c>
       <c r="O45" s="14">
         <f t="shared" si="8"/>
-        <v>10785902.52</v>
+        <v>8000257.5199999996</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
@@ -2966,14 +2969,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.33203125" style="1" customWidth="1"/>
-    <col min="2" max="15" width="9.83203125" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" customWidth="1"/>
+    <col min="4" max="15" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -3066,55 +3071,55 @@
         <v>2</v>
       </c>
       <c r="B7" s="14">
-        <v>11385903</v>
+        <v>8600258</v>
       </c>
       <c r="C7" s="33">
         <f>B45</f>
-        <v>11385903</v>
+        <v>8600258</v>
       </c>
       <c r="D7" s="33">
         <f t="shared" ref="D7:N7" si="1">C45</f>
-        <v>11982897.210000001</v>
+        <v>9017252.2100000009</v>
       </c>
       <c r="E7" s="33">
         <f t="shared" si="1"/>
-        <v>13014711.420000002</v>
+        <v>9773066.4200000018</v>
       </c>
       <c r="F7" s="33">
         <f t="shared" si="1"/>
-        <v>14264245.630000003</v>
+        <v>10698600.630000003</v>
       </c>
       <c r="G7" s="33">
         <f t="shared" si="1"/>
-        <v>15916739.840000004</v>
+        <v>11931094.840000004</v>
       </c>
       <c r="H7" s="33">
         <f t="shared" si="1"/>
-        <v>16721024.050000004</v>
+        <v>12510379.050000004</v>
       </c>
       <c r="I7" s="33">
         <f t="shared" si="1"/>
-        <v>18212168.260000005</v>
+        <v>13626523.260000005</v>
       </c>
       <c r="J7" s="33">
         <f t="shared" si="1"/>
-        <v>20453312.470000006</v>
+        <v>15305167.470000006</v>
       </c>
       <c r="K7" s="33">
         <f t="shared" si="1"/>
-        <v>23640956.680000007</v>
+        <v>17705311.680000007</v>
       </c>
       <c r="L7" s="33">
         <f t="shared" si="1"/>
-        <v>25198550.890000008</v>
+        <v>18857905.890000008</v>
       </c>
       <c r="M7" s="33">
         <f t="shared" si="1"/>
-        <v>27927945.100000009</v>
+        <v>20912300.100000009</v>
       </c>
       <c r="N7" s="33">
         <f t="shared" si="1"/>
-        <v>30657339.31000001</v>
+        <v>22966694.31000001</v>
       </c>
       <c r="O7" s="33"/>
     </row>
@@ -3162,45 +3167,45 @@
       <c r="B10" s="12">
         <v>0</v>
       </c>
-      <c r="C10" s="12">
-        <v>816140</v>
-      </c>
-      <c r="D10" s="12">
-        <v>1250960</v>
-      </c>
-      <c r="E10" s="12">
-        <v>1468680</v>
-      </c>
-      <c r="F10" s="12">
-        <v>1901640</v>
-      </c>
-      <c r="G10" s="12">
-        <v>1023430</v>
-      </c>
-      <c r="H10" s="12">
-        <v>1710290</v>
-      </c>
-      <c r="I10" s="12">
-        <v>2460290</v>
-      </c>
-      <c r="J10" s="12">
-        <v>3436790</v>
-      </c>
-      <c r="K10" s="12">
-        <v>1776740</v>
-      </c>
-      <c r="L10" s="12">
-        <v>2948540</v>
-      </c>
-      <c r="M10" s="12">
-        <v>2948540</v>
-      </c>
-      <c r="N10" s="12">
-        <v>4118100</v>
+      <c r="C10" s="40">
+        <v>636140</v>
+      </c>
+      <c r="D10" s="40">
+        <v>974960</v>
+      </c>
+      <c r="E10" s="40">
+        <v>1144680</v>
+      </c>
+      <c r="F10" s="40">
+        <v>1481640</v>
+      </c>
+      <c r="G10" s="40">
+        <v>798430</v>
+      </c>
+      <c r="H10" s="40">
+        <v>1335290</v>
+      </c>
+      <c r="I10" s="40">
+        <v>1897790</v>
+      </c>
+      <c r="J10" s="40">
+        <v>2649290</v>
+      </c>
+      <c r="K10" s="40">
+        <v>1371740</v>
+      </c>
+      <c r="L10" s="40">
+        <v>2273540</v>
+      </c>
+      <c r="M10" s="40">
+        <v>2273540</v>
+      </c>
+      <c r="N10" s="40">
+        <v>3173100</v>
       </c>
       <c r="O10" s="12">
         <f>SUM(C10:N10)</f>
-        <v>25860140</v>
+        <v>20010140</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
@@ -3309,55 +3314,55 @@
       </c>
       <c r="C13" s="10">
         <f t="shared" ref="C13:O13" si="2">SUM(C10:C12)</f>
-        <v>816140</v>
+        <v>636140</v>
       </c>
       <c r="D13" s="10">
         <f t="shared" si="2"/>
-        <v>1250960</v>
+        <v>974960</v>
       </c>
       <c r="E13" s="10">
         <f t="shared" si="2"/>
-        <v>1468680</v>
+        <v>1144680</v>
       </c>
       <c r="F13" s="10">
         <f t="shared" si="2"/>
-        <v>1901640</v>
+        <v>1481640</v>
       </c>
       <c r="G13" s="10">
         <f t="shared" si="2"/>
-        <v>1023430</v>
+        <v>798430</v>
       </c>
       <c r="H13" s="10">
         <f t="shared" si="2"/>
-        <v>1710290</v>
+        <v>1335290</v>
       </c>
       <c r="I13" s="10">
         <f t="shared" si="2"/>
-        <v>2460290</v>
+        <v>1897790</v>
       </c>
       <c r="J13" s="10">
         <f t="shared" si="2"/>
-        <v>3436790</v>
+        <v>2649290</v>
       </c>
       <c r="K13" s="10">
         <f t="shared" si="2"/>
-        <v>1776740</v>
+        <v>1371740</v>
       </c>
       <c r="L13" s="10">
         <f t="shared" si="2"/>
-        <v>2948540</v>
+        <v>2273540</v>
       </c>
       <c r="M13" s="10">
         <f t="shared" si="2"/>
-        <v>2948540</v>
+        <v>2273540</v>
       </c>
       <c r="N13" s="10">
         <f t="shared" si="2"/>
-        <v>4118100</v>
+        <v>3173100</v>
       </c>
       <c r="O13" s="10">
         <f t="shared" si="2"/>
-        <v>25860140</v>
+        <v>20010140</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
@@ -3366,59 +3371,59 @@
       </c>
       <c r="B14" s="14">
         <f>(B7+B13)</f>
-        <v>11385903</v>
+        <v>8600258</v>
       </c>
       <c r="C14" s="14">
         <f t="shared" ref="C14:O14" si="3">(C7+C13)</f>
-        <v>12202043</v>
+        <v>9236398</v>
       </c>
       <c r="D14" s="14">
         <f t="shared" si="3"/>
-        <v>13233857.210000001</v>
+        <v>9992212.2100000009</v>
       </c>
       <c r="E14" s="14">
         <f t="shared" si="3"/>
-        <v>14483391.420000002</v>
+        <v>10917746.420000002</v>
       </c>
       <c r="F14" s="14">
         <f t="shared" si="3"/>
-        <v>16165885.630000003</v>
+        <v>12180240.630000003</v>
       </c>
       <c r="G14" s="14">
         <f t="shared" si="3"/>
-        <v>16940169.840000004</v>
+        <v>12729524.840000004</v>
       </c>
       <c r="H14" s="14">
         <f t="shared" si="3"/>
-        <v>18431314.050000004</v>
+        <v>13845669.050000004</v>
       </c>
       <c r="I14" s="14">
         <f t="shared" si="3"/>
-        <v>20672458.260000005</v>
+        <v>15524313.260000005</v>
       </c>
       <c r="J14" s="14">
         <f t="shared" si="3"/>
-        <v>23890102.470000006</v>
+        <v>17954457.470000006</v>
       </c>
       <c r="K14" s="14">
         <f t="shared" si="3"/>
-        <v>25417696.680000007</v>
+        <v>19077051.680000007</v>
       </c>
       <c r="L14" s="14">
         <f t="shared" si="3"/>
-        <v>28147090.890000008</v>
+        <v>21131445.890000008</v>
       </c>
       <c r="M14" s="14">
         <f t="shared" si="3"/>
-        <v>30876485.100000009</v>
+        <v>23185840.100000009</v>
       </c>
       <c r="N14" s="14">
         <f t="shared" si="3"/>
-        <v>34775439.31000001</v>
+        <v>26139794.31000001</v>
       </c>
       <c r="O14" s="14">
         <f t="shared" si="3"/>
-        <v>25860140</v>
+        <v>20010140</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -4833,59 +4838,59 @@
       </c>
       <c r="B45" s="14">
         <f>(B14-B44)</f>
-        <v>11385903</v>
+        <v>8600258</v>
       </c>
       <c r="C45" s="14">
         <f t="shared" ref="C45:O45" si="8">(C14-C44)</f>
-        <v>11982897.210000001</v>
+        <v>9017252.2100000009</v>
       </c>
       <c r="D45" s="14">
         <f t="shared" si="8"/>
-        <v>13014711.420000002</v>
+        <v>9773066.4200000018</v>
       </c>
       <c r="E45" s="14">
         <f t="shared" si="8"/>
-        <v>14264245.630000003</v>
+        <v>10698600.630000003</v>
       </c>
       <c r="F45" s="14">
         <f t="shared" si="8"/>
-        <v>15916739.840000004</v>
+        <v>11931094.840000004</v>
       </c>
       <c r="G45" s="14">
         <f t="shared" si="8"/>
-        <v>16721024.050000004</v>
+        <v>12510379.050000004</v>
       </c>
       <c r="H45" s="14">
         <f t="shared" si="8"/>
-        <v>18212168.260000005</v>
+        <v>13626523.260000005</v>
       </c>
       <c r="I45" s="14">
         <f t="shared" si="8"/>
-        <v>20453312.470000006</v>
+        <v>15305167.470000006</v>
       </c>
       <c r="J45" s="14">
         <f t="shared" si="8"/>
-        <v>23640956.680000007</v>
+        <v>17705311.680000007</v>
       </c>
       <c r="K45" s="14">
         <f t="shared" si="8"/>
-        <v>25198550.890000008</v>
+        <v>18857905.890000008</v>
       </c>
       <c r="L45" s="14">
         <f t="shared" si="8"/>
-        <v>27927945.100000009</v>
+        <v>20912300.100000009</v>
       </c>
       <c r="M45" s="14">
         <f t="shared" si="8"/>
-        <v>30657339.31000001</v>
+        <v>22966694.31000001</v>
       </c>
       <c r="N45" s="14">
         <f t="shared" si="8"/>
-        <v>34526293.520000011</v>
+        <v>25890648.520000011</v>
       </c>
       <c r="O45" s="14">
         <f t="shared" si="8"/>
-        <v>23140390.52</v>
+        <v>17290390.52</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
@@ -5048,8 +5053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -5148,55 +5153,55 @@
         <v>2</v>
       </c>
       <c r="B7" s="14">
-        <v>34526294</v>
+        <v>25890648.520000011</v>
       </c>
       <c r="C7" s="33">
         <f>B45</f>
-        <v>34526294</v>
+        <v>25890648.520000011</v>
       </c>
       <c r="D7" s="33">
         <f t="shared" ref="D7:N7" si="1">C45</f>
-        <v>35566976</v>
+        <v>26661330.520000011</v>
       </c>
       <c r="E7" s="33">
         <f t="shared" si="1"/>
-        <v>37258958</v>
+        <v>27939312.520000011</v>
       </c>
       <c r="F7" s="33">
         <f t="shared" si="1"/>
-        <v>39276900</v>
+        <v>29471254.520000011</v>
       </c>
       <c r="G7" s="33">
         <f t="shared" si="1"/>
-        <v>41994882</v>
+        <v>31559236.520000011</v>
       </c>
       <c r="H7" s="33">
         <f t="shared" si="1"/>
-        <v>43648754</v>
+        <v>32808108.520000011</v>
       </c>
       <c r="I7" s="33">
         <f t="shared" si="1"/>
-        <v>46531686</v>
+        <v>35016040.520000011</v>
       </c>
       <c r="J7" s="33">
         <f t="shared" si="1"/>
-        <v>50764618</v>
+        <v>38236472.520000011</v>
       </c>
       <c r="K7" s="33">
         <f t="shared" si="1"/>
-        <v>56725250</v>
+        <v>42779604.520000011</v>
       </c>
       <c r="L7" s="33">
         <f t="shared" si="1"/>
-        <v>59493432</v>
+        <v>44872786.520000011</v>
       </c>
       <c r="M7" s="33">
         <f t="shared" si="1"/>
-        <v>64214614</v>
+        <v>48468968.520000011</v>
       </c>
       <c r="N7" s="33">
         <f t="shared" si="1"/>
-        <v>68935796</v>
+        <v>52065150.520000011</v>
       </c>
       <c r="O7" s="33"/>
     </row>
@@ -5245,44 +5250,44 @@
         <v>0</v>
       </c>
       <c r="C10" s="12">
-        <v>1223280</v>
+        <v>953280</v>
       </c>
       <c r="D10" s="12">
-        <v>1874580</v>
+        <v>1460580</v>
       </c>
       <c r="E10" s="12">
-        <v>2200540</v>
+        <v>1714540</v>
       </c>
       <c r="F10" s="12">
-        <v>2930580</v>
+        <v>2300580</v>
       </c>
       <c r="G10" s="12">
-        <v>1836470</v>
+        <v>1431470</v>
       </c>
       <c r="H10" s="12">
-        <v>3065530</v>
+        <v>2390530</v>
       </c>
       <c r="I10" s="12">
-        <v>4415530</v>
+        <v>3403030</v>
       </c>
       <c r="J10" s="12">
-        <v>6173230</v>
+        <v>4755730</v>
       </c>
       <c r="K10" s="12">
-        <v>2950780</v>
+        <v>2275780</v>
       </c>
       <c r="L10" s="12">
-        <v>4903780</v>
+        <v>3778780</v>
       </c>
       <c r="M10" s="12">
-        <v>4903780</v>
+        <v>3778780</v>
       </c>
       <c r="N10" s="12">
-        <v>6854540</v>
+        <v>5279540</v>
       </c>
       <c r="O10" s="12">
         <f>SUM(C10:N10)</f>
-        <v>43332620</v>
+        <v>33522620</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
@@ -5391,55 +5396,55 @@
       </c>
       <c r="C13" s="10">
         <f t="shared" ref="C13:O13" si="3">SUM(C10:C12)</f>
-        <v>1223280</v>
+        <v>953280</v>
       </c>
       <c r="D13" s="10">
         <f t="shared" si="3"/>
-        <v>1874580</v>
+        <v>1460580</v>
       </c>
       <c r="E13" s="10">
         <f t="shared" si="3"/>
-        <v>2200540</v>
+        <v>1714540</v>
       </c>
       <c r="F13" s="10">
         <f t="shared" si="3"/>
-        <v>2930580</v>
+        <v>2300580</v>
       </c>
       <c r="G13" s="10">
         <f t="shared" si="3"/>
-        <v>1836470</v>
+        <v>1431470</v>
       </c>
       <c r="H13" s="10">
         <f t="shared" si="3"/>
-        <v>3065530</v>
+        <v>2390530</v>
       </c>
       <c r="I13" s="10">
         <f t="shared" si="3"/>
-        <v>4415530</v>
+        <v>3403030</v>
       </c>
       <c r="J13" s="10">
         <f t="shared" si="3"/>
-        <v>6173230</v>
+        <v>4755730</v>
       </c>
       <c r="K13" s="10">
         <f t="shared" si="3"/>
-        <v>2950780</v>
+        <v>2275780</v>
       </c>
       <c r="L13" s="10">
         <f t="shared" si="3"/>
-        <v>4903780</v>
+        <v>3778780</v>
       </c>
       <c r="M13" s="10">
         <f t="shared" si="3"/>
-        <v>4903780</v>
+        <v>3778780</v>
       </c>
       <c r="N13" s="10">
         <f t="shared" si="3"/>
-        <v>6854540</v>
+        <v>5279540</v>
       </c>
       <c r="O13" s="10">
         <f t="shared" si="3"/>
-        <v>43332620</v>
+        <v>33522620</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
@@ -5448,59 +5453,59 @@
       </c>
       <c r="B14" s="14">
         <f>(B7+B13)</f>
-        <v>34526294</v>
+        <v>25890648.520000011</v>
       </c>
       <c r="C14" s="14">
         <f t="shared" ref="C14:O14" si="4">(C7+C13)</f>
-        <v>35749574</v>
+        <v>26843928.520000011</v>
       </c>
       <c r="D14" s="14">
         <f t="shared" si="4"/>
-        <v>37441556</v>
+        <v>28121910.520000011</v>
       </c>
       <c r="E14" s="14">
         <f t="shared" si="4"/>
-        <v>39459498</v>
+        <v>29653852.520000011</v>
       </c>
       <c r="F14" s="14">
         <f t="shared" si="4"/>
-        <v>42207480</v>
+        <v>31771834.520000011</v>
       </c>
       <c r="G14" s="14">
         <f t="shared" si="4"/>
-        <v>43831352</v>
+        <v>32990706.520000011</v>
       </c>
       <c r="H14" s="14">
         <f t="shared" si="4"/>
-        <v>46714284</v>
+        <v>35198638.520000011</v>
       </c>
       <c r="I14" s="14">
         <f t="shared" si="4"/>
-        <v>50947216</v>
+        <v>38419070.520000011</v>
       </c>
       <c r="J14" s="14">
         <f t="shared" si="4"/>
-        <v>56937848</v>
+        <v>42992202.520000011</v>
       </c>
       <c r="K14" s="14">
         <f t="shared" si="4"/>
-        <v>59676030</v>
+        <v>45055384.520000011</v>
       </c>
       <c r="L14" s="14">
         <f t="shared" si="4"/>
-        <v>64397212</v>
+        <v>48651566.520000011</v>
       </c>
       <c r="M14" s="14">
         <f t="shared" si="4"/>
-        <v>69118394</v>
+        <v>52247748.520000011</v>
       </c>
       <c r="N14" s="14">
         <f t="shared" si="4"/>
-        <v>75790336</v>
+        <v>57344690.520000011</v>
       </c>
       <c r="O14" s="14">
         <f t="shared" si="4"/>
-        <v>43332620</v>
+        <v>33522620</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -6875,59 +6880,59 @@
       </c>
       <c r="B45" s="14">
         <f>(B14-B44)</f>
-        <v>34526294</v>
+        <v>25890648.520000011</v>
       </c>
       <c r="C45" s="14">
         <f t="shared" ref="C45:O45" si="6">(C14-C44)</f>
-        <v>35566976</v>
+        <v>26661330.520000011</v>
       </c>
       <c r="D45" s="14">
         <f t="shared" si="6"/>
-        <v>37258958</v>
+        <v>27939312.520000011</v>
       </c>
       <c r="E45" s="14">
         <f t="shared" si="6"/>
-        <v>39276900</v>
+        <v>29471254.520000011</v>
       </c>
       <c r="F45" s="14">
         <f t="shared" si="6"/>
-        <v>41994882</v>
+        <v>31559236.520000011</v>
       </c>
       <c r="G45" s="14">
         <f t="shared" si="6"/>
-        <v>43648754</v>
+        <v>32808108.520000011</v>
       </c>
       <c r="H45" s="14">
         <f t="shared" si="6"/>
-        <v>46531686</v>
+        <v>35016040.520000011</v>
       </c>
       <c r="I45" s="14">
         <f t="shared" si="6"/>
-        <v>50764618</v>
+        <v>38236472.520000011</v>
       </c>
       <c r="J45" s="14">
         <f t="shared" si="6"/>
-        <v>56725250</v>
+        <v>42779604.520000011</v>
       </c>
       <c r="K45" s="14">
         <f t="shared" si="6"/>
-        <v>59493432</v>
+        <v>44872786.520000011</v>
       </c>
       <c r="L45" s="14">
         <f t="shared" si="6"/>
-        <v>64214614</v>
+        <v>48468968.520000011</v>
       </c>
       <c r="M45" s="14">
         <f t="shared" si="6"/>
-        <v>68935796</v>
+        <v>52065150.520000011</v>
       </c>
       <c r="N45" s="14">
         <f t="shared" si="6"/>
-        <v>75577738</v>
+        <v>57132092.520000011</v>
       </c>
       <c r="O45" s="14">
         <f t="shared" si="6"/>
-        <v>40612870.520000003</v>
+        <v>30802870.52</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
@@ -7090,8 +7095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -7192,55 +7197,55 @@
         <v>2</v>
       </c>
       <c r="B7" s="33">
-        <v>75577738</v>
+        <v>57132092.520000011</v>
       </c>
       <c r="C7" s="33">
         <f>B45</f>
-        <v>75577738</v>
+        <v>57132092.520000011</v>
       </c>
       <c r="D7" s="33">
         <f t="shared" ref="D7:N7" si="1">C45</f>
-        <v>77431460</v>
+        <v>58535814.520000011</v>
       </c>
       <c r="E7" s="33">
         <f t="shared" si="1"/>
-        <v>80369442</v>
+        <v>60783796.520000011</v>
       </c>
       <c r="F7" s="33">
         <f t="shared" si="1"/>
-        <v>83849864</v>
+        <v>63454218.520000011</v>
       </c>
       <c r="G7" s="33">
         <f t="shared" si="1"/>
-        <v>88382686</v>
+        <v>66937040.520000011</v>
       </c>
       <c r="H7" s="33">
         <f t="shared" si="1"/>
-        <v>90748123</v>
+        <v>68739977.520000011</v>
       </c>
       <c r="I7" s="33">
         <f t="shared" si="1"/>
-        <v>94817170</v>
+        <v>71871524.520000011</v>
       </c>
       <c r="J7" s="33">
         <f t="shared" si="1"/>
-        <v>100761217</v>
+        <v>76409321.520000011</v>
       </c>
       <c r="K7" s="33">
         <f t="shared" si="1"/>
-        <v>109116514</v>
+        <v>82795868.520000011</v>
       </c>
       <c r="L7" s="33">
         <f t="shared" si="1"/>
-        <v>112912261</v>
+        <v>85680365.520000011</v>
       </c>
       <c r="M7" s="33">
         <f t="shared" si="1"/>
-        <v>119344558</v>
+        <v>90593912.520000011</v>
       </c>
       <c r="N7" s="33">
         <f t="shared" si="1"/>
-        <v>125776855</v>
+        <v>95507459.520000011</v>
       </c>
       <c r="O7" s="33"/>
     </row>
@@ -7289,44 +7294,44 @@
         <v>0</v>
       </c>
       <c r="C10" s="12">
-        <v>2036320</v>
+        <v>1586320</v>
       </c>
       <c r="D10" s="12">
-        <v>3120580</v>
+        <v>2430580</v>
       </c>
       <c r="E10" s="12">
-        <v>3663020</v>
+        <v>2853020</v>
       </c>
       <c r="F10" s="12">
-        <v>4745420</v>
+        <v>3695420</v>
       </c>
       <c r="G10" s="12">
-        <v>2548035</v>
+        <v>1985535</v>
       </c>
       <c r="H10" s="12">
-        <v>4251645</v>
+        <v>3314145</v>
       </c>
       <c r="I10" s="12">
-        <v>6126645</v>
+        <v>4720395</v>
       </c>
       <c r="J10" s="12">
-        <v>8567895</v>
+        <v>6599145</v>
       </c>
       <c r="K10" s="12">
-        <v>3978345</v>
+        <v>3067095</v>
       </c>
       <c r="L10" s="12">
-        <v>6614895</v>
+        <v>5096145</v>
       </c>
       <c r="M10" s="12">
-        <v>6614895</v>
+        <v>5096145</v>
       </c>
       <c r="N10" s="12">
-        <v>9249204.9999999981</v>
+        <v>7122954.9999999991</v>
       </c>
       <c r="O10" s="10">
         <f>SUM(C10:N10)</f>
-        <v>61516900</v>
+        <v>47566900</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
@@ -7435,55 +7440,55 @@
       </c>
       <c r="C13" s="10">
         <f t="shared" ref="C13:N13" si="2">SUM(C10:C12)</f>
-        <v>2036320</v>
+        <v>1586320</v>
       </c>
       <c r="D13" s="10">
         <f t="shared" si="2"/>
-        <v>3120580</v>
+        <v>2430580</v>
       </c>
       <c r="E13" s="10">
         <f t="shared" si="2"/>
-        <v>3663020</v>
+        <v>2853020</v>
       </c>
       <c r="F13" s="10">
         <f t="shared" si="2"/>
-        <v>4745420</v>
+        <v>3695420</v>
       </c>
       <c r="G13" s="10">
         <f t="shared" si="2"/>
-        <v>2548035</v>
+        <v>1985535</v>
       </c>
       <c r="H13" s="10">
         <f t="shared" si="2"/>
-        <v>4251645</v>
+        <v>3314145</v>
       </c>
       <c r="I13" s="10">
         <f t="shared" si="2"/>
-        <v>6126645</v>
+        <v>4720395</v>
       </c>
       <c r="J13" s="10">
         <f t="shared" si="2"/>
-        <v>8567895</v>
+        <v>6599145</v>
       </c>
       <c r="K13" s="10">
         <f t="shared" si="2"/>
-        <v>3978345</v>
+        <v>3067095</v>
       </c>
       <c r="L13" s="10">
         <f t="shared" si="2"/>
-        <v>6614895</v>
+        <v>5096145</v>
       </c>
       <c r="M13" s="10">
         <f t="shared" si="2"/>
-        <v>6614895</v>
+        <v>5096145</v>
       </c>
       <c r="N13" s="10">
         <f t="shared" si="2"/>
-        <v>9249204.9999999981</v>
+        <v>7122954.9999999991</v>
       </c>
       <c r="O13" s="10">
         <f>SUM(C13:N13)</f>
-        <v>61516900</v>
+        <v>47566900</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
@@ -7492,59 +7497,59 @@
       </c>
       <c r="B14" s="14">
         <f>(B7+B13)</f>
-        <v>75577738</v>
+        <v>57132092.520000011</v>
       </c>
       <c r="C14" s="14">
         <f t="shared" ref="C14:O14" si="3">(C7+C13)</f>
-        <v>77614058</v>
+        <v>58718412.520000011</v>
       </c>
       <c r="D14" s="14">
         <f t="shared" si="3"/>
-        <v>80552040</v>
+        <v>60966394.520000011</v>
       </c>
       <c r="E14" s="14">
         <f t="shared" si="3"/>
-        <v>84032462</v>
+        <v>63636816.520000011</v>
       </c>
       <c r="F14" s="14">
         <f t="shared" si="3"/>
-        <v>88595284</v>
+        <v>67149638.520000011</v>
       </c>
       <c r="G14" s="14">
         <f t="shared" si="3"/>
-        <v>90930721</v>
+        <v>68922575.520000011</v>
       </c>
       <c r="H14" s="14">
         <f t="shared" si="3"/>
-        <v>94999768</v>
+        <v>72054122.520000011</v>
       </c>
       <c r="I14" s="14">
         <f t="shared" si="3"/>
-        <v>100943815</v>
+        <v>76591919.520000011</v>
       </c>
       <c r="J14" s="14">
         <f t="shared" si="3"/>
-        <v>109329112</v>
+        <v>83008466.520000011</v>
       </c>
       <c r="K14" s="14">
         <f t="shared" si="3"/>
-        <v>113094859</v>
+        <v>85862963.520000011</v>
       </c>
       <c r="L14" s="14">
         <f t="shared" si="3"/>
-        <v>119527156</v>
+        <v>90776510.520000011</v>
       </c>
       <c r="M14" s="14">
         <f t="shared" si="3"/>
-        <v>125959453</v>
+        <v>95690057.520000011</v>
       </c>
       <c r="N14" s="14">
         <f t="shared" si="3"/>
-        <v>135026060</v>
+        <v>102630414.52000001</v>
       </c>
       <c r="O14" s="14">
         <f t="shared" si="3"/>
-        <v>61516900</v>
+        <v>47566900</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -8919,59 +8924,59 @@
       </c>
       <c r="B45" s="14">
         <f>(B14-B44)</f>
-        <v>75577738</v>
+        <v>57132092.520000011</v>
       </c>
       <c r="C45" s="14">
         <f t="shared" ref="C45:O45" si="5">(C14-C44)</f>
-        <v>77431460</v>
+        <v>58535814.520000011</v>
       </c>
       <c r="D45" s="14">
         <f t="shared" si="5"/>
-        <v>80369442</v>
+        <v>60783796.520000011</v>
       </c>
       <c r="E45" s="14">
         <f t="shared" si="5"/>
-        <v>83849864</v>
+        <v>63454218.520000011</v>
       </c>
       <c r="F45" s="14">
         <f t="shared" si="5"/>
-        <v>88382686</v>
+        <v>66937040.520000011</v>
       </c>
       <c r="G45" s="14">
         <f t="shared" si="5"/>
-        <v>90748123</v>
+        <v>68739977.520000011</v>
       </c>
       <c r="H45" s="14">
         <f t="shared" si="5"/>
-        <v>94817170</v>
+        <v>71871524.520000011</v>
       </c>
       <c r="I45" s="14">
         <f t="shared" si="5"/>
-        <v>100761217</v>
+        <v>76409321.520000011</v>
       </c>
       <c r="J45" s="14">
         <f t="shared" si="5"/>
-        <v>109116514</v>
+        <v>82795868.520000011</v>
       </c>
       <c r="K45" s="14">
         <f t="shared" si="5"/>
-        <v>112912261</v>
+        <v>85680365.520000011</v>
       </c>
       <c r="L45" s="14">
         <f t="shared" si="5"/>
-        <v>119344558</v>
+        <v>90593912.520000011</v>
       </c>
       <c r="M45" s="14">
         <f t="shared" si="5"/>
-        <v>125776855</v>
+        <v>95507459.520000011</v>
       </c>
       <c r="N45" s="14">
         <f t="shared" si="5"/>
-        <v>134813462</v>
+        <v>102417816.52000001</v>
       </c>
       <c r="O45" s="14">
         <f t="shared" si="5"/>
-        <v>58797150.520000003</v>
+        <v>44847150.520000003</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
